--- a/codebook_ver1.xlsx
+++ b/codebook_ver1.xlsx
@@ -661,8 +661,8 @@
     <t>{nan,2019-01-17,2019-08-29,2019-07-09,2016-11-24,2019-01-21,2019-03-04,2015-09-08,2019-03-05,2018-09-27,2017-12-25,2019-06-17,2019-03-19,2016-11-01,2019-02-28,2019-08-15,2018-11-26,2019-11-13,2019-10-16,2019-05-07,2017-12-18,2018-12-26,2019-08-22,2019-06-11,2018-09-17,2019-07-17,2019-04-02,2018-03-21,2018-01-10,2019-02-22,2019-06-24,2019-11-06,2013-08-31,2019-07-30,2019-09-18,2015-05-05,2019-02-01,2019-03-08,2019-09-23,2019-08-13,2018-12-28,2018-12-21,2019-08-05,2019-04-26,2019-01-04,2018-09-20,2019-10-03,2019-07-20,2019-01-31,2019-09-24,2019-10-31,2019-12-23,2019-11-08,2018-01-09,2019-07-22,2019-04-24,2019-12-03,2019-09-12,2019-07-01,2019-09-26,2019-06-18,2019-12-12,2019-03-21,2019-07-15,2018-03-02,2018-03-06,2019-03-18,2019-08-08,2019-05-31,2018-10-26,2018-05-09,2019-07-31,2019-05-30,2017-10-23,2018-04-06,2019-11-28,2016-12-23,2019-06-07,2019-06-05,2017-12-30,2019-04-01,2018-10-24,2019-01-29,2019-01-23,2019-09-09,2019-06-27,2018-12-30,2019-03-29,2019-10-01,2017-12-28,2019-04-18,2019-09-05,2018-09-11,2018-12-29,2019-11-04,2015-07-29,2019-05-29,2014-04-23,2018-12-31,2018-09-28,2018-12-27,2019-03-07,2018-08-28,2019-11-07,2019-09-13,2012-09-25,2015-12-23,2019-01-28,2017-06-28,2010-03-30,2019-01-02,2019-10-08,2015-01-07,2019-01-07,2019-03-20,2019-12-04,2019-09-06,2018-11-23,2019-07-23,2019-04-10,2019-04-09,2019-08-27,2016-08-17,2019-10-26,2017-08-29,2018-12-11,2019-07-25,2019-04-22,2019-06-20,2015-08-25,2016-06-03,2019-06-03,2016-11-30,2019-03-26,2016-11-10,2014-04-25,2018-01-15,2019-01-25,2017-08-24,2019-11-20,2015-06-25,2016-12-29,2017-12-26,2019-10-11,2014-12-31,2012-12-25,2018-07-12,2019-09-27,2019-07-26,2019-12-10,2019-08-26,2019-01-03,2016-06-26,2019-08-19,2017-10-04,2019-06-06,2019-05-23,2019-10-09,2019-12-18,2016-06-29,2019-06-26,2016-06-02,2019-08-30,2019-07-03,2019-03-13,2017-06-22,2017-04-28,2014-03-14,2019-04-23,2015-06-27,2019-05-27,2016-12-20,2019-04-04,2019-10-28,2015-12-29,2019-05-13,2019-11-26,2018-01-04,2019-10-23,2019-06-14,2019-09-03,2018-11-15,2018-02-08,2017-12-05,2017-01-09,2019-02-19,2018-01-11,2019-08-03,2019-09-30,2019-05-22,2016-12-22,2018-09-07,2019-02-21,2018-12-18,2019-11-01,2015-07-31,2019-04-12,2018-01-02,2019-01-10,2018-04-17,2019-08-16,2019-02-26,2019-05-20,2019-01-16,2015-09-07,2019-10-18,2018-10-05,2018-02-12,2019-05-16,2018-08-03,2017-06-24,2016-12-28,2019-09-16,2019-01-24,2019-09-25,2018-06-20,2019-04-03,2019-01-14,2016-08-04,2019-03-27,2019-04-08,2018-11-08,2019-09-19,2019-04-11,2016-09-15,2017-12-22,2019-09-17,2019-05-17,2019-08-28,2018-03-26,2019-12-13,2019-08-21,2019-04-17,2019-12-02,2019-01-08,2019-11-19,2016-01-06,2018-10-10,2019-02-12,2019-10-24,2015-02-05,2019-05-10,2019-06-21,2017-09-26,2016-10-06,2019-01-05,2019-07-05,2017-12-08,2019-02-20,2018-07-30,2016-07-12,2017-05-16,2019-04-16,2018-12-14,2019-06-25,2019-10-07,2017-01-04,2019-03-25,2019-05-02,2018-02-24,2019-11-05,2019-07-06,2015-03-26,2018-01-03,2018-07-11,2018-02-01,2018-04-20,2018-03-11,2019-10-02,2018-08-07,2017-12-12,2019-10-15,2018-05-03,2015-11-25,2019-12-16,2015-12-15,2016-08-02,2016-08-18,2016-02-03,2019-05-14,2018-01-30,2016-12-31,2018-12-04,2018-07-24,2017-12-27,2019-10-04,2019-07-02,2015-04-25,2019-03-06,2018-05-24,2015-01-14,2019-05-28,2019-05-24,2019-07-16,2019-07-29,2017-12-21,2017-08-01,2016-03-28,2017-01-16,2017-09-12,2017-08-08,2019-06-01,2019-05-06,2014-06-30,2017-11-14,2016-01-27,2015-07-11,2016-07-15,2019-10-05,2019-09-10,2017-12-13,2019-12-26,2019-09-21,2017-09-06,2019-03-22,2018-11-19,2017-11-30,2018-07-02,2014-12-23,2016-09-14,2015-06-18,2018-07-20,2017-06-29,2015-12-31,2016-01-11,2017-03-17,2014-04-10,2019-01-11,2019-08-12,2019-09-11,2019-02-18,2014-06-23,2019-07-12,2017-02-28,2017-09-28,2019-03-12,2019-01-15,2017-02-25,2018-06-05,2019-11-15,2014-05-09,2017-10-09,2019-07-24,2019-02-14,2015-07-06,2019-06-28,2019-01-18,2018-05-21,2019-07-11,2015-04-10,2018-03-09,2016-11-08,2018-01-23,2015-10-21,2018-12-13,2019-10-21,2018-05-08,2015-06-03,2018-01-08,2019-08-02,2014-02-27,2019-11-18,2019-07-18,2019-05-03,2019-12-20,2016-05-06,2019-09-28,2019-03-14,2019-08-23,2015-04-03,2018-06-29,2017-10-26,2018-06-21,2018-11-06,2014-07-17,2016-12-21,2018-10-09,2018-11-27,2018-01-13,2014-06-16,2018-06-15,2017-06-23,2013-09-30,2015-06-29,2016-01-26,2018-06-28,2018-10-16,2017-12-23,2019-01-09,2018-10-01,2014-09-25,2018-03-01,2015-09-30,2017-03-02,2017-11-25,2016-03-26,2015-01-08,2019-04-19,2014-12-17,2016-12-09,2019-06-19,2018-12-03,2019-10-14,2014-06-25,2018-07-31,2019-06-02,2019-05-19,2015-12-28,2017-01-24,2019-10-22,2015-06-10,2017-03-30,2017-09-30,2014-12-25,2018-08-09,2019-05-09,2016-07-04,2019-11-22,2019-01-30,2018-06-27,2018-11-13,2019-06-10,2019-11-11,2016-02-27,2017-06-20,2018-03-15,2018-02-28,2018-12-25,2019-02-25,2016-09-12,2017-06-14,2019-11-09,2018-03-05,2014-03-13,2014-02-26,2018-04-26,2014-12-29,2017-10-13,2018-08-31,2019-11-21,2016-12-30,2018-12-12,2017-01-11,2019-08-20,2013-09-20,2019-10-29,2019-06-12,2019-10-30,2019-11-27,2019-06-04,2018-01-29,2019-07-19,2019-05-15,2016-01-13,2017-05-12,2019-05-04,2019-12-17,2015-12-21,2019-10-10,2018-01-19,2018-02-05,2018-05-11,2016-07-11,2019-11-25,2018-03-14,2019-04-13,2019-10-25,2018-04-13,2014-06-17,2019-12-24,2019-12-06,2019-03-01,2017-04-21,2016-06-27,2016-03-03,2018-12-05,2019-08-01,2016-09-23,2017-10-20,2015-08-17,2016-09-16,2017-11-24,2019-05-21,2018-11-21,2019-08-14,2014-09-15,2018-07-23,2019-03-11,2017-12-16,2017-05-30,2018-07-04,2018-10-18,2017-06-26,2019-11-12,2015-11-12,2015-07-15,2017-06-27,2018-05-02,2019-08-31,2018-07-14,2019-04-29,2016-07-14,2019-08-06,2016-03-01,2016-01-04,2019-04-25,2017-12-31,2019-02-13,2016-06-30,2018-05-25,2018-03-17,2017-12-29,2017-06-21,2016-07-07,2018-10-11,2017-08-07,2016-06-24,2018-06-19,2016-06-21,2015-12-18,2015-04-02,2018-01-31,2018-10-03,2019-12-27,2016-10-13,2019-12-11,2018-05-04,2019-12-25,2019-05-08,2019-07-08,2018-06-18,2016-11-29,2014-06-28,2018-08-01,2019-07-04,2019-12-05,2019-03-28,2017-12-14,2014-07-02,2018-12-10,2014-08-06,2018-03-23,2014-12-16,2018-08-27,2018-06-12,2018-11-01,2018-12-24,2014-10-03,2018-07-07,2019-11-30,2018-11-05,2017-12-04,2018-11-09,2017-03-21,2018-02-13,2018-10-02,2014-12-15,2014-12-22,2015-12-14,2016-12-17,2018-01-05,2018-10-17,2015-10-12,2014-10-22,2014-12-02,2019-09-04,2015-12-30,2018-05-22,2019-06-29,2017-11-10,2018-06-26,2018-11-22,2017-10-12,2015-11-17,2019-01-22,2014-10-06,2018-07-18,2019-11-14,2015-03-02,2018-05-05,2018-08-29,2017-01-25,2016-01-08,2018-09-04,2017-12-11,2016-12-24,2017-03-13,2017-11-15,2018-10-23,2017-11-29,2019-10-17,2018-03-30,2015-10-16,2015-10-09,2017-03-27,2015-01-12,2016-09-22,2014-02-08,2018-04-16,2016-02-22,2018-06-01,2013-10-04,2015-03-30,2017-07-17,2017-03-15,2018-05-15,2019-11-29,2018-10-15,2016-03-14,2018-03-03,2013-12-30,2018-03-13,2018-02-26,2015-09-14,2019-10-06,2017-08-04,2016-07-18,2018-06-25,2015-10-26,2016-12-27,2019-09-20,2019-02-15,2017-12-20,2018-01-12,2018-10-08,2017-11-09,2014-10-29,2019-03-15,2014-09-24,2017-09-25,2017-11-03,2015-09-29,2015-12-26,2018-01-18,2014-12-26,2015-06-22,2016-12-26,2016-06-14,2018-01-26,2014-10-20,2019-08-09,2017-03-06,2015-07-13,2018-11-16,2016-09-26,2016-08-23,2015-09-21,2018-06-13,2016-04-06,2018-12-22,2016-08-19,2019-12-31,2016-07-21,2018-11-28,2018-01-22,2018-02-07,2015-10-14,2018-08-24,2018-01-17,2017-01-03,2018-10-31,2015-07-10,2016-12-12,2014-12-18,2016-04-20,2017-11-27,2017-12-24,2014-09-26,2017-06-30,2018-04-23,2015-07-30,2017-07-19,2015-07-09,2019-06-13,2019-10-19,2018-05-17,2014-06-27,2016-04-05,2014-07-01,2016-08-15,2018-06-07,2016-07-25,2016-08-24,2016-08-09,2017-02-07,2019-07-10,2016-07-01,2019-12-09,2014-11-06,2018-03-27,2018-05-28,2014-12-19,2018-03-12,2018-05-14,2017-04-26,2017-01-05,2018-04-18,2014-06-26,2017-01-06,2017-03-24,2015-05-18,2017-11-08,2019-03-02,2018-12-20,2018-12-17,2019-08-25,2016-11-25,2019-12-30,2016-08-22,2014-04-04,2018-08-04,2017-03-08,2015-01-02,2013-06-25,2017-10-18,2017-11-28,2013-12-27,2018-01-01,2013-06-28,2018-01-06,2018-03-22,2015-01-05,2018-07-09,2018-03-28,2016-06-28,2018-04-02,2017-07-25,2014-10-24,2014-04-26,2018-08-30,2013-12-26,2015-10-07,2018-07-26,2019-12-14,2017-12-01,2018-05-31,2018-11-14,2014-01-20,2014-12-11,2019-04-05,2014-01-23,2015-01-13,2017-10-30,2018-09-06,2016-11-02,2015-09-04,2014-05-15,2016-06-16,2015-06-26,2018-06-06,2017-10-02,2016-01-22,2018-09-19,2016-07-29,2013-12-20,2019-04-20,2018-01-16,2014-12-30,2016-12-13,2018-08-16,2018-04-03,2016-04-29,2018-09-25,2016-06-11,2015-02-11,2017-12-19,2018-08-06,2017-04-08,2016-12-07,2015-04-08,2013-12-24,2018-08-23,2016-08-08,2019-02-02,2018-03-08,2017-07-03,2016-09-01,2009-06-11,2017-05-05,2015-12-25,2016-09-30,2019-03-03,2017-07-14,2015-04-15,2017-04-13,2018-10-30,2017-09-17,2015-01-28,2013-12-31,2015-06-09,2017-11-07,2014-04-14,2018-08-22,2016-10-14,2015-01-24,2017-12-15,2014-12-24,2015-12-01,2018-06-22,2018-10-22,2017-11-02,2017-04-15,2018-09-13,2015-03-05,2018-05-30,2015-08-21,2018-05-23,2018-09-22,2014-12-10,2018-07-03,2019-12-21,2015-10-30,2014-03-31,2017-07-13,2014-08-04,2017-09-29,2018-10-29,2015-11-10,2015-04-16,2017-06-09,2017-01-23,2017-01-20,2018-09-12,2016-05-11,2014-09-30,2019-03-24,2017-10-25,2017-09-18,2017-01-21,2019-01-06,2017-01-13,2015-05-11,2018-08-21,2016-05-17,2018-07-06,2015-01-21,2019-01-12,2014-07-18,2016-01-29,2014-09-23,2018-02-03,2017-10-31,2017-01-15,2015-04-09,2017-04-25,2017-08-30,2016-03-30,2015-12-22,2015-11-23,2019-05-25,2018-07-25,2019-08-07,2016-06-20,2017-08-16,2015-01-09,2017-03-03,2017-06-01,2018-09-10,2016-04-13,2017-02-23,2016-02-01,2016-01-07,2015-09-09,2017-09-27,2018-11-07,2018-12-07,2018-12-15,2017-11-13,2016-09-28,2017-07-21,2019-12-19,2018-05-10,2016-12-02,2017-10-07,2017-10-16,2018-03-10,2016-01-12,2017-12-07,2017-03-29,2016-03-25,2018-08-10,2018-02-04,2017-06-08,2013-11-30,2015-11-30,2015-06-02,2017-01-12,2015-06-24,2017-07-20,2018-03-16,2017-02-24,2016-01-05,2014-06-13,2015-11-16,2018-11-02,2014-10-01,2018-07-19,2019-02-11,2014-09-18,2015-03-23,2014-08-15,2018-12-19,2016-01-18,2017-08-22,2012-05-28,2017-06-16,2018-12-23,2017-12-10,2019-01-27,2016-10-10,2015-10-22,2015-07-20,2019-01-19,2018-12-16,2016-12-15,2019-09-07,2019-02-27,2016-08-05,2017-02-10,2019-05-18,2016-06-23,2017-08-12,2014-07-30,2014-12-27,2016-04-28,2016-10-03,2017-01-01,2019-08-17,2014-10-02,2014-08-14,2015-08-24,2012-12-27,2012-07-02,2017-11-18,2016-05-13,2018-05-29,2016-02-25,2019-09-14,2017-11-17,2019-01-01,2018-01-21,2018-11-30,2019-05-11,2019-12-28,2018-06-30,2019-04-06,2019-08-10,2016-12-06,2011-12-29,2017-05-26,2013-03-26,2017-04-20,2017-09-16,2018-04-24,2017-04-19,2017-05-01,2018-07-05,2018-08-15,2018-02-02,2019-03-23,2017-10-24,2018-02-09,2016-07-27,2014-08-18,2016-01-28,2017-06-19,2014-01-07,2016-10-04,2017-11-22,2018-08-08,2015-02-14,2015-12-03,2015-05-15,2018-06-11,2018-07-13,2016-04-26,2019-03-09,2018-01-25,2015-12-24,2016-11-18,2015-12-20,2019-03-17,2018-11-29,2014-03-25,2018-05-16,2015-12-17,2018-03-19,2017-08-15,2018-05-07,2016-03-15,2019-02-03,2019-04-27,2015-03-24,2015-08-05,2016-03-29,2015-10-27,2016-01-21,2014-05-20,2016-06-01,2017-11-23,2016-11-28,2014-01-16,2018-07-10,2019-02-23,2017-04-03,2018-09-18,2017-07-05,2012-09-24,2016-12-10,2016-04-27,2017-03-16,2016-05-19,2016-06-15,2014-11-17,2015-05-29,2018-04-21,2016-03-04,2018-03-29,2018-06-04,2013-03-27,2014-01-03,2018-08-14,2014-05-05,2016-06-22,2013-06-10,2018-01-14,2014-03-28,2017-03-31,2017-07-04,2018-02-06,2016-06-17,2017-07-12,2017-12-02,2016-12-25,2015-05-28,2019-06-16,2017-06-25,2018-01-24,2016-08-12,2016-12-08,2018-04-27,2018-02-27,2017-06-13,2017-03-22,2015-06-08,2014-09-19,2016-09-13,2015-03-18,2019-04-21,2018-07-16,2016-10-27,2014-02-28,2015-01-19,2012-05-15,2018-10-19,2015-05-27,2019-08-24,2017-11-21,2016-10-07,2017-10-27,2017-02-06,2016-01-25,2014-08-27,2015-07-08,2016-03-24,2019-07-27,2016-04-12,2019-09-01,2016-12-14,2013-12-29,2019-06-30,2018-02-22,2015-09-25,2019-10-12,2014-11-28,2018-09-14,2015-04-20,2019-07-21,2017-09-21,2015-03-13,2019-01-20,2016-11-17,2019-04-15,2014-03-21,2009-12-31,2015-06-23,2019-08-18,2014-12-20,2016-02-24,2018-08-20,2017-07-11,2012-12-26,2014-05-30,2015-05-21,2016-07-13,2017-04-24,2017-07-31,2019-11-23,2016-05-18,2009-01-01,2016-06-07,2011-10-06,2014-06-24,2011-03-29,2017-08-17,2018-03-20,2015-09-28,2018-09-09,2018-09-21,2015-07-02,2017-10-17,2016-09-07,2016-10-28,2015-03-25,2015-04-18,2015-06-17,2016-02-23,2010-04-05,2017-06-17,2015-01-30,2017-10-06,2018-06-08,2017-01-22,2016-08-29,2019-03-31,2017-07-07,2017-01-19,2018-09-24,2014-12-05,2015-04-24,2018-11-12,2015-01-23,2015-06-16,2014-11-03,2018-09-05,2015-07-07,2015-05-07,2015-01-27,2014-08-26,2017-10-03,2014-07-04,2015-04-23,2015-12-11,2013-03-25,2016-07-08,2017-08-26,2011-01-07,2014-08-01,2012-05-09,2019-04-28,2015-06-01,2015-04-21,2015-07-03,2012-09-17,2016-10-19,2015-08-03,2015-02-25,2015-06-05,2015-06-19,2019-09-08,2015-04-06,2016-10-12,2015-10-06,2014-09-09,2015-11-11,2017-12-03,2018-04-08,2015-04-14,2014-09-05,2018-10-25,2018-04-04,2013-10-02,2015-03-31,2017-08-10,2014-09-22,2015-07-23,2018-08-02,2015-09-11,2013-12-23,2018-09-26,2014-10-27,2016-11-14,2017-01-10,2017-05-24,2018-06-02,2018-09-29,2015-08-06,2012-04-13,2016-05-04,2017-02-20,2017-03-20,2015-11-26,2017-04-10,2012-12-28,2018-06-14,2014-03-20,2018-04-11,2017-09-20,2017-03-23,2018-12-01,2012-12-20,2017-10-28,2014-04-01,2019-07-13,2017-08-14,2015-01-16,2017-09-19,2018-10-13,2010-10-15,2011-01-05,2017-12-06,2016-10-21,2014-09-12,2017-01-17,2015-05-06,2019-11-16,2019-02-17,2013-07-05,2016-02-29,2015-10-05,2015-12-27,2019-09-22,2016-04-14,2018-11-20,2013-12-12,2016-01-03,2019-12-01,2016-11-23,2017-05-11,2018-12-08,2015-08-11,2018-04-09,2013-07-01,2017-04-14,2014-05-13,2017-04-01,2014-12-09,2018-07-27,2015-10-08,2019-01-26,2017-07-24,2011-12-27,2017-03-09,2016-05-25,2017-06-15,2019-12-29,2014-07-28,2014-09-08,2017-09-23,2015-09-26,2015-07-28,2014-07-31,2015-12-07,2017-05-18,2017-09-13,2016-09-27,2016-10-25,2019-11-02,2016-04-19,2017-05-29,2014-12-03,2015-10-28,2017-05-03,2015-05-19,2018-04-05,2019-12-07,2015-12-09,2015-09-16,2018-05-13,2014-07-24,2014-10-31,2016-09-09,2018-10-04,2016-04-21,2015-06-30,2018-08-13,2017-10-05,2019-06-22,2015-02-09,2015-04-27,2015-04-07,2018-02-25,2018-05-19,2018-04-19,2015-03-27,2016-09-08,2013-01-02,2016-04-01,2016-03-18,2018-07-01,2014-10-13,2015-08-28,2017-08-03,2017-11-06,2017-02-17,2016-11-04,2016-08-30,2017-05-17,2017-03-01,2017-08-23,2012-12-14,2018-02-23,2017-11-01,2010-12-28,2019-04-07,2015-06-04,2017-04-22,2019-07-14,2017-05-25,2014-03-05,2018-04-07,2015-02-10,2014-07-14,2014-05-12,2017-07-10,2014-02-10,2014-06-03,2017-05-31,2015-11-09,2016-09-20,2018-11-10,2014-03-27,2014-06-09,2015-10-15,2015-01-06,2016-10-26,2019-06-23,2015-10-13,2014-08-25,2015-03-16,2015-03-04,2016-09-29,2014-10-09,2017-08-31,2015-10-02,2014-08-29,2016-12-19,2019-10-27,2016-07-06,2019-04-30,2015-07-21,2016-07-22,2015-08-04,2014-07-09,2015-02-12,2014-03-12,2017-04-17,2019-05-01,2015-11-04,2015-04-22,2015-03-19,2016-03-11,2017-11-20,2018-04-25,2014-10-30,2016-04-11,2018-03-31,2015-10-23,2016-07-19,2016-01-20,2014-08-12,2014-07-23,2014-01-06,2016-10-24,2018-07-17,2014-12-04,2015-12-16,2015-10-19,2019-06-08,2017-09-11,2017-02-03,2018-12-06,2015-02-13,2017-04-16,2014-07-10,2015-02-03,2015-07-16,2019-07-07,2013-01-31,2015-01-29,2010-01-12,2011-12-16,2012-10-18,2014-05-28,2014-06-18,2016-05-26,2017-07-06,2018-12-09,2017-05-08,2019-11-10,2014-08-07,2017-03-14,2018-08-17,2015-11-03,2016-11-22,2012-06-06,2016-12-05,2017-02-08,2014-12-28,2017-11-16,2017-09-22,2015-11-27,2013-12-13,2015-10-01,2017-02-27,2015-01-01,2016-03-31,2014-04-05,2015-09-24,2016-05-10,2016-08-01,2017-06-07,2016-02-17,2016-01-19,2016-06-18,2017-12-09,2016-11-11,2018-05-18,2016-02-19,2009-12-26,2018-04-12,2014-05-26,2014-04-22,2018-03-24,2014-02-20,2016-02-26,2018-03-07,2016-08-25,2015-03-03,2017-05-19,2018-06-23,2015-08-12,2016-08-27,2015-07-17,2016-02-02,2015-05-22,2017-03-10,2015-10-29,2017-10-11,2015-12-10,2014-04-11,2015-02-06,2016-10-05,2017-04-04,2019-06-15,2016-07-05,2016-09-21,2016-11-07,2017-10-19,2017-10-10,2014-01-08,2019-02-04,2017-07-27,2015-07-14,2014-03-10,2017-07-01,2017-09-01,2015-08-13,2015-09-03,2017-05-04,2014-08-05,2016-01-15,2015-12-19,2019-02-16,2018-03-18,2016-06-09,2014-06-05,2016-10-31,2017-08-25,2017-04-05,2017-08-21,2014-10-23,2018-09-01,2017-08-09,2016-04-15,2016-11-15,2014-08-13,2014-08-11,2015-01-26,2016-03-10,2015-11-18,2016-08-11,2018-04-10,2019-12-22,2015-05-26,2014-07-16,2019-03-16,2015-03-17,2017-08-11,2019-05-26,2017-05-23,2014-01-09,2017-02-09,2018-09-08,2014-03-26,2017-02-16,2017-07-29,2017-02-21,2019-03-30,2014-04-29,2009-12-25,2014-11-07,2011-07-28,2011-06-09,2019-10-13,2017-03-07,2011-01-18,2016-01-09,2015-03-12,2017-01-18,2015-11-24,2012-11-30,2017-04-27,2014-07-22,2013-07-18,2016-03-22,2017-04-07,2014-03-29,2014-07-29,2016-10-08,2016-05-05,2017-07-22,2015-09-01,2018-06-17,2018-08-18,2018-10-20,2015-12-08,2017-06-06,2016-11-16,2016-04-09,2016-02-15,2015-01-15,2015-11-05,2015-12-04,2017-03-28,2016-04-07,2018-03-25,2015-03-09,2019-01-13,2015-05-13}</t>
   </si>
   <si>
-    <t>{Trung tâm Kinh doanh tiền mặt,nan,CHUẨN BỊ,DQTD2,1093,IN LỤA,L12/10,Factory 03- Cutting 2,TNHGĐ,.,HGĐ-0783302689,trung tâm giống mía,3916,6231,KT0,QQI01001-116060826,LC,1704111,CĐ ĐD 09,Thôn Thanh Khê,15I2,6804,1416,8,Xưởng Hoàn thiện,14,C38-232370,B/ZU-7/50834,6822,17DNH1B 1711547302,HYOSUNG,Factory 10, Cutting 1,nvp,15CQM,K23-102-23211210961,KD,14CĐ - CK3,DLHJA1,3-0138,Masan,LG1 - 31403,Nghiệp vụ y,91716,BI0010_001,tt da nang - 03805,Nhà máy Sữa,E4595,23,,,Cty Perfetti Van Melle-725763,Partial_5527,105580,26841,Phòng kỹ thuật,525420,525,420,DệT,101703,1363,P.KT,5331,TZ0135Z,13,PX3,Trần Thanh Sang,7095-0905208583,HV,24695,S5866 Line 39.3,D8981,2007686 , m12,NANV,5,Xưởng Hàn,PE-I-25600,Nvbp,HANSOLL-MECH;FIV-52670,CHI NHÁNH CÔNG TY CỔ PHẦN CÚC PHƯƠNG TẠI ĐÀ NẴNG,122269,S4929 Maternity,Cty CORAZON - Chuyền 2,KS,R0121-01027818,180054,CÔNG TY TNHH MỘT THÀNH VIÊN KHÁCH SẠN VÀ NGHỈ DƯỠNG C.E.O,A/TRAN-1/49950,PKD,Phân xưởng carton,100 CATV V0633,CG11711,C176,1692,981,62604,PCT0,47712,27273-Tam Ky 1,PRODUCTION,887.17U2W,F/ST-114/50475,17,BPTS0,Xưởng nhuộm,A/ST-27/47939,Công ty TNHH May Mặc Mỹ Hưng,10905 -TK10,3,SE,Trạm thủy điện Phú Ninh - Xí nghiệp thủy điện An Điềm,Kho,VPLRDN,Factory 03- Fabric inspect,Dyeing- Dyeing_D,9,S_PO008.49_0027889,420,7932,7947,1465,11047,M1-39125,25349, TKHE3,Phòng KT,HK,12DT3,NH,PCT,PPK,Công nhân may công nghiệp,ATM,Sản xuất,079-604030,Cty Showa Gloves_09807_AM,V1D14,97505,Millennium-4014,Kĩ thuật,BP-66114,Kỹ thuật xây dựng công trình g,Lớp CQ.56.GTĐT,K10/1-DVPL,3005170383-17CDTP2,14614,57927,BP SX,D15PM02-ĐH Thủ Dầu Một,A10212S,Tổ May 1,3110_Đ3,01,78697,Cty Medochemie,M:044,SB-2 /5503,TRƯỜNG MẦM NON SAO BIỂN,P6EFINPAC003372,PDA,CLC_15DMA2,9-3434,CÔNG TY TNHH HƯNG SƠN ĐỒNG THÁP,K20S01,140668,9609,KTC,XSX,Phòng Nội Dung,HC,107729,140348,Kinh Doanh,Spinning,Kế TOáN,Cty Á Châu_E-18761-MTR,Cty Uni President-71,Phân xưởng Vận dụng,E-22553-MTR,Q.120,83747,Go PC,56,Cty TNHH TM Công Thành,GVT,2,42K07.1-CLC161121407131,CtySungHyun_240611, 1-HT-1-5-2,BDF,Khối Kho vận-TĐ Trường Thành,ParGrE1-11487,100078,Phòng Kinh Doanh,4,016-604638,Phòng Quản trị Hành chính,PB99544,CN vận hành máy may CN,102368,02,03,May A1,8281-L1,Mia,032689,Millennium-2443,PK02,05,Bộ Phận Kiểm phẩm,Tiền sảnh,1463,09,0373903129,Cty Powerwell,132331M,Kế toán,CTY SA NA KY,iCare,22644,Cty Millennium-01652,1416192,PHONG GIAM SAT THI CONG,S6127 Line 23.1,105209,71 M4/3 B0354,3.118,17060203,06,04-1640,Tổ ủi,57N,C15Q1E2,A-NB1-24782-FOLDING -K1,PKdxK,XCK,ZU-5 -2543,TRƯỜNG TRUNG HỌC CƠ SƠ NGHĨA KỲ,Cty ASTRO, 13946,Cty Chiến Thắng_W2-L2,ATD-0816_Cty Phúc Thắng,TT Trà Xuân, Trà Bồng,NOSF-10070965,922851-C,Bộ phận thị trường,12-14287,ST-25 /6027,Cty NUMBER ONE-40NBC3-7,141A140023,Millennium-3499,DS-4,17DTC3,KTCN028,SX,63096,Công ty cổ phần phát triển tài nguyên thực vật Green Gen,506,MLẠNG-501507178,HH,132253,DH,Công Ty Cổ Phần Bình Điền Quảng Trị,70513,D49,H02_68830,A20053445,78722-5011,127027,M3,160223015,Công ty,Q12_63651,16CVH,03-09,Cty Thái Bình-K_G1,văn phòng xưởng b1 -27335,0284-00155588,14120069,Asus Lap- Phone,0378-00048428,Tổ 3,19070774 FVL KVT,Cty Công nghệ truyền thông-DA,727,125061,Phân xưởng sửa chữa,0982988495,V9701,DS2K6-PT,Tổ A10 - 24880,50243,15010082,10306-NIKE B00,Cty Ngũ Kim HuaSheng,126922,10265,A1-QC Endline B-14039145,MFG-SUP-1036137,Cty YAMAKEN APPAREL,A17408661,3013,Cty Sunduck Vina,543D,U4273,916819-b,NM,Cty BVĐK Hoàn Hảo,Công Ty Tnhh Du Lịch Và Thương Mại Duyên Dáng Huế Khách Sạn ánh Sáng,9013,182575,120035,9412,I-VTI1 ASS I1-18184291,NK167,MAY 1,106482,Phạm Văn Thiết,00049668,G-VTG4 ASS-16154854,REF OQC,162,ĐC38,108602M,E-24969-MTR,S_PO003.46_0019267,MAY 2,45160,117278,171289,Nhà máy Sợi 1,CNKHCN,QC,Cty CLEARWATER METAL-Sơn1,84522,Công Ty TNHH Bệnh Viện Vạn Phúc,Cty TOÀN CHÂU,THIÊN HÀ KAMEDA,Nguyễn Vĩnh Hưng,17000,MAY 3,C94,Cty NAM TIẾN,117863,139927,Khoa Nội tổng hợp 3,DNTN Minh Nguyệt,5756,CN Cty TNI,15317,5102,cty thiên hưng,141180,Cty Kim Oanh_TCTY,CTY KIM OANH-ĐTP,1713502,M6-49463,CÔNG TY TNHH MTV SƠN HÀ HUẾ,1225,0356-PPD-1-1.8-Tu-43513,2545,FTD,Cty Marico South East Asia,00225,D201,ANDT,HR-1035014,47386-G2,6009,NOS H2 49967,Cty BOWKER,  A20-L3-16873,SC.IP3,E-VTE4 ASS-17170460,69127,D1_Hai Chau 3,SX - 01,66 CAT3 C0447,57M2/2 N1075,7/13,Nguyễn Thị Tuyết Nhung,Đào Thị Hồng Anh,D2-TK 3,Nvkd,II-Tổ 4,M2-38536,23 KV H2608,13SGC,GVIEW,0927,Huỳnh Thị Thao,10D,V-6649,1411 QTVB,0265,Nvb0,16QTKS1A,Tổ 44,Tổ 58,163,12T3,Tổ 19C,13DT2,K21-400-2120213412-K21-400,Tổ 85,1695494828,Trương Văn Sơn,7385,101,19686,Nguyễn Thị Đông,Hồ Thị Thạnh,M3-36511,CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ PCCC THT,H2458 BO VIEC,12,14528,D2_Thanh Khe 3,A2073,NS,35A,120 M6V B0423,44c,117574,0506,10282,F/LAGE-5/13049,3736 Ép MVL,cty tân hiệp phát,1.FBF-10421,8591,S2176 PP Cutting,10006,Mai Thị Thùy,Bình Phước,13017,CÁN SU,CÔNG TY TNHH SẢN PHẨM NHỰA HING LUNG,Tổ 32,17b,Nguyễn Thị Kiều Nga,7564,Ngô Khắc Tuệ,K23-102,Trần Văn Sơn,Nhà hàng,M9-501409108,M4V2,Tổ 5,144 M3V2 Y0169,CHI NHÁNH CÔNG TY CỔ PHẦN GIC LAND,127,VT,Tổ 127,0932 484 528,TNCACBCS,CN13,D921,118 M4V Q0232,Tổ 144,TA/FLHA 1-44003,KTDA,24824,FB,FRONT OFFICE,14060049,san nhi,22,Trần Ngọc Chí,Tổ 28,20,Lê Dừa,0905005808,Cửa hàng Xăng dầu số 29,LOG,D64,DTAD3,A06105,Công Ty TNHH Cao Su Thuận Lợi,10635SM,CBMA K7B,BHLN,49A TM,HDI FE,17060091,57,PH,0913412489,58.KTTT,Hành chính văn phòng,01676730275,KT,1808,0934881895,7287,131896,PHòNG GIáM ĐốC,122277,111,TDP 11,đội xe,I-Tổ 5B,Lê Công Thoải,115227,Tổ 43,B/ZU-9/50149,Trần Quang Toản,0202,CÔNG TY TNHH VIẾT THIÊN NGÂN,Tổ 173,Dương Văn Cầu,123302,Nguyễn Thị Phai,Radial,TN2016.099,XN,65,E/LAGE-3/28554,Tổ 19a,Phòng Kỹ thuật,HGĐ,143817,Cty Triumph International_CBR,0905055696,1111109,Lê Thị Mỹ Lài,KieuDung _ HoaCuong,P.KD-ST,40,INT,Nguyễn Thị Hoa,Kho Kinh Đô,3608,SC.Rewind,Pepsi,Coke,V2-69254,31130455,B504,B46,19083,Tân Lập,S_64_2_0016132,Cty Thiên Nam,Thôn 2,Sản Xuất,26448_WH,1521,1310,WIKO-52408,NMSX,CTY AEON - CNBD,DSM,Lớp DH14BQLGL-AL0006,11c1,56158,CN2A,18DXD1,M3_QC.EV,S_Sales_Net__0042676,QK4.5,M1-7,Xy dựng DD &amp; CN K56,Trường Mầm non Ia Kreng,PF219AS1-118070052,025241-VP631,C16 QTNHKS,GLI,cđ cntt k9,BD 30-09-19,DS39.3 1453801012252,BQD3,FVA_15037505,143760,NTG,Phòng Kinh doanh,57.KTTT-2,VL14A02,H. Yến,58.CNTT-1,Buồng phòng,19010255,68688,03_ĐH_QT2,M20H,CCK02SF1-2190602440,Nguyễn Phi Khanh,VMNT-989515,Phan Đình Lợi,CB Hấp 8,CTS NONAIR,7948,HCNS,Hộ Trường quân sự tỉnh,0931130020,lê thị anh,TM10E,57.QTDL-1,Tâm5,LỚP CD17QT1,57C.KT-1,Cửa Hàng Nha Trang 2,0395504677,Lớp C12E2a,SUDIAK40,DAE - 0610062,phùng đình mậu,56.QTDL-2,hoàng lê phương uyên,91884/SRF/Nha Trang,Kinh doanh,Phòng Bảo hiểm thất nghiệp,lê thị lý,Lữ Lâm,Phòng Đào Tạo,nguyễn phước dõng,Huỳnh Đặng Tửu ; 01695099209,Bùi Văn Lai,Nguyễn Mai Diệu Hoài;0907895016,trần thị thanh,Trần Văn Hóa,32K2,PPTPRO,CĐ ÔTÔ K8B,B02,Nguyễn Văn Tuấn,phòng kinh doanh,C14-124611,42474,Khoa KS,DH32NH01,K23D-KS1,M0B0,bđ nt 31,7,Fvas -14048539,2A15,010005//FACILITY_BP,PHÒNG HÀNH CHÍNH - NHÂN SỰ,BĐ-01688312057,BHXH thành phố pleiku,SD,070/0165,DQTC4,Lớp CD15QT1,nguyễn văn cường,89514,DL Sương,132241,Bộ phận Tiếp tân,t2297,CÔNG TY CỔ PHẦN ĐẦU,C42-231556,TDP 12,10387_AM,19,Đ.Eakhal,CTY Wonderful SG - 17-3936,TF,CW07448,X,75694,S_66_2_0016416,16706,6699746186,B16-91946,CtyGiàyThôngDụng-60296,G.th,6699493863,IB116-90502,Xã Cư Êbur- TP. BMT,Đ.19-5,74628,(MT 2_ STT TRAINING 2_18185011),Cty CP S Furniture,217/46 Ngô Quyên,191 007821,C07,Cty Thái Thanh,W50062468,056/0133,D5261,Xã Hòa Thắng TP. BMT,28 Thôn 12,P17,Dự án,Buôn Jù,Đ.4,H2-MAY 3,TCP1298,NT - RMS DA,DDROFIN1-1190503150,78453,Buôn Ju,CN,Bưu điện Thuận An,P. Thành Nhất - TP. BMT,DAI01SG2-116060002,Cty Yazaki_B6-O-31434,Cold fusion production Plant_DMP_A Shift_5 Team-19212163,N-50536,87966,PLT,VT2FT1 Department-E Plant-VTE1 VSM-Assembly Group-Assembly 2 Team-18187636,C15;34061,Xã Hòa Thuận,South Region Sales,E10149,LA_HT5455,3.128,Gain Lucky 2,FAN_STAY-ROTOR PROCE,D8089,Chi nhánh Đaklak,Công Ty Cổ Phần Nông Nghiệp Quốc Tế Hoàng Anh Gia Lai,Làng Krai,ÔTÔ,X6-CHGB,HM,TA 69401,SAL BMT,BHTN,6526/pk154574,C PlantAssembly group_18185700,Hoa Sen_Mn-P.BhCt,K_M3_C31,HN.031,SA_KT,Lớp DH13QMGL-AL0006,LÝ 2C,WAREHOUSE,KD 8A,R4-207719,LOTTE-13725-TT DN,H093599113,17/6 Nguyễn Viết Xuân,Cty CP TP á Châu-E-17970,BĐ,12133,Thôn 1,NES-BA-Cty Tốc Độ Xanh,BI0011O-131,VPCT,Thôn 6,Đội Xây dựng số 2,Công Ty TNHH NITORI BRVT,135 Trần Phú,Mẫu D01 - 3268,HF R 03_17168690,2172,HCM - Trung tâm Tân,M1-45700,BỘ PHẬN BẾP,MFG-LG-2258623,16211OT0446,59334,Hộ Ngô Phú Nghĩa,BI15-50,DS11-40,SGP,võ vũ thành,Kế toán K38E,c?. CKSC k39-nv2,Cty TNHH Modelleisenbahn,SEW-16A-13986,QK4.7,00105,15211KT2516,DKTA2,T(,16DQTC1,ABB,ĐDTH 25B,57.QLTS-1,Phân xưởng,K21C02,7AM1042,CCQ1511C,K21TC2,19082827,M2-51196,P1,Hộ Lê Duy Bảo;0935565956,Phòng Hành chính quản trị,20161462,PYN,BI0010_020,NHA TRANG 3_E1,60809,0933762197,Cty Nutifood BD,004159,NT,2209,55427,A40052119,CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THIÊN KIM NGÂN,Nguyễn Thị Minh,VMDA-969019,TA 72547,34740,CtyPROCTER&amp;GAMBLE ĐÔNG DƯƠNG,12139436,FVN T42May4 14035783,79949,19060158 FVL KP.KĐẾ,PD,ĐàO TạO,J402,Cty Tốc Độ Xanh,BTX,Cty Kim Hưng Thịnh,3161,iron,Cty Chin Hsin_3577,SG01,910248418,0913789637,11,Cty Trung Nguyên Cà Phê SG,(480)_P12065,TXXN0,Fujikura Fiber-QCS 47243,482760,Phòng lập trình,MFG-LG-1385812,22582,Xưởng,CSCX,Cty Vĩnh Hưng Đạt,106920,87963,S_PO198.52_0026112,Hansoll;A4251-;DEVELP-49432,0442,D2873,TT,cty việt thành,101864,th ô tô 38,90219_Quy Nhon 2_C2,CAM,Ke hoach,Cty Hosanna Vina,D2-0268,In - chia cuộn trong GMP,026036,YS10B,3020.31141021541-DH40TG002,Sư phạm Vật lý K40,B0JZ-00100738,32608,B_C18_HB2,CtySunghyun_PressA,239832,SEWING LINE 19-24861,Cty Gỗ Việt,H_CRM_Tel_13_0027744,Tốp - Xưởng 1,Phòng Kỹ Thuật,CTY Yakult - 01367,VD Injection Assembly,VP,Xưởng Luyện Thép 2,HCM - DSF,CB2,00172,m,XN3 - C 6,11639852,công ty Hison,M1-12,stt5505,E-25744-MTR,S_POS17.79_0036630,0975555601,28462,02215-Ass,Quản lÝ bán hàng,huỳnh thanh phong,41571,Hộ Nguyễn Quang Nghị,TA 1175,21290,Nha Trang,11032982_FVL.X1,TP147,VD392,Trần Thị Minh Tâm; 0935049025,Quyªn,D_Mfg-LD HUYỂN_20260,Nguyễn Phê Hùng,C1,0376909468,Nguyễn Tu,VAQIZZ0545,Hà Thị Nữ,125390,CN HCM - Vùng 1,Nguyễn Minh; 0982870716,Mai Xuân Minh;0378966482,0387561858,Lê Xuân lâm,NVKTT,Giám sát,13069,Bếp,Trần Thị Thu,0905147143,Dương Thị Xuân,Hộ Nguyễn Văn Cư,Trần Cao Nhân,Huyện Cam Lâm,SC.Dryraw,Nhân viên Phòng Dịch vụ địa ch,htc1,Quãng Thị Nở,Hộ Vũ văn Thủy0916062166,888711358,nguyễn văn minh,Trung tâm Tư vấn Khảo sát địa chất và địa kỹ thuật,tt da nang - 06328,INF,nguyễn thị hoa,Trần Hữu Hậu,CÔNG TY TNHH THIÊN SƠN TRANG,Hộ Lê Ngọc Hướng,P.VTXNK,8635,31161026554 - DH42EM001,lê thị định,Hộ Lê Thị Quỳnh Chi,Hộ Nguyễn Trọng Thảo,CPYS,dsm,9811_Q45415,82104,hộ nguyễn thị thuận; 01638535339,Cty Đông Hưng_M1-MCBSX,phạm được,0919137045,Trung Tâm Quảng Bá,nguyễn thị thanh vân,Nhà Máy Nguyên Liệu,CĐ Dược 2A,cty nguyễn thịnh,Trần Thị Lệ Hoa,P004,Nước Yến Cam Thịnh,Chế biến,huyện Trảng Bom,thái thanh tâm,lê diệu quỳnh,D22,Huỳnh Thị Kim Anh,Vĩnh Hữu ; 0902010763,CÔNG TY CỔ PHẦN ĐẦU TƯ HOÀNG PHÚC NHA TRANG,trịnh giang đông,16110445-F,Nhà máy CBTS90,châu văn sanh,Vệ sinh,Trương Thị Thái Hằng,Bộ phận Lễ tân,14DTA03 1411534427,12B5,K20S02,Cty Ens Foam,1454020098,14149140,CĐ ĐD K2A,Chuyền may,Agribank Quận 1,M6-42423,131067,Lớp CQ.55.CĐB.2,Cty CN Tung Shin-STĐ-E1833,1611201542DTAC1,TC Đ40A,12XH1,9532,0941355610,Lư Quang Thắng,Bộ phận Dịch vụ Khách Hàng,57.CNMT-1,CCP02PS5-217070156,Cty Foster-4F-TMB-01-250133,DDUC1,15DVN3,141723,7AP101,QLTB,-(CB 3),TA 63421,TCS.019,SAL NT,32895,25221-DS3,TP12,Cty Dynaplast,SC.IP,14065741-D4-445,A201-00431763,1251160162,S_Sales_Net_74_2_003,12CDDT-TT01,1251090226,14149384,võ thị kim phượng,0972601691,92,Nguyễn Hiền Minh,Nguyễn Văn Luận,Trương Thị Mai,103919,Trần văn Chưởng,nguyễn thị thọ,QMĐT13681,Nguyễn Duy Tiến; 0905733731,lê anh ty,Nguyễn Xuân Trí,Hộ Nguyễn Oanh(0933472108),đoàn thị mộng thu,lee xuân ban;0777538012,Tổ thị trường,Trịnh Thị Tịch,Nguyễn Ngọc Hùng,62,Lương Công Linh;0903551103,đặng thị hoài phương; 012235331113,Phạm Thị Minh Chi,Q09_66945,Cty  HÙNG LONG,phạm văn hải,Nguyễn Thị Thanh Hận; 0982079208,25764,X1,1 CN-C_59663,Nhà máy Sữa Vinasoy Quảng Ngãi,Hộ Đàm Quang Nhựt,Hộ Ngô Phụng,0336593535,0989790794,PB85350,SợI,630327734,11403999,JLSCT0050,PX Đế,20150533,1,21101008,HF FRM-22214-16308,NvPctk,21603727,B190402499,Phòng kinh doanh,Cty An Cường,V21704424,CSKH,B180606865,577,Đóng gói,P008738,NS.gấp 3,AD 3,D60,33183,Biên tập truyền hình K35B,P011465,N190510354,N190510034,B155,M27160-16603,Sung Shin A_F5-V_1006,240354,Đội 2,Cut,2862-ALU2-2-9.5-Tu-51307,21608925,V21702927,OD 04,905186,LR2,B161027155,9318,26_1_0008071,PX14,160119,VC16030072,11702081,Quality Assurance Group,190805197,9330,GD,Công ty TNHH MTV Chuyển Phát Nhanh Thuận Phong _ CN Phú Thọ,Ban Đầu tư,230,Nhuộm,D168,Cty Sao Thiên Vương,190103378,gd,AME-107661,TP Biên Hòa,3621,51,TA1879,009232,N19039197,Công ty TNHH seijin bags vina,N17046228,CÔNG NHÂN,D5647,190203521,Trang 45,Nhân Viên,D140,56500,High Pressure Casting,DTTS khu 6,Tráng phủ 2,Phân xưởng SA,13207,Công Ty TNHH Bất Động Sản Home Next,P002992,0964992961,Line34,FC2,PTTT,Trường TH&amp;amp;THCS Quyết Tiến,ĐX,Phục hồi chức năng,CN Cty Sữa VN- NM Sữa Bột VN,H21191,Thêu 1,XNK,SEW-24B,13799,lt-27, 1504018,Kỹ thuật,Ban Pháp chế,14102,Cty Nhôm Đông Phong,M8CUT1,M8.L50,Thôn Phú Mãn,23175/65250/R-AN61,F1-24,K19090133,Tổ 7,03-13305,KDTM,M5CUT1,HCM\Un,113526,Nhà máy Dệt,23270,huy,094BĐ0101(HÁN TRANG),29818,Cty DAESUNG VINA,509368,Phòng Kinh tế Kỹ thuật,T14,D51,SRV,Quản trị viên tập sự,12736/,May K38,122952,Store 13074, Xuyến,BS,THSAN,Cty Panko Vina-6108,M8.L23,TB.BV3,CTY MERAKI FW_1D1700623_QC,M3.L10,M1I.23,MXP8.CUT.GP02,Trường THCS Việt Hùng,5438,10009,MK3-004395,PR-W032,3524,ép nhựa,CÔNG TY CỔ PHẦN PHÁT TRIỂN CÔNG NGHỆ &amp;amp; MÔI TRƯỜNG TDP,Marketting,Cty HASAN - DERMAPHARM,9A3,S_Sales_Net_31_83_00,VT1,220651,01-55882,VPTH,54564,Tổ Trưởng Phục vụ,PX. ĐL1,T8,SAMSUNG_DA,SWD2(0,Bộ phận Môi trường,Tổ9XN2,SDV,t24,05-59635,PSF,18/02/2004,Doanh Nghiệp Tư Nhân Xây Dựng Số 1 Tỉnh Điện Biên,Công Ty TNHH An Nghĩa,Công nhân đóng gói lắp ráp,Phòng sản xuất,Cắt B,IT,PR122842,35,TM 44XN VI,104,Khuân Cầu,Lớp CĐ44ML,D26,D314,Cty TNHH Da Young Vina,FBCS85E17,Mã Tẩy,Đồng Côm,FECS45DL,FECS35IDL,SMT_FPCA,CNC,TM06,BCV115DL,HT2,Lớp 50CĐ-KT,Bản Hạ,Trại Mới,Store 13064, Thanh,Cắt,01-41591,BVTT,Tổ may 01,FPCB_FQC,Chão Mới,Tổ may 52,D27,Sơn,SMT,Thôn 16,VH,AUTO PE,D63,D24,Tòng Lệnh 2,TM 5,FECM15DL,_449108,Giàng_DT Phong Minh,MNV 224828,D219,Trại Ổi,60740,09451,_445625,000511,PKT,6942,CÔNG TY TNHH SẢN PHẨM RACING VIỆT NAM,MNV 225820,190319,Cống 1,FECS25DL,Cắt gọt,Khuân Rẽo,Hố Giẻ,Khuyên,Nhựa,TM08,TM10,Công nhân điện tử,FECS35DL,AM SMT,Phương Lạn 2,Tổ may 58,CN 705,BCVB25DL,S_01_2_0018400,Cty COMPASS II - V02531,10630,Yên Thiện,2233,TM 03XN I,Đồng Con 2,Norred,FVAS-18099013,NWInG,D223,Đình Gàng,FBCS85J26,TRƯỜNG TIỂU HỌC SƠN HẢI,cắt 2,FBCS85Q05,TM 23,Nhân viên sản xuất,16B,D7,28207,PD_FPCB,Tổ cắt 2A,D04,MNV 225226,D233,FBCS15DL,Muối,Chẽ,là 2,CN Norred,TM17,12735-IPB,Hoàn Thiện,Tổ may 15,Tân Tiến,D57,Công Ty TNHH SeJong Wise Vina,1-T40A,DYH01465,D38,6159,6268,4070,26 B,Chấu,Đồng Phai,7924,Tổ 69,Đồng Quýt_705,6192,Công ty TNHH Lian Tech,MNV 227886,9250,PRESS,AM SX,Cty Đông Nam, LR-8233,Khanh Mùng,Nghè,IPQC_FPCA,D35,PD_FPCA,Ép Nhựa,KT14ĐB01 -1454040117,AS,B18,TM15,Coating,S_Sales_Net_01_79_00,8498,Phòng Sơn,Giữa,V FACT,Đồng Con 1,BỘ PHẬN SẢN XUẤT,150584,D3,02-27515,0006,D250,Tổ may 51,0,SMT(SMTTT-B),01-56992,kết cấu,Phòng mạ,005,Khuôn Dây,D257,PSX,110861,109942,D16,_448830,Lớp CĐ45SC,CQ52/51.05,Production 2 Sub P,D251,Đông Cứu,E-25774-MB,TTQ K23T,D5,NM Sữa Bắc Ninh,_443653,Xuân Lai,Kế hoạch - phân phối,Trường THPT Hàm Long,PU -3019090566,9333,26,D-R.Material,5416,Line56,D1,cn1222,Cty Nutifood BD-GTN-N,NM4_1053,190804866,D5961,21,Công nhân xưởng gia công,Công ty TNHH NCC Việt Nam,HD hai Bà Trưng,Cty Linfox-603400-001 - VIN_NORTH,Cty Sakata Inx,DNA-BN-Cty Hoàng Nhân,TH,SUB,ERP,Công Ty TNHH Joyo Mark (Việt Nam),Tổ máy Phân xưởng sách hướng dẫn,x,Cty FOTAI, 053-068,Bộ phận kho,222GWO,48791,16,PXM,6947,XPN,Công Ty TNHH Sản Xuất Và Thương Mại Ngũ Long,phòng Mạ (ANO),16120473,C FACT,D232,Phòng Tư vấn đầu tư xây dựng,Công Ty TNHH Trunsun Solar Viet Nam,Nhà máy sữa Bắc Ninh,Danapha0,Công ty TNHH AK Chemtech Hà Nội,KHO,819086,809946,S_PO127.27_0031068,008074,013515,18,66326,SC Press Part,Phòng Xay,D226,815369,0402030-387,Xóm 4,55471-D1,7935,xóm Bàu,7410323597,Cty Beifu Chemical,9123,VT4,M10-BS527,Công trình thủy điện Xenamnoy, huyện Paksong, tỉnh Champasak, CH DCND Lào,Lộc Thị Thoa,EVA-IP.C-035110,Xóm:Lê Lai,12608845,31,N20395,Ống B,376,Cty Sung Hyun, 3-M-15,D320,M12879,A2 -Handsand-ST2-16033752,Tổ QC - Nhà máy APC Pack,67651,13872,q0221,ĐN1,TL,Cty Dynaplast Packaging,CTY ĐẰNG QUÁN,Utility &amp;amp; Engineering 1,Đặng Thanh Hải,1809032/ O-16,K009754,AP Plant_CTM_1 Shift_1 Team - 15147760 - TAEKWANG MTC - 13015,M2,X6-M2-028580,Xóm 1,BR625,CUT-16654,16935-SGA,Y09427-X07,2203,9949,F2.KTP-08110684,Tạ Hữu Thức,14902,NV,302019080009-IJ QC,3502,13618,Trường MN Đà Sơn,PRESS R 03_A1_10079870,Hồ Phúc Vinh,F3 - LINE 11, 31910031,2211,Mechanic,#,Nguyễn Tiến Bắc,49272,E32837,0086455,Nguyễn Thị Mỹ Duyên,A331,Bán hàng,VJ2-A-N-L6-CUT-07120124,P_GT_mẫu,Cty Sơn Hua Bang,MI9 64294,19080454,RS,Nguyễn Tuyết Nhung,Giám đốc,2121,CTY HÀI MỸ -13040109-K26,P.KT1,2C25,BM-C,Nguyễn Văn Hoa,Phùng Quốc Tuấn,Cty TNHH Phil,04371,9538,0311,kỹ thuật,7829,Nguyễn Thanh Toàn,Trần Huy Hoàng,59941,SALAN,Cty Tsaiyarn,Cty Asama-dán Tem V111118001,D300,Trần Văn Hình,Thôn 5,Ngô Thanh Dũng,TS - KEO07120003,7810,8658-Lắp ráp,Chu Thị Hương,PHAN VĂN TẠO,6241,Cty SJF Vina,F-5/T17530/UNIT-1,2111,M1-T16,045643,2241,2769,PRO 3-STEP3,Đông Trinh,180414635,II.5,m3-t11,3212,Cty CP May mặc Bình Dương,00555_43102,3333,E46_E22486,Phạm Văn Xuân,Phan Văn Ngọc,2321,3c-4c-731063,69-Tu-PPD-1-53731,PLD,D138,S05_E21073,DCT DA KDT PN,TA2075,57B11 Kinh tế,Lương Thị Trang,Phạm Văn Hoàng,57.KTCK,Lái xe,Cty KỸ THUẬT VÀ THÍ NGHIỆM ĐIỆN CƠ MIỀN NAM,01567,Cty Astro,15073032,Esprinta-Tổ A34-E34897,Trần Thị Tuyên,0334575275,CÔNG TY TNHH SANGWOO VIỆT NAM,Assy-B,Bộ phận dập,60K Nông học,58K2 CNTT,Khối 12,56B10 Kế toán,Bùi Đức Phan,Cty Premier Global,mpb:70583,B.may,Lương Văn Anh,E4120,xóm 5,Cty Đại Lộc_17030549-c-elz,Lang Thị Toan,MNTT Búp Sen Hồng,QC-QCEVA-033839,56B5 NN Anh,TG4000-738440,1506176/ Cutting,160913034,PRO,3065,122-55437,MDF,950074756,CN CTY CP Tập Đoàn Vàng Bạc Đá Quý Doji Tại Huế,CN Cty  NAKAJIMA SUISAN,Đinh Minh Hải,Công Ty Cổ Phần Thành Đạt,NHUOM,THỦ KHO,Nguyễn Ninh,004586-FINISHED GOODS WH 1,CÔNG TY TNHH KIỂM TOÁN VÀ THẨM ĐỊNH GIÁ AFA,Phòng Tổ chức- Hành chính- Tài,THPT PHONG ĐIềN,CTY KIM OANH-BD,Phuc vu,Lễ tân,HL,CKCN,KINH DOANH,Công Ty TNHH Dầu Thực Vật Khu Vực Miền Bắc Việt Nam,KDMH,SRF/Huế,15SLS,Bộ phận sản xuất,Trường CĐ Việt-Hàn,Xóm 9,6337,BP QC,120236,1712045/ O-06,B_HB4-C04,041-161,VL-65983,138270,03978,6122,0172-00155075,4059-49629,Xưởng Luyện thép 1,Cty Nitto Denko-P2-3-USE-17073,BD5,Bình 3,259,xóm 8,1322.08,A38002544,06-42761,Cty Dongil Rubber Belt  _CBSX,N12489,11509093,01-40131,51647,Khối 7,Võ Quang Mạnh,Xưởng Uốn 2,Cty Bibica,01293988153,BHC-E23,18003959-D,353,Cty Alhonga VN_V2382,Esprinta-Tổ B42-E39194,0983847688- HGĐ,CN705, Xóm 9,Phòng công nhân,5625,Xóm Xuân Thịnh,p2-rc2-pmc-6105,59605,1P1127,CN Cty Cao Phong,Lê Hồng Sơn,12762,Xóm 8,HSE,BUN,V1201958,6149,5232,Cty Vạn Phúc,HCMC 3_6G,HD_IN TEM,6463,Hoa Sen_Xuyên Mộc,3291,Đặng Thị Quỳnh Trang,Bãi Sở,Đặng Thị Thảo,Esprinta-Tổ B35-E39290,B_PX MAY HB1,Xóm 7,DEG-3341,Trần Ngọc Hoàng,PFL,S_Sales_Net_40_00377,S000798,9203,KCBQ42018,VNP,XNXD,Xóm 5,7067SA4,L05-F10,Trần Thương,17006,Kho1,M30910,T5 Vân Trình,696,88697/PSVPG,707,xóm 6,Vietel Post,D137,1A,315,QTKD 9A1,995,56870,C21 MNC,1192,KH,W5613,Bệnh Viện 71 Trung ương,HGĐ_0922131755,Cty Lee - CUTTING,03-13544,Final,Cty NUMBER ONE-40NBN1-12,C-21012,1102,S4197 Line 03.3,000115-LINE 02,16450,570083,năm dân,BH,15346,TA0840A,BI0096BH,BTXH,7034,TA2619A,009003,btxh16,D3555,7,15937,TA1810A,TA0091A,TA0007A,TA2327A,Chi nhánh Công ty TNHH dịch vụ y tế ACA - Bệnh viện đa khoa ACA,Nhân viên,TA2905A,WDF - Pretreatment 准备,205 016775,01-30004,Line 20,56968,F9-64,PD03,CN CTy Cao Su Miền Nam,160093/2P/VB/B,01-18613,YDH -Yarn dyeing shift A,M4,AssyM,Trần Văn,M503,84301558,2806,4618,SEW-14B,15533,DR,Tổ 10,150,Nhà máy Nhuộm sợi,BP Chất Lượng,Đội Chống hàng giả - Chi Cục Quản LÝ Thị Trường,Công Ty Cổ Phần Đầu Tư Và Phát Triển Xuân Thủy,Giáo viên mầm non,T.2138,F13218,CÔNG TY CỔ PHẦN DỊCH VỤ VÀ DU LỊCH RẠNG ĐÔNG,X17HT,X11,T8,SFE,M601,KNT - Flat knitting MC-B shift,CHUYEN 07,06.2019,SON.HA,HP,010427,E,CĐ bộ 1.55,D240,cty mm hòa sơn,56B2  Luật KT,70302,Esprinta-Tổ A20-E39677,6292,feavn/28505,ta2490a,D119,M40-BH604,1.ht-1710454,QCHC,180,PHONG_KEHOACH,IX,KT15DB01-1554040203,Thôn Nam Vượng,H11H9,Thôn Ninh Phú,D.05.30.02,008957,K18 SP Hóa,56CTN,A2-Printing-2- 140312862,H114J,TA1780A,112014-10117,X09_T08_25019,TNXP 35,X06_S1_7992,3/03019078/2EA23,Chuyền15X1,Trường Mầm non Hải Bình,IXEN-CT.C:18085,GCĐ-THB1-2-1:20418,D272,114S,428869,44967,QLDAHT,12163,Trần Hữu Quyết,BDG -,Phạm Thế Đạt,lê thị ngọc hiền,LINE 3,4-9A5-03013611,11716,TA1105,SX4-LA,20173,2138,3083,12061,XM,112F10,X12_T06_30186,ta0320a,BTXH 18,BI0020A,YN0013A,EA0039A,15,TA0018A,114017-15710,51201-4055,MAY 20,PKV,TA0251A,Y001112, Khống chế,D184,16444,BP. Vận tải Biển,CN 705 38,line25,09330,1405,FB-15044005,Cty Uchiyama Việt Nam_8100,M01,BGCXT-12085017,24523,1422,V2K3,X2-M2A-035372,010,DANDNS00,19040196,115H,BI0138A,220,111M-03839,Cty TAKAKO VN-116108PR1-2,09806- Ironing,120,TA0734A,CTY KI.WORKS VN _3671,15-Tu-TD-2-54595,112044-08281,038896,160,16480,X10_S4_23859,D42,X1-M1-4:18711,060294,Chi nhánh TCty May 10- CTCP- XN May  Bỉm sơn- Thanh Hoá,Hansoll;A2283-FIV;L-40-33707,Thôn Thành Lập,1157,111F-05096,Thôn Đại Đồng 1, xã Cẩm Sơn, huyện Cẩm Thủy, tỉnh Thanh Hóa,TA2303A,Cty Apparel - QC 2 - 17555,11Q7,H11QA,12778,FBCS75IDL,S_POS51.36_0035662,K60CB,TA1512A,ta1536a,ENC,114037-02999,NGUYET,135,QA0009A,1800623,TA 63808,Kỹ Thuật,212027,7390,114G,HE - North,Cty Dù châu á,A5,Cty Pro Active_1208211EN,1838036,Cty Mega Step-V141117-610,TA 58305,30,Cty Á Châu II-E-12174-SXP,Tr. CĐ Y Tế BD - HSCDLT01,26-78,Tổ Cấp đông 1,CN VINH,CN Cty CP CN Cao Su Miền Nam- Xí Nghiệp Lốp Radial,18 DL HThapMuoi,Phòng quản lý thi công,Stit. Line 27,CĐ1X1,24,C004605,PL0101,F2-L 1,Ship,BĐ20,020643,Văn phòng,P KIỂM TRA CHẤT LƯỢNG,N11243-129993,5120,Cty ACE,9767,50619,Xếp Băng chuyền 2,Cty PT KCN Sóng Thần,NK041,Phát triển thị trường OTC,CT Panasonic-V000939PAWDSW,K410-180212,Cô Huệ,25/09/2019,PHÒNG KẾ TOÁN,CHKAC,Right Rich _ma21,Cty King Jim - 3623 PP&amp;PJ,192,84814,TA 66756,LINE 05,P/E,Cá Xẻ bướm Fillet,GEA825-26392,'03/07/2019,AM001307,637,0377-00040540,4890,M2-46099,DA-ATM 61787,14/05/2019,BD20,Cty YAZAKI EDS-MP-P55A-75757,Bd8,33979_DCM A,14126831-D4-5020,.-XD13D08,Cty Panko-1402,C53,20358,F1 Sewing 11-45830,Cty việt cường,Cty Panko-6317,KTDN,21474,Cty Triumph International,A-L03,56181,A40057165,Samil Tongsang_Stit. Line 37,1211,Cty Nutifood BD-NTFBD.SN,Cty Cao Thành,Cty TNHH Giai Lâm,Công Ty TNHH May Mặc,CTY CN GỖ GRAND ART (VN)_24047SofaBN1,DK JEAN,HM-68865,151A030274,Cty Ky Vina,1419292,IQC,89052/S7-Đồng Tháp 3,cty xe nâng heli,A88,cty đức an,Cty Bảo Xương,9863_M38760,Công ty  Hoàng Thanh Hồ,GO VAP,Pro (Print),TA 70077,13TH-12050093,0171-40077167,NHU Y,19113047_XV.TỔ CHỐNG,Cty TháI Dương,V000214PA,0444.18MKW,NV0,20131497,Cty Suntech-KTC.ĐG-STVN1384,1702169-388,17388,PDC3,WarGrB-2821C,ÉP NHỰA,18/09/2019,34458,20151091,Dự Án,43417-8230,A17434402,OH,KHONPL,X02378,I,182791,0937063402,GRAB,20173975,DN1710234,21 DL TXHongNgu,T6630,Cty Nutifood BD-GTW-B,Cty Tiến Hưng,34113-41452,LINE 8,KAO,P(0,QQI02002-113120047,72828,A201-00436285,M04-060,V09,Cty ASG-LINE 12,SY1,10015NT,LAB (F1),63932,67177,CĐP,0868270842,XN5,P0020,76298,NOSE-L1_3017110651,N.T.Đông 0988391317,S_POS87.84_0033654,47665-7250,CtyGiàyThôngDụng-68253,G.th,Cty Zeng Hsing-V141289,PKB1900840,Khối kinh doanh,Vo Thi Thu Nguyet,CTY HÀI MỸ -17022017-027,Công ty May Mặc Trúc Xanh,BK26303,V9M2,BD9,F20080023,7184,Cty Precious-SEW4410,Cô Diễm,CTY UCHIYAMA VN_9814,(815-28273),169,17/10/2019,140382,cty tribeco _ ngk-mk2,26329,FAN-16341,CÔNG TY TRÁCH NHIỆM HỮU HẠN THÉP SÓNG THẦN,ROUGH MILL,Trường Trung Học Cơ Sở Mỹ QuÝ,6000-00043722,ky thuat技轉,CT,VCI222-115385,A2,110252,TA0868,Bộ phận Lắp Đặt,huyện Định Quán,PAC-W-1481,TUẤN - DH - i,cty tnhh một thành viên trung tre,ES-18032001,PU-SP-A-11040852,CN May CN,LX,CÔNG TY TNHH KIM NAM PHƯƠNG PHÚ QUỐC,COP02PS2-216050060,D5743,TCP1470,Cty Hung Kiu-E-005947,Samil Tongsang_Ass. Bonis,WAR,BC 61653,sinpha,_feavn/30156,Ngô Thị Kim,PX,20173658,CTY SUN OCEAN,19112,M1 -33159,A64,PT,046/0100,P14055,Cty Cự Hùng II-KTP-6369,AE,Minh - DH,AP,CÔNG TY CỔ PHẦN DU LỊCH HẢI VƯƠNG,109912,A30072679,AGG,GÒ-SK2-CD2/C4-G3,Cty Diamond VN-B3-May 1,Gskd,Cty VJ Engineering,Cty Thiết Chưởng,Huy Lạc - DH,10812-FBR,Trí,Cty Nguyên Thông - N141295,BC 65377,Cty MTV Trần Đức,DSM-S3,Cty YAZAKI EDS-MP-XAB1-63829,Mỹ Trân - DH,Đơn - DH - i,820_Cty Thái Tú,Cty Gỗ Hoa Nét - 65817-23245,6897,D5767,01345,CCL-NM,Đỗ Thị Niềm,19020361,MK-SMD,TV2,11664197,YSSN14B2,Mỹ Trân,H1560,Cty Diamond VN-Puma-QC,C019689,SMD-MK,Cty Chang Bao,SC.RHC 2,101317,535,0927346-C,CTY CHIN LI MỸ PHƯỚC_11121,27214,53712,Bộ phận Kho,PY7958,Cty Hồng Phúc,Cty KINGMAKER-VBQZZZ 1303150015,Cty Newwide_Chuyền Nhỏ 1,CTEvertechplastic_6874_T3,CONCEPT,XNXLĐN,116476,IRONNING F1,4444,4B,Cty Đông Hưng-F18_57785,PungKookIII_3B-kcs2-23141509,Cty  TIẾP VẬN TÂN CẢNG BD,SC-Bras 2,64178,Cty Thép Nam Kim,A201-00409316,cty khiết kinh,Tổ 1 HT-2,CP,Xí nghiệp 1,1A121-1,15DDS5B 1511538728,116577,Bộ Phận Sản Xuất,16110338-FVL.X3 L8A.T-2,002805,Kloan,CtyDVQLTS VSIP_FMS-02081,73963,LX05,C-GCB,92005/HMD,164,DH15QX01-1551040109,VBQZZZ1711010006,Cty Shimada,55021,206610-UVEX-STIT-3_Cty SGX,70985_B7 EN,SALE,Cty E.C.I_Xuất hàng,042-Tr-W-QA3-53902,PU Plant_PU Rotary_Rotary 2 Shift_3 Team - 19210717 - TAEKWANG MTC,0294.19MKW,Cty WERNER,Cty Ace Elite,28681,C-T1100-16455,BĐ12,Meraki-14000468_Line 8_TP 8,1-KT,0328265805,Cty Colgate _EAMP34010,LOR,IMV17222,30/09/2019,94,TA0749,CD,Cty Master Craft,H6_Stockfit Team_18191456,CM,137464,Trí - DH,KPHTA,20190989,TC,CN. DakLak,đh-b456,MK,Cty ĐẠI HÒA NAM,Đinh Văn Trung,Huy Lac - DH,Tùng - DH,VP Công ty,Tùng,cty an phú,66143,49642,8663,Cty Haksan_L1T1,20850,A031,HWC-SG - Cty Tốc Độ Xanh,SAL TG,AK,2102,IRO4,- ED,77035,Ktp-E,TKNV,160041,M6-48335,25013,170461,135896,Line 21_Shinsung Tongsang,Phân xưởng dệt,N15,L12F1,V/C IQC,Cty TNHH QUỐC TẾ TOP LEAD,MH8800,MC3064,Cty Long Thuận,VL-49090,201209266,31627RESIN,25671,031/0074,WN3 - C&amp;amp;S-64058-47602,2107408-DGoi A,MT,SAL HCM4,FVE2-11080995,431189,34167,27010,SUPPORT Part_HR &amp;amp; ER Group_Training  Team-19208535,971390,Công ty Cổ phần Đầu tư xây dựng 194,CH6E1A04_67500,12A3,140574,118275,241,D2014,IND06301,24280,CTY FTN VN-B8-129363,CTY Fujikura Fiber-PRD2_46149,22468,NGUYỄN THANH BÌNH,1654,Lan Thanh - DH,22381,18503,21935,49780,Công ty TNHH Mingsheng Viet Nam,PPT SA,DOTA2,A272,PCST,S_POS42.79_0037254,Lớp 12C3,D14-TP03,15X003,24227,42170,BTE,Stitching Comp VSM_D HF A Shift_6 Team-19207769,Cty Apparel -I - CUTT - 20913,PKS2B_B - Line 12_22190139,L22F4,PRO4-PC,15DLK07,1113862-MVT B,Cty Vinachangtai,47500,79425,2091,1-P05556,59906-9612,P. NSHC,121243,42886,84271,DN1406114,080064,DOWN  ROOM,49766-QLCT,170339,PFT-IP,(MT 2_NOSEW NEW 26_18182084),L08,GDTH K42B,Cty Greenie Scoop,D06003532,CTY tân khôi nguyên,CUT,C46,BE02,A103,Lớp ĐCN K9,11B9,FVN  Mvt 14035502,A101,DH33DC26,FVNS2 QC-T2 19085686,58900,Cty East West_00446-Fac,25,Khối năm,Lương Hòa,TN,TP.7,MFG-AC-1118529,HPNB_Cty Thạnh Long,Cty Uchiyama VN_6703,E10078,Cty FOTAI, 042-226,12T-2476-BD-1400560,14112484-CHUYềN 4,Xv1.D1.L2Th,BI0007O-006,l-06may,3194,0171-40042719,DAB-1105091,25918,CÔNG TY TNHH JSB INTERNATIONAL VINA,17608,CtySunghyun_3-M-07,234637,My Tho Stitching Department_Stitching Comp VSM_C NOSEW A Shift_1 Team_19206643,17850,CNQ-AEHC01305,ME4490,79492,20120739,10848,D9912,XA-VP,Cty Hưng Xương VN,Công ty YIN HWA,83660,5377,XB-L26,44648,42024,Cty Datafa,43021,FVN  Ấn Cao Tầng 18055692,BỆNH VIỆN PHỤC HỒI CHỨC NĂNG BÌNH DƯƠNG,CÔNG TY  THựC PHẩM YERGAT,N.V.Đông,B.,75321_B7 GL08,Cty Kim Cự Thái,Operation,Bảo trì sân bãi,32115,P6AB-15579,Xưởng SX,20814_8090,KA05,70445-A1L5G20,C.T.T.Cúc 0935034909,52577,Cty Chí Hùng CH6E3S01_58406,26531-GEA922,83190,72722,In thẻ do bị mất,BPA2292,Cty Hwa Jong Garment Accessor,cty an thành,10422,86985,Hoàng Anh,85186,63578_B1ML10,H_Col_Ear_0039532,PET,HTL,Cty Winning,Tổ A22-E41790,X03724,81246,X01744,80688,Sung Shin A_  BaZớ-M_9590,X02295,75152_BP-XV,89607,1521000781_15DKS3,102024,84345,MH8726,1004,Cty Estilo Vina,0033490,QL &amp; KDKS_x000D_
-TC K9,ỦY BAN NHÂN DÂN XÃ HÒA TỊNH,E-26747-MT,X02783,CÔNG TY CỔ PHẦN MAY NHẬT THÀNH,37273-7110,5032,77329,Cty Panko Vina-6710,6000-00067943,18865,21257,KB,L.H.Vân 0399237848,Z913-Cty Hoàng Thông,Cty PMT-Kho vật tư,Phòng Khuôn mẫu,TTXCT,53634-STOCK 6,Cán Vớ,19444,41320,6000-00041300,0033000,S10792Tổ 10,Cty Tân Hiệp Phát,Nhà xưởng,Diệp Anh,36833_9142,85720,21336,Chi nhánh Nha Trang,TA1414,Esprinta-Tổ B17-27162,46689,QA-ING-1083488,DL/KVC/016740,57576,Cty thanh hùng,Cty CP Apis,Cty Xu Hướng XNK Công Nghiệp,AI_HH_Kinh A,LINE 13-LẦU 2,71875,62829,5994,M64D - 13342,Tân,P6BA-15295,Chin Li-15980_md sq,Cty Signal-217726-May zizac,TPTV,V190384,P552-15429,Vận Hành Máy,Công nhân,Xí nghiệp NLS Vĩnh Hòa,L.T.Nhàn 0977144441,78823,Công ty Yakult_01149,TT_Khóm 9,41976,M805 - 22920,8713-A1A2KH,4207,CON,22918,55716,78578,Linh,FA-45240,53028,4631,Công ty VIệT NAM SUCCESS,Ban Quản lý di tích tỉnh Vĩnh,22857-A1L2G6,X02263,20100811,VD Injection,H.Anh,12Y006,45925_B7 GL10,Cty KDK Electric wire,20113566,A10-10630,Bình,70182-A1L5M19,44601_B7 GL10,889310,Khâu sơn,44799-A.VPNS,Lan,62725,3481,33334,73882_BSQD,729_B.VPBV,62454,115841 - Main Finishing,Danh,Ban Chính Sách Pháp Luật LĐLĐ tỉnh,Công Ty Trách Nhiệm Hữu Hạn An Cường,48015_BSQD,in thẻ- 20214- Hằng,huyện Vĩnh Cửu,X03792,89262/S7-Vĩnh Long 1,59457_B1XV,37555_TV,86140,U02-BU515,Nam,Cty Long Việt,HỌC MAY,SỬA CHỮA 1,P DA,84574,CNX-AEHC02195,KHOMAU,BINH,Cty Tong Yu,CTY Fujikura Fiber-PRD1_46206,15031283,C12378PACK,50154_BR1-M2T,490847,H20199,A3 - G- 40245,PF207AS1-116050907,TN-JB,96705,V05004-137367,070/0210,5775,MH8341,LP9 62501,T MAY- 16407,K_DLT,28217MA,06389,kcs3,Cty GIA ĐỊNH,Thanh,LINE 07,HCM - Trung tâm Sươn,834750,140122,C013977,235,86,57068_B7 GL14,Cty Gỗ Hoa Nét-75112-31719,31151020810 - DH41AD004,106665,Cty Haksan_L10,Finishing/ Expedition,61727-C206,VM049937, UV,PRG11AS1-6190700280,Hoàn Thành,2A08,02 NV Thành hình 64101,ANH NN K41C,Phạm Văn Mới,Cty TPR-DENSO,2/ 5672,61110,84932,S3_Kiên Giang B1C,Ráp,chuyền may,PKC1900319,Cty Diamond VN-B6-H.thành,Chuyền 7,CTY ECS,Cty Panko Vina-1309,0949938124,3018030387-IE,BƯU ĐIỆN TỈNH KIÊN GIANG,KH-0011/0038,SEN,thêu-2135,Lê Thị Đầy,Cty Thái Bình-T6_M.3,161A070277,Hà Thanh Bình,24039 - 9614,31151020671 - DH41KIC01,Cty Ausabaco,CCQ1404B,114-58590,LINE 03,Siêu Thị,CTY NHỰA CS CHUN XIANG,line 1,14726,PB80377,0943867067,gj551,CTy  Wei Sheng,Thái_HND,P1/09-11112329,Cõn d?,CTLC8,TAAM0007,Cty Panko Vina-6518,PAM,9042,KAISER1.BM.V190084,17B-13622,HT 2- 14087,HFY1195,0175-00070824,D Plant_Nosew VSM _Nosewt 2 Shift_Nosew B4 Team_19204911,Tạm trú,Điện lực TP CM,67319,Điều Hành  (MP),PHY-D-06070576,18002398/N,D25063,19090088,WarGrB-4990C,Trần Thị Út,Ngô Hồng Tính,PRG11AS1-6190701600,Vĩnh Nghĩa,51099,Cty Supor_4425,Châu Kim Hen,Huỳnh Thiện Minh,Lâm Thị út,15431,GXD 59159,Chuyền May,110020994,Cty YAKULT VIỆT NAM-022580,Nguyễn Ngọc Nga,Cty Nutifood BD-GDW,Phạm Thu Oanh,Họ và tên chủ hộ: ĐặNG THANH H,122-40616,CN Cty Việt Danh,Phạm Thị Hai,Phạm Thanh Nhỉ,Cty Chí Hùng CH6E3C06_59113,Cty Hoàn Mỹ-PX2-TU,Trần Thị Chung,MD,5532,A30085996,Nguyễn Đình Cưu,Hà Trung Nam,Nguyễn Văn Tân,Hồ Thị Bích Vân,PRGA8ST2_6191000730,FT01,Biên Hòa,KAISER1.FN.V190046,Nguyễn Ngọc Thanh,15020043,PU Plant_Spray_Mid sole 3 Shift_3 Team - 12113166 - TAEKWANG MTC - 7830,Cty Astro, 8425-PHUN SƠN(KH),huyện Longthành,20100316,C1X3,Lê Thị Hoài Hương,MĐT-10810,TA 67565,15418,S3_Kiên Giang B3D,Cty Yuasa Glove VN,1317,Cty TBS Miền Đông-M3_EV.MẪU,S3_Kiên Giang A1A,Tăng Công Hiệp,045434,Lê Thị Thanh,PKS2AA-Line 822150427,CIP02RC1-217050047,70650,Cty NTI-CUTTING LINE,Iron,FG0937,Khu phố 6. P. Vĩnh Thông,nhân viên,Tổ Sơn,Chuyền 8,Công Ty Cổ Phần Gỗ Mdf Vrg Kiên Giang,Lê Thị Vân,Tiếp thị qua điện thoại,47754,Cty TAKAKO VN-116166PR2-1,118396,Nguyễn Thị Thúy Yến,1238,Cty Great Hill,03_FacilityChanging,78391,Cty Rochdale-P02FINSPR015074,E-26629-MĐ,XƯỞNG WASH BIO,S_PO226.91_0032464,Họ và tên chủ hộ: BùI THị THOA,VG455,131574,PF519AS1-116070760,23409,AV01342,Gb607,trung p5,Cty CP Chấn Kiệt 749-X5-LC,AA09,TA0308,Cty CN dệt Huge Bamboo-V12186-KXH,Cty TNHH Nhựa Việt Nam,Cutting-04538,kinh doanh-tiếp thị,D2702,Cty Diamond VN-B5-H.thành,Tú_HND,Trung Hòa_P7,B62,H_CRM_Tel_2_0038604,TTYT_Nam,PB12089,GT - Ngành bột - Miền Tây 6,F16692Pre_Daây keùo,Xuyê</t>
+    <t>{Trung tâm Kinh doanh tiền mặt,nan,CHUẨN BỊ,DQTD2,1093,IN LỤA,L12/10,Factory 03- Cutting 2,TNHGĐ,.,HGĐ-0783302689,trung tâm giống mía,3916,6231,KT0,QQI01001-116060826,LC,1704111,CĐ ĐD 09,Thôn Thanh Khê,15I2,6804,1416,8,Xưởng Hoàn thiện,14,C38-232370,B/ZU-7/50834,6822,17DNH1B 1711547302,HYOSUNG,Factory 10, Cutting 1,nvp,15CQM,K23-102-23211210961,KD,14CĐ - CK3,DLHJA1,3-0138,Masan,LG1 - 31403,Nghiệp vụ y,91716,BI0010_001,tt da nang - 03805,Nhà máy Sữa,E4595,23,,,Cty Perfetti Van Melle-725763,Partial_5527,105580,26841,Phòng kỹ thuật,525420,525,420,DệT,101703,1363,P.KT,5331,TZ0135Z,13,PX3,Trần Thanh Sang,7095-0905208583,HV,24695,S5866 Line 39.3,D8981,2007686 , m12,NANV,5,Xưởng Hàn,PE-I-25600,Nvbp,HANSOLL-MECH;FIV-52670,CHI NHÁNH CÔNG TY CỔ PHẦN CÚC PHƯƠNG TẠI ĐÀ NẴNG,122269,S4929 Maternity,Cty CORAZON - Chuyền 2,KS,R0121-01027818,180054,CÔNG TY TNHH MỘT THÀNH VIÊN KHÁCH SẠN VÀ NGHỈ DƯỠNG C.E.O,A/TRAN-1/49950,PKD,Phân xưởng carton,100 CATV V0633,CG11711,C176,1692,981,62604,PCT0,47712,27273-Tam Ky 1,PRODUCTION,887.17U2W,F/ST-114/50475,17,BPTS0,Xưởng nhuộm,A/ST-27/47939,Công ty TNHH May Mặc Mỹ Hưng,10905 -TK10,3,SE,Trạm thủy điện Phú Ninh - Xí nghiệp thủy điện An Điềm,Kho,VPLRDN,Factory 03- Fabric inspect,Dyeing- Dyeing_D,9,S_PO008.49_0027889,420,7932,7947,1465,11047,M1-39125,25349, TKHE3,Phòng KT,HK,12DT3,NH,PCT,PPK,Công nhân may công nghiệp,ATM,Sản xuất,079-604030,Cty Showa Gloves_09807_AM,V1D14,97505,Millennium-4014,Kĩ thuật,BP-66114,Kỹ thuật xây dựng công trình g,Lớp CQ.56.GTĐT,K10/1-DVPL,3005170383-17CDTP2,14614,57927,BP SX,D15PM02-ĐH Thủ Dầu Một,A10212S,Tổ May 1,3110_Đ3,01,78697,Cty Medochemie,M:044,SB-2 /5503,TRƯỜNG MẦM NON SAO BIỂN,P6EFINPAC003372,PDA,CLC_15DMA2,9-3434,CÔNG TY TNHH HƯNG SƠN ĐỒNG THÁP,K20S01,140668,9609,KTC,XSX,Phòng Nội Dung,HC,107729,140348,Kinh Doanh,Spinning,Kế TOáN,Cty Á Châu_E-18761-MTR,Cty Uni President-71,Phân xưởng Vận dụng,E-22553-MTR,Q.120,83747,Go PC,56,Cty TNHH TM Công Thành,GVT,2,42K07.1-CLC161121407131,CtySungHyun_240611, 1-HT-1-5-2,BDF,Khối Kho vận-TĐ Trường Thành,ParGrE1-11487,100078,Phòng Kinh Doanh,4,016-604638,Phòng Quản trị Hành chính,PB99544,CN vận hành máy may CN,102368,02,03,May A1,8281-L1,Mia,032689,Millennium-2443,PK02,05,Bộ Phận Kiểm phẩm,Tiền sảnh,1463,09,0373903129,Cty Powerwell,132331M,Kế toán,CTY SA NA KY,iCare,22644,Cty Millennium-01652,1416192,PHONG GIAM SAT THI CONG,S6127 Line 23.1,105209,71 M4/3 B0354,3.118,17060203,06,04-1640,Tổ ủi,57N,C15Q1E2,A-NB1-24782-FOLDING -K1,PKdxK,XCK,ZU-5 -2543,TRƯỜNG TRUNG HỌC CƠ SƠ NGHĨA KỲ,Cty ASTRO, 13946,Cty Chiến Thắng_W2-L2,ATD-0816_Cty Phúc Thắng,TT Trà Xuân, Trà Bồng,NOSF-10070965,922851-C,Bộ phận thị trường,12-14287,ST-25 /6027,Cty NUMBER ONE-40NBC3-7,141A140023,Millennium-3499,DS-4,17DTC3,KTCN028,SX,63096,Công ty cổ phần phát triển tài nguyên thực vật Green Gen,506,MLẠNG-501507178,HH,132253,DH,Công Ty Cổ Phần Bình Điền Quảng Trị,70513,D49,H02_68830,A20053445,78722-5011,127027,M3,160223015,Công ty,Q12_63651,16CVH,03-09,Cty Thái Bình-K_G1,văn phòng xưởng b1 -27335,0284-00155588,14120069,Asus Lap- Phone,0378-00048428,Tổ 3,19070774 FVL KVT,Cty Công nghệ truyền thông-DA,727,125061,Phân xưởng sửa chữa,0982988495,V9701,DS2K6-PT,Tổ A10 - 24880,50243,15010082,10306-NIKE B00,Cty Ngũ Kim HuaSheng,126922,10265,A1-QC Endline B-14039145,MFG-SUP-1036137,Cty YAMAKEN APPAREL,A17408661,3013,Cty Sunduck Vina,543D,U4273,916819-b,NM,Cty BVĐK Hoàn Hảo,Công Ty Tnhh Du Lịch Và Thương Mại Duyên Dáng Huế Khách Sạn ánh Sáng,9013,182575,120035,9412,I-VTI1 ASS I1-18184291,NK167,MAY 1,106482,Phạm Văn Thiết,00049668,G-VTG4 ASS-16154854,REF OQC,162,ĐC38,108602M,E-24969-MTR,S_PO003.46_0019267,MAY 2,45160,117278,171289,Nhà máy Sợi 1,CNKHCN,QC,Cty CLEARWATER METAL-Sơn1,84522,Công Ty TNHH Bệnh Viện Vạn Phúc,Cty TOÀN CHÂU,THIÊN HÀ KAMEDA,Nguyễn Vĩnh Hưng,17000,MAY 3,C94,Cty NAM TIẾN,117863,139927,Khoa Nội tổng hợp 3,DNTN Minh Nguyệt,5756,CN Cty TNI,15317,5102,cty thiên hưng,141180,Cty Kim Oanh_TCTY,CTY KIM OANH-ĐTP,1713502,M6-49463,CÔNG TY TNHH MTV SƠN HÀ HUẾ,1225,0356-PPD-1-1.8-Tu-43513,2545,FTD,Cty Marico South East Asia,00225,D201,ANDT,HR-1035014,47386-G2,6009,NOS H2 49967,Cty BOWKER,  A20-L3-16873,SC.IP3,E-VTE4 ASS-17170460,69127,D1_Hai Chau 3,SX - 01,66 CAT3 C0447,57M2/2 N1075,7/13,Nguyễn Thị Tuyết Nhung,Đào Thị Hồng Anh,D2-TK 3,Nvkd,II-Tổ 4,M2-38536,23 KV H2608,13SGC,GVIEW,0927,Huỳnh Thị Thao,10D,V-6649,1411 QTVB,0265,Nvb0,16QTKS1A,Tổ 44,Tổ 58,163,12T3,Tổ 19C,13DT2,K21-400-2120213412-K21-400,Tổ 85,1695494828,Trương Văn Sơn,7385,101,19686,Nguyễn Thị Đông,Hồ Thị Thạnh,M3-36511,CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ PCCC THT,H2458 BO VIEC,12,14528,D2_Thanh Khe 3,A2073,NS,35A,120 M6V B0423,44c,117574,0506,10282,F/LAGE-5/13049,3736 Ép MVL,cty tân hiệp phát,1.FBF-10421,8591,S2176 PP Cutting,10006,Mai Thị Thùy,Bình Phước,13017,CÁN SU,CÔNG TY TNHH SẢN PHẨM NHỰA HING LUNG,Tổ 32,17b,Nguyễn Thị Kiều Nga,7564,Ngô Khắc Tuệ,K23-102,Trần Văn Sơn,Nhà hàng,M9-501409108,M4V2,Tổ 5,144 M3V2 Y0169,CHI NHÁNH CÔNG TY CỔ PHẦN GIC LAND,127,VT,Tổ 127,0932 484 528,TNCACBCS,CN13,D921,118 M4V Q0232,Tổ 144,TA/FLHA 1-44003,KTDA,24824,FB,FRONT OFFICE,14060049,san nhi,22,Trần Ngọc Chí,Tổ 28,20,Lê Dừa,0905005808,Cửa hàng Xăng dầu số 29,LOG,D64,DTAD3,A06105,Công Ty TNHH Cao Su Thuận Lợi,10635SM,CBMA K7B,BHLN,49A TM,HDI FE,17060091,57,PH,0913412489,58.KTTT,Hành chính văn phòng,01676730275,KT,1808,0934881895,7287,131896,PHòNG GIáM ĐốC,122277,111,TDP 11,đội xe,I-Tổ 5B,Lê Công Thoải,115227,Tổ 43,B/ZU-9/50149,Trần Quang Toản,0202,CÔNG TY TNHH VIẾT THIÊN NGÂN,Tổ 173,Dương Văn Cầu,123302,Nguyễn Thị Phai,Radial,TN2016.099,XN,65,E/LAGE-3/28554,Tổ 19a,Phòng Kỹ thuật,HGĐ,143817,Cty Triumph International_CBR,0905055696,1111109,Lê Thị Mỹ Lài,KieuDung _ HoaCuong,P.KD-ST,40,INT,Nguyễn Thị Hoa,Kho Kinh Đô,3608,SC.Rewind,Pepsi,Coke,V2-69254,31130455,B504,B46,19083,Tân Lập,S_64_2_0016132,Cty Thiên Nam,Thôn 2,Sản Xuất,26448_WH,1521,1310,WIKO-52408,NMSX,CTY AEON - CNBD,DSM,Lớp DH14BQLGL-AL0006,11c1,56158,CN2A,18DXD1,M3_QC.EV,S_Sales_Net__0042676,QK4.5,M1-7,Xy dựng DD &amp; CN K56,Trường Mầm non Ia Kreng,PF219AS1-118070052,025241-VP631,C16 QTNHKS,GLI,cđ cntt k9,BD 30-09-19,DS39.3 1453801012252,BQD3,FVA_15037505,143760,NTG,Phòng Kinh doanh,57.KTTT-2,VL14A02,H. Yến,58.CNTT-1,Buồng phòng,19010255,68688,03_ĐH_QT2,M20H,CCK02SF1-2190602440,Nguyễn Phi Khanh,VMNT-989515,Phan Đình Lợi,CB Hấp 8,CTS NONAIR,7948,HCNS,Hộ Trường quân sự tỉnh,0931130020,lê thị anh,TM10E,57.QTDL-1,Tâm5,LỚP CD17QT1,57C.KT-1,Cửa Hàng Nha Trang 2,0395504677,Lớp C12E2a,SUDIAK40,DAE - 0610062,phùng đình mậu,56.QTDL-2,hoàng lê phương uyên,91884/SRF/Nha Trang,Kinh doanh,Phòng Bảo hiểm thất nghiệp,lê thị lý,Lữ Lâm,Phòng Đào Tạo,nguyễn phước dõng,Huỳnh Đặng Tửu ; 01695099209,Bùi Văn Lai,Nguyễn Mai Diệu Hoài;0907895016,trần thị thanh,Trần Văn Hóa,32K2,PPTPRO,CĐ ÔTÔ K8B,B02,Nguyễn Văn Tuấn,phòng kinh doanh,C14-124611,42474,Khoa KS,DH32NH01,K23D-KS1,M0B0,bđ nt 31,7,Fvas -14048539,2A15,010005//FACILITY_BP,PHÒNG HÀNH CHÍNH - NHÂN SỰ,BĐ-01688312057,BHXH thành phố pleiku,SD,070/0165,DQTC4,Lớp CD15QT1,nguyễn văn cường,89514,DL Sương,132241,Bộ phận Tiếp tân,t2297,CÔNG TY CỔ PHẦN ĐẦU,C42-231556,TDP 12,10387_AM,19,Đ.Eakhal,CTY Wonderful SG - 17-3936,TF,CW07448,X,75694,S_66_2_0016416,16706,6699746186,B16-91946,CtyGiàyThôngDụng-60296,G.th,6699493863,IB116-90502,Xã Cư Êbur- TP. BMT,Đ.19-5,74628,(MT 2_ STT TRAINING 2_18185011),Cty CP S Furniture,217/46 Ngô Quyên,191 007821,C07,Cty Thái Thanh,W50062468,056/0133,D5261,Xã Hòa Thắng TP. BMT,28 Thôn 12,P17,Dự án,Buôn Jù,Đ.4,H2-MAY 3,TCP1298,NT - RMS DA,DDROFIN1-1190503150,78453,Buôn Ju,CN,Bưu điện Thuận An,P. Thành Nhất - TP. BMT,DAI01SG2-116060002,Cty Yazaki_B6-O-31434,Cold fusion production Plant_DMP_A Shift_5 Team-19212163,N-50536,87966,PLT,VT2FT1 Department-E Plant-VTE1 VSM-Assembly Group-Assembly 2 Team-18187636,C15;34061,Xã Hòa Thuận,South Region Sales,E10149,LA_HT5455,3.128,Gain Lucky 2,FAN_STAY-ROTOR PROCE,D8089,Chi nhánh Đaklak,Công Ty Cổ Phần Nông Nghiệp Quốc Tế Hoàng Anh Gia Lai,Làng Krai,ÔTÔ,X6-CHGB,HM,TA 69401,SAL BMT,BHTN,6526/pk154574,C PlantAssembly group_18185700,Hoa Sen_Mn-P.BhCt,K_M3_C31,HN.031,SA_KT,Lớp DH13QMGL-AL0006,LÝ 2C,WAREHOUSE,KD 8A,R4-207719,LOTTE-13725-TT DN,H093599113,17/6 Nguyễn Viết Xuân,Cty CP TP á Châu-E-17970,BĐ,12133,Thôn 1,NES-BA-Cty Tốc Độ Xanh,BI0011O-131,VPCT,Thôn 6,Đội Xây dựng số 2,Công Ty TNHH NITORI BRVT,135 Trần Phú,Mẫu D01 - 3268,HF R 03_17168690,2172,HCM - Trung tâm Tân,M1-45700,BỘ PHẬN BẾP,MFG-LG-2258623,16211OT0446,59334,Hộ Ngô Phú Nghĩa,BI15-50,DS11-40,SGP,võ vũ thành,Kế toán K38E,c?. CKSC k39-nv2,Cty TNHH Modelleisenbahn,SEW-16A-13986,QK4.7,00105,15211KT2516,DKTA2,T(,16DQTC1,ABB,ĐDTH 25B,57.QLTS-1,Phân xưởng,K21C02,7AM1042,CCQ1511C,K21TC2,19082827,M2-51196,P1,Hộ Lê Duy Bảo;0935565956,Phòng Hành chính quản trị,20161462,PYN,BI0010_020,NHA TRANG 3_E1,60809,0933762197,Cty Nutifood BD,004159,NT,2209,55427,A40052119,CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THIÊN KIM NGÂN,Nguyễn Thị Minh,VMDA-969019,TA 72547,34740,CtyPROCTER&amp;GAMBLE ĐÔNG DƯƠNG,12139436,FVN T42May4 14035783,79949,19060158 FVL KP.KĐẾ,PD,ĐàO TạO,J402,Cty Tốc Độ Xanh,BTX,Cty Kim Hưng Thịnh,3161,iron,Cty Chin Hsin_3577,SG01,910248418,0913789637,11,Cty Trung Nguyên Cà Phê SG,(480)_P12065,TXXN0,Fujikura Fiber-QCS 47243,482760,Phòng lập trình,MFG-LG-1385812,22582,Xưởng,CSCX,Cty Vĩnh Hưng Đạt,106920,87963,S_PO198.52_0026112,Hansoll;A4251-;DEVELP-49432,0442,D2873,TT,cty việt thành,101864,th ô tô 38,90219_Quy Nhon 2_C2,CAM,Ke hoach,Cty Hosanna Vina,D2-0268,In - chia cuộn trong GMP,026036,YS10B,3020.31141021541-DH40TG002,Sư phạm Vật lý K40,B0JZ-00100738,32608,B_C18_HB2,CtySunghyun_PressA,239832,SEWING LINE 19-24861,Cty Gỗ Việt,H_CRM_Tel_13_0027744,Tốp - Xưởng 1,Phòng Kỹ Thuật,CTY Yakult - 01367,VD Injection Assembly,VP,Xưởng Luyện Thép 2,HCM - DSF,CB2,00172,m,XN3 - C 6,11639852,công ty Hison,M1-12,stt5505,E-25744-MTR,S_POS17.79_0036630,0975555601,28462,02215-Ass,Quản lÝ bán hàng,huỳnh thanh phong,41571,Hộ Nguyễn Quang Nghị,TA 1175,21290,Nha Trang,11032982_FVL.X1,TP147,VD392,Trần Thị Minh Tâm; 0935049025,Quyªn,D_Mfg-LD HUYỂN_20260,Nguyễn Phê Hùng,C1,0376909468,Nguyễn Tu,VAQIZZ0545,Hà Thị Nữ,125390,CN HCM - Vùng 1,Nguyễn Minh; 0982870716,Mai Xuân Minh;0378966482,0387561858,Lê Xuân lâm,NVKTT,Giám sát,13069,Bếp,Trần Thị Thu,0905147143,Dương Thị Xuân,Hộ Nguyễn Văn Cư,Trần Cao Nhân,Huyện Cam Lâm,SC.Dryraw,Nhân viên Phòng Dịch vụ địa ch,htc1,Quãng Thị Nở,Hộ Vũ văn Thủy0916062166,888711358,nguyễn văn minh,Trung tâm Tư vấn Khảo sát địa chất và địa kỹ thuật,tt da nang - 06328,INF,nguyễn thị hoa,Trần Hữu Hậu,CÔNG TY TNHH THIÊN SƠN TRANG,Hộ Lê Ngọc Hướng,P.VTXNK,8635,31161026554 - DH42EM001,lê thị định,Hộ Lê Thị Quỳnh Chi,Hộ Nguyễn Trọng Thảo,CPYS,dsm,9811_Q45415,82104,hộ nguyễn thị thuận; 01638535339,Cty Đông Hưng_M1-MCBSX,phạm được,0919137045,Trung Tâm Quảng Bá,nguyễn thị thanh vân,Nhà Máy Nguyên Liệu,CĐ Dược 2A,cty nguyễn thịnh,Trần Thị Lệ Hoa,P004,Nước Yến Cam Thịnh,Chế biến,huyện Trảng Bom,thái thanh tâm,lê diệu quỳnh,D22,Huỳnh Thị Kim Anh,Vĩnh Hữu ; 0902010763,CÔNG TY CỔ PHẦN ĐẦU TƯ HOÀNG PHÚC NHA TRANG,trịnh giang đông,16110445-F,Nhà máy CBTS90,châu văn sanh,Vệ sinh,Trương Thị Thái Hằng,Bộ phận Lễ tân,14DTA03 1411534427,12B5,K20S02,Cty Ens Foam,1454020098,14149140,CĐ ĐD K2A,Chuyền may,Agribank Quận 1,M6-42423,131067,Lớp CQ.55.CĐB.2,Cty CN Tung Shin-STĐ-E1833,1611201542DTAC1,TC Đ40A,12XH1,9532,0941355610,Lư Quang Thắng,Bộ phận Dịch vụ Khách Hàng,57.CNMT-1,CCP02PS5-217070156,Cty Foster-4F-TMB-01-250133,DDUC1,15DVN3,141723,7AP101,QLTB,-(CB 3),TA 63421,TCS.019,SAL NT,32895,25221-DS3,TP12,Cty Dynaplast,SC.IP,14065741-D4-445,A201-00431763,1251160162,S_Sales_Net_74_2_003,12CDDT-TT01,1251090226,14149384,võ thị kim phượng,0972601691,92,Nguyễn Hiền Minh,Nguyễn Văn Luận,Trương Thị Mai,103919,Trần văn Chưởng,nguyễn thị thọ,QMĐT13681,Nguyễn Duy Tiến; 0905733731,lê anh ty,Nguyễn Xuân Trí,Hộ Nguyễn Oanh(0933472108),đoàn thị mộng thu,lee xuân ban;0777538012,Tổ thị trường,Trịnh Thị Tịch,Nguyễn Ngọc Hùng,62,Lương Công Linh;0903551103,đặng thị hoài phương; 012235331113,Phạm Thị Minh Chi,Q09_66945,Cty  HÙNG LONG,phạm văn hải,Nguyễn Thị Thanh Hận; 0982079208,25764,X1,1 CN-C_59663,Nhà máy Sữa Vinasoy Quảng Ngãi,Hộ Đàm Quang Nhựt,Hộ Ngô Phụng,0336593535,0989790794,PB85350,SợI,630327734,11403999,JLSCT0050,PX Đế,20150533,1,21101008,HF FRM-22214-16308,NvPctk,21603727,B190402499,Phòng kinh doanh,Cty An Cường,V21704424,CSKH,B180606865,577,Đóng gói,P008738,NS.gấp 3,AD 3,D60,33183,Biên tập truyền hình K35B,P011465,N190510354,N190510034,B155,M27160-16603,Sung Shin A_F5-V_1006,240354,Đội 2,Cut,2862-ALU2-2-9.5-Tu-51307,21608925,V21702927,OD 04,905186,LR2,B161027155,9318,26_1_0008071,PX14,160119,VC16030072,11702081,Quality Assurance Group,190805197,9330,GD,Công ty TNHH MTV Chuyển Phát Nhanh Thuận Phong _ CN Phú Thọ,Ban Đầu tư,230,Nhuộm,D168,Cty Sao Thiên Vương,190103378,gd,AME-107661,TP Biên Hòa,3621,51,TA1879,009232,N19039197,Công ty TNHH seijin bags vina,N17046228,CÔNG NHÂN,D5647,190203521,Trang 45,Nhân Viên,D140,56500,High Pressure Casting,DTTS khu 6,Tráng phủ 2,Phân xưởng SA,13207,Công Ty TNHH Bất Động Sản Home Next,P002992,0964992961,Line34,FC2,PTTT,Trường TH&amp;amp;THCS Quyết Tiến,ĐX,Phục hồi chức năng,CN Cty Sữa VN- NM Sữa Bột VN,H21191,Thêu 1,XNK,SEW-24B,13799,lt-27, 1504018,Kỹ thuật,Ban Pháp chế,14102,Cty Nhôm Đông Phong,M8CUT1,M8.L50,Thôn Phú Mãn,23175/65250/R-AN61,F1-24,K19090133,Tổ 7,03-13305,KDTM,M5CUT1,HCM\Un,113526,Nhà máy Dệt,23270,huy,094BĐ0101(HÁN TRANG),29818,Cty DAESUNG VINA,509368,Phòng Kinh tế Kỹ thuật,T14,D51,SRV,Quản trị viên tập sự,12736/,May K38,122952,Store 13074, Xuyến,BS,THSAN,Cty Panko Vina-6108,M8.L23,TB.BV3,CTY MERAKI FW_1D1700623_QC,M3.L10,M1I.23,MXP8.CUT.GP02,Trường THCS Việt Hùng,5438,10009,MK3-004395,PR-W032,3524,ép nhựa,CÔNG TY CỔ PHẦN PHÁT TRIỂN CÔNG NGHỆ &amp;amp; MÔI TRƯỜNG TDP,Marketting,Cty HASAN - DERMAPHARM,9A3,S_Sales_Net_31_83_00,VT1,220651,01-55882,VPTH,54564,Tổ Trưởng Phục vụ,PX. ĐL1,T8,SAMSUNG_DA,SWD2(0,Bộ phận Môi trường,Tổ9XN2,SDV,t24,05-59635,PSF,18/02/2004,Doanh Nghiệp Tư Nhân Xây Dựng Số 1 Tỉnh Điện Biên,Công Ty TNHH An Nghĩa,Công nhân đóng gói lắp ráp,Phòng sản xuất,Cắt B,IT,PR122842,35,TM 44XN VI,104,Khuân Cầu,Lớp CĐ44ML,D26,D314,Cty TNHH Da Young Vina,FBCS85E17,Mã Tẩy,Đồng Côm,FECS45DL,FECS35IDL,SMT_FPCA,CNC,TM06,BCV115DL,HT2,Lớp 50CĐ-KT,Bản Hạ,Trại Mới,Store 13064, Thanh,Cắt,01-41591,BVTT,Tổ may 01,FPCB_FQC,Chão Mới,Tổ may 52,D27,Sơn,SMT,Thôn 16,VH,AUTO PE,D63,D24,Tòng Lệnh 2,TM 5,FECM15DL,_449108,Giàng_DT Phong Minh,MNV 224828,D219,Trại Ổi,60740,09451,_445625,000511,PKT,6942,CÔNG TY TNHH SẢN PHẨM RACING VIỆT NAM,MNV 225820,190319,Cống 1,FECS25DL,Cắt gọt,Khuân Rẽo,Hố Giẻ,Khuyên,Nhựa,TM08,TM10,Công nhân điện tử,FECS35DL,AM SMT,Phương Lạn 2,Tổ may 58,CN 705,BCVB25DL,S_01_2_0018400,Cty COMPASS II - V02531,10630,Yên Thiện,2233,TM 03XN I,Đồng Con 2,Norred,FVAS-18099013,NWInG,D223,Đình Gàng,FBCS85J26,TRƯỜNG TIỂU HỌC SƠN HẢI,cắt 2,FBCS85Q05,TM 23,Nhân viên sản xuất,16B,D7,28207,PD_FPCB,Tổ cắt 2A,D04,MNV 225226,D233,FBCS15DL,Muối,Chẽ,là 2,CN Norred,TM17,12735-IPB,Hoàn Thiện,Tổ may 15,Tân Tiến,D57,Công Ty TNHH SeJong Wise Vina,1-T40A,DYH01465,D38,6159,6268,4070,26 B,Chấu,Đồng Phai,7924,Tổ 69,Đồng Quýt_705,6192,Công ty TNHH Lian Tech,MNV 227886,9250,PRESS,AM SX,Cty Đông Nam, LR-8233,Khanh Mùng,Nghè,IPQC_FPCA,D35,PD_FPCA,Ép Nhựa,KT14ĐB01 -1454040117,AS,B18,TM15,Coating,S_Sales_Net_01_79_00,8498,Phòng Sơn,Giữa,V FACT,Đồng Con 1,BỘ PHẬN SẢN XUẤT,150584,D3,02-27515,0006,D250,Tổ may 51,0,SMT(SMTTT-B),01-56992,kết cấu,Phòng mạ,005,Khuôn Dây,D257,PSX,110861,109942,D16,_448830,Lớp CĐ45SC,CQ52/51.05,Production 2 Sub P,D251,Đông Cứu,E-25774-MB,TTQ K23T,D5,NM Sữa Bắc Ninh,_443653,Xuân Lai,Kế hoạch - phân phối,Trường THPT Hàm Long,PU -3019090566,9333,26,D-R.Material,5416,Line56,D1,cn1222,Cty Nutifood BD-GTN-N,NM4_1053,190804866,D5961,21,Công nhân xưởng gia công,Công ty TNHH NCC Việt Nam,HD hai Bà Trưng,Cty Linfox-603400-001 - VIN_NORTH,Cty Sakata Inx,DNA-BN-Cty Hoàng Nhân,TH,SUB,ERP,Công Ty TNHH Joyo Mark (Việt Nam),Tổ máy Phân xưởng sách hướng dẫn,x,Cty FOTAI, 053-068,Bộ phận kho,222GWO,48791,16,PXM,6947,XPN,Công Ty TNHH Sản Xuất Và Thương Mại Ngũ Long,phòng Mạ (ANO),16120473,C FACT,D232,Phòng Tư vấn đầu tư xây dựng,Công Ty TNHH Trunsun Solar Viet Nam,Nhà máy sữa Bắc Ninh,Danapha0,Công ty TNHH AK Chemtech Hà Nội,KHO,819086,809946,S_PO127.27_0031068,008074,013515,18,66326,SC Press Part,Phòng Xay,D226,815369,0402030-387,Xóm 4,55471-D1,7935,xóm Bàu,7410323597,Cty Beifu Chemical,9123,VT4,M10-BS527,Công trình thủy điện Xenamnoy, huyện Paksong, tỉnh Champasak, CH DCND Lào,Lộc Thị Thoa,EVA-IP.C-035110,Xóm:Lê Lai,12608845,31,N20395,Ống B,376,Cty Sung Hyun, 3-M-15,D320,M12879,A2 -Handsand-ST2-16033752,Tổ QC - Nhà máy APC Pack,67651,13872,q0221,ĐN1,TL,Cty Dynaplast Packaging,CTY ĐẰNG QUÁN,Utility &amp;amp; Engineering 1,Đặng Thanh Hải,1809032/ O-16,K009754,AP Plant_CTM_1 Shift_1 Team - 15147760 - TAEKWANG MTC - 13015,M2,X6-M2-028580,Xóm 1,BR625,CUT-16654,16935-SGA,Y09427-X07,2203,9949,F2.KTP-08110684,Tạ Hữu Thức,14902,NV,302019080009-IJ QC,3502,13618,Trường MN Đà Sơn,PRESS R 03_A1_10079870,Hồ Phúc Vinh,F3 - LINE 11, 31910031,2211,Mechanic,#,Nguyễn Tiến Bắc,49272,E32837,0086455,Nguyễn Thị Mỹ Duyên,A331,Bán hàng,VJ2-A-N-L6-CUT-07120124,P_GT_mẫu,Cty Sơn Hua Bang,MI9 64294,19080454,RS,Nguyễn Tuyết Nhung,Giám đốc,2121,CTY HÀI MỸ -13040109-K26,P.KT1,2C25,BM-C,Nguyễn Văn Hoa,Phùng Quốc Tuấn,Cty TNHH Phil,04371,9538,0311,kỹ thuật,7829,Nguyễn Thanh Toàn,Trần Huy Hoàng,59941,SALAN,Cty Tsaiyarn,Cty Asama-dán Tem V111118001,D300,Trần Văn Hình,Thôn 5,Ngô Thanh Dũng,TS - KEO07120003,7810,8658-Lắp ráp,Chu Thị Hương,PHAN VĂN TẠO,6241,Cty SJF Vina,F-5/T17530/UNIT-1,2111,M1-T16,045643,2241,2769,PRO 3-STEP3,Đông Trinh,180414635,II.5,m3-t11,3212,Cty CP May mặc Bình Dương,00555_43102,3333,E46_E22486,Phạm Văn Xuân,Phan Văn Ngọc,2321,3c-4c-731063,69-Tu-PPD-1-53731,PLD,D138,S05_E21073,DCT DA KDT PN,TA2075,57B11 Kinh tế,Lương Thị Trang,Phạm Văn Hoàng,57.KTCK,Lái xe,Cty KỸ THUẬT VÀ THÍ NGHIỆM ĐIỆN CƠ MIỀN NAM,01567,Cty Astro,15073032,Esprinta-Tổ A34-E34897,Trần Thị Tuyên,0334575275,CÔNG TY TNHH SANGWOO VIỆT NAM,Assy-B,Bộ phận dập,60K Nông học,58K2 CNTT,Khối 12,56B10 Kế toán,Bùi Đức Phan,Cty Premier Global,mpb:70583,B.may,Lương Văn Anh,E4120,xóm 5,Cty Đại Lộc_17030549-c-elz,Lang Thị Toan,MNTT Búp Sen Hồng,QC-QCEVA-033839,56B5 NN Anh,TG4000-738440,1506176/ Cutting,160913034,PRO,3065,122-55437,MDF,950074756,CN CTY CP Tập Đoàn Vàng Bạc Đá Quý Doji Tại Huế,CN Cty  NAKAJIMA SUISAN,Đinh Minh Hải,Công Ty Cổ Phần Thành Đạt,NHUOM,THỦ KHO,Nguyễn Ninh,004586-FINISHED GOODS WH 1,CÔNG TY TNHH KIỂM TOÁN VÀ THẨM ĐỊNH GIÁ AFA,Phòng Tổ chức- Hành chính- Tài,THPT PHONG ĐIềN,CTY KIM OANH-BD,Phuc vu,Lễ tân,HL,CKCN,KINH DOANH,Công Ty TNHH Dầu Thực Vật Khu Vực Miền Bắc Việt Nam,KDMH,SRF/Huế,15SLS,Bộ phận sản xuất,Trường CĐ Việt-Hàn,Xóm 9,6337,BP QC,120236,1712045/ O-06,B_HB4-C04,041-161,VL-65983,138270,03978,6122,0172-00155075,4059-49629,Xưởng Luyện thép 1,Cty Nitto Denko-P2-3-USE-17073,BD5,Bình 3,259,xóm 8,1322.08,A38002544,06-42761,Cty Dongil Rubber Belt  _CBSX,N12489,11509093,01-40131,51647,Khối 7,Võ Quang Mạnh,Xưởng Uốn 2,Cty Bibica,01293988153,BHC-E23,18003959-D,353,Cty Alhonga VN_V2382,Esprinta-Tổ B42-E39194,0983847688- HGĐ,CN705, Xóm 9,Phòng công nhân,5625,Xóm Xuân Thịnh,p2-rc2-pmc-6105,59605,1P1127,CN Cty Cao Phong,Lê Hồng Sơn,12762,Xóm 8,HSE,BUN,V1201958,6149,5232,Cty Vạn Phúc,HCMC 3_6G,HD_IN TEM,6463,Hoa Sen_Xuyên Mộc,3291,Đặng Thị Quỳnh Trang,Bãi Sở,Đặng Thị Thảo,Esprinta-Tổ B35-E39290,B_PX MAY HB1,Xóm 7,DEG-3341,Trần Ngọc Hoàng,PFL,S_Sales_Net_40_00377,S000798,9203,KCBQ42018,VNP,XNXD,Xóm 5,7067SA4,L05-F10,Trần Thương,17006,Kho1,M30910,T5 Vân Trình,696,88697/PSVPG,707,xóm 6,Vietel Post,D137,1A,315,QTKD 9A1,995,56870,C21 MNC,1192,KH,W5613,Bệnh Viện 71 Trung ương,HGĐ_0922131755,Cty Lee - CUTTING,03-13544,Final,Cty NUMBER ONE-40NBN1-12,C-21012,1102,S4197 Line 03.3,000115-LINE 02,16450,570083,năm dân,BH,15346,TA0840A,BI0096BH,BTXH,7034,TA2619A,009003,btxh16,D3555,7,15937,TA1810A,TA0091A,TA0007A,TA2327A,Chi nhánh Công ty TNHH dịch vụ y tế ACA - Bệnh viện đa khoa ACA,Nhân viên,TA2905A,WDF - Pretreatment 准备,205 016775,01-30004,Line 20,56968,F9-64,PD03,CN CTy Cao Su Miền Nam,160093/2P/VB/B,01-18613,YDH -Yarn dyeing shift A,M4,AssyM,Trần Văn,M503,84301558,2806,4618,SEW-14B,15533,DR,Tổ 10,150,Nhà máy Nhuộm sợi,BP Chất Lượng,Đội Chống hàng giả - Chi Cục Quản LÝ Thị Trường,Công Ty Cổ Phần Đầu Tư Và Phát Triển Xuân Thủy,Giáo viên mầm non,T.2138,F13218,CÔNG TY CỔ PHẦN DỊCH VỤ VÀ DU LỊCH RẠNG ĐÔNG,X17HT,X11,T8,SFE,M601,KNT - Flat knitting MC-B shift,CHUYEN 07,06.2019,SON.HA,HP,010427,E,CĐ bộ 1.55,D240,cty mm hòa sơn,56B2  Luật KT,70302,Esprinta-Tổ A20-E39677,6292,feavn/28505,ta2490a,D119,M40-BH604,1.ht-1710454,QCHC,180,PHONG_KEHOACH,IX,KT15DB01-1554040203,Thôn Nam Vượng,H11H9,Thôn Ninh Phú,D.05.30.02,008957,K18 SP Hóa,56CTN,A2-Printing-2- 140312862,H114J,TA1780A,112014-10117,X09_T08_25019,TNXP 35,X06_S1_7992,3/03019078/2EA23,Chuyền15X1,Trường Mầm non Hải Bình,IXEN-CT.C:18085,GCĐ-THB1-2-1:20418,D272,114S,428869,44967,QLDAHT,12163,Trần Hữu Quyết,BDG -,Phạm Thế Đạt,lê thị ngọc hiền,LINE 3,4-9A5-03013611,11716,TA1105,SX4-LA,20173,2138,3083,12061,XM,112F10,X12_T06_30186,ta0320a,BTXH 18,BI0020A,YN0013A,EA0039A,15,TA0018A,114017-15710,51201-4055,MAY 20,PKV,TA0251A,Y001112, Khống chế,D184,16444,BP. Vận tải Biển,CN 705 38,line25,09330,1405,FB-15044005,Cty Uchiyama Việt Nam_8100,M01,BGCXT-12085017,24523,1422,V2K3,X2-M2A-035372,010,DANDNS00,19040196,115H,BI0138A,220,111M-03839,Cty TAKAKO VN-116108PR1-2,09806- Ironing,120,TA0734A,CTY KI.WORKS VN _3671,15-Tu-TD-2-54595,112044-08281,038896,160,16480,X10_S4_23859,D42,X1-M1-4:18711,060294,Chi nhánh TCty May 10- CTCP- XN May  Bỉm sơn- Thanh Hoá,Hansoll;A2283-FIV;L-40-33707,Thôn Thành Lập,1157,111F-05096,Thôn Đại Đồng 1, xã Cẩm Sơn, huyện Cẩm Thủy, tỉnh Thanh Hóa,TA2303A,Cty Apparel - QC 2 - 17555,11Q7,H11QA,12778,FBCS75IDL,S_POS51.36_0035662,K60CB,TA1512A,ta1536a,ENC,114037-02999,NGUYET,135,QA0009A,1800623,TA 63808,Kỹ Thuật,212027,7390,114G,HE - North,Cty Dù châu á,A5,Cty Pro Active_1208211EN,1838036,Cty Mega Step-V141117-610,TA 58305,30,Cty Á Châu II-E-12174-SXP,Tr. CĐ Y Tế BD - HSCDLT01,26-78,Tổ Cấp đông 1,CN VINH,CN Cty CP CN Cao Su Miền Nam- Xí Nghiệp Lốp Radial,18 DL HThapMuoi,Phòng quản lý thi công,Stit. Line 27,CĐ1X1,24,C004605,PL0101,F2-L 1,Ship,BĐ20,020643,Văn phòng,P KIỂM TRA CHẤT LƯỢNG,N11243-129993,5120,Cty ACE,9767,50619,Xếp Băng chuyền 2,Cty PT KCN Sóng Thần,NK041,Phát triển thị trường OTC,CT Panasonic-V000939PAWDSW,K410-180212,Cô Huệ,25/09/2019,PHÒNG KẾ TOÁN,CHKAC,Right Rich _ma21,Cty King Jim - 3623 PP&amp;PJ,192,84814,TA 66756,LINE 05,P/E,Cá Xẻ bướm Fillet,GEA825-26392,'03/07/2019,AM001307,637,0377-00040540,4890,M2-46099,DA-ATM 61787,14/05/2019,BD20,Cty YAZAKI EDS-MP-P55A-75757,Bd8,33979_DCM A,14126831-D4-5020,.-XD13D08,Cty Panko-1402,C53,20358,F1 Sewing 11-45830,Cty việt cường,Cty Panko-6317,KTDN,21474,Cty Triumph International,A-L03,56181,A40057165,Samil Tongsang_Stit. Line 37,1211,Cty Nutifood BD-NTFBD.SN,Cty Cao Thành,Cty TNHH Giai Lâm,Công Ty TNHH May Mặc,CTY CN GỖ GRAND ART (VN)_24047SofaBN1,DK JEAN,HM-68865,151A030274,Cty Ky Vina,1419292,IQC,89052/S7-Đồng Tháp 3,cty xe nâng heli,A88,cty đức an,Cty Bảo Xương,9863_M38760,Công ty  Hoàng Thanh Hồ,GO VAP,Pro (Print),TA 70077,13TH-12050093,0171-40077167,NHU Y,19113047_XV.TỔ CHỐNG,Cty TháI Dương,V000214PA,0444.18MKW,NV0,20131497,Cty Suntech-KTC.ĐG-STVN1384,1702169-388,17388,PDC3,WarGrB-2821C,ÉP NHỰA,18/09/2019,34458,20151091,Dự Án,43417-8230,A17434402,OH,KHONPL,X02378,I,182791,0937063402,GRAB,20173975,DN1710234,21 DL TXHongNgu,T6630,Cty Nutifood BD-GTW-B,Cty Tiến Hưng,34113-41452,LINE 8,KAO,P(0,QQI02002-113120047,72828,A201-00436285,M04-060,V09,Cty ASG-LINE 12,SY1,10015NT,LAB (F1),63932,67177,CĐP,0868270842,XN5,P0020,76298,NOSE-L1_3017110651,N.T.Đông 0988391317,S_POS87.84_0033654,47665-7250,CtyGiàyThôngDụng-68253,G.th,Cty Zeng Hsing-V141289,PKB1900840,Khối kinh doanh,Vo Thi Thu Nguyet,CTY HÀI MỸ -17022017-027,Công ty May Mặc Trúc Xanh,BK26303,V9M2,BD9,F20080023,7184,Cty Precious-SEW4410,Cô Diễm,CTY UCHIYAMA VN_9814,(815-28273),169,17/10/2019,140382,cty tribeco _ ngk-mk2,26329,FAN-16341,CÔNG TY TRÁCH NHIỆM HỮU HẠN THÉP SÓNG THẦN,ROUGH MILL,Trường Trung Học Cơ Sở Mỹ QuÝ,6000-00043722,ky thuat技轉,CT,VCI222-115385,A2,110252,TA0868,Bộ phận Lắp Đặt,huyện Định Quán,PAC-W-1481,TUẤN - DH - i,cty tnhh một thành viên trung tre,ES-18032001,PU-SP-A-11040852,CN May CN,LX,CÔNG TY TNHH KIM NAM PHƯƠNG PHÚ QUỐC,COP02PS2-216050060,D5743,TCP1470,Cty Hung Kiu-E-005947,Samil Tongsang_Ass. Bonis,WAR,BC 61653,sinpha,_feavn/30156,Ngô Thị Kim,PX,20173658,CTY SUN OCEAN,19112,M1 -33159,A64,PT,046/0100,P14055,Cty Cự Hùng II-KTP-6369,AE,Minh - DH,AP,CÔNG TY CỔ PHẦN DU LỊCH HẢI VƯƠNG,109912,A30072679,AGG,GÒ-SK2-CD2/C4-G3,Cty Diamond VN-B3-May 1,Gskd,Cty VJ Engineering,Cty Thiết Chưởng,Huy Lạc - DH,10812-FBR,Trí,Cty Nguyên Thông - N141295,BC 65377,Cty MTV Trần Đức,DSM-S3,Cty YAZAKI EDS-MP-XAB1-63829,Mỹ Trân - DH,Đơn - DH - i,820_Cty Thái Tú,Cty Gỗ Hoa Nét - 65817-23245,6897,D5767,01345,CCL-NM,Đỗ Thị Niềm,19020361,MK-SMD,TV2,11664197,YSSN14B2,Mỹ Trân,H1560,Cty Diamond VN-Puma-QC,C019689,SMD-MK,Cty Chang Bao,SC.RHC 2,101317,535,0927346-C,CTY CHIN LI MỸ PHƯỚC_11121,27214,53712,Bộ phận Kho,PY7958,Cty Hồng Phúc,Cty KINGMAKER-VBQZZZ 1303150015,Cty Newwide_Chuyền Nhỏ 1,CTEvertechplastic_6874_T3,CONCEPT,XNXLĐN,116476,IRONNING F1,4444,4B,Cty Đông Hưng-F18_57785,PungKookIII_3B-kcs2-23141509,Cty  TIẾP VẬN TÂN CẢNG BD,SC-Bras 2,64178,Cty Thép Nam Kim,A201-00409316,cty khiết kinh,Tổ 1 HT-2,CP,Xí nghiệp 1,1A121-1,15DDS5B 1511538728,116577,Bộ Phận Sản Xuất,16110338-FVL.X3 L8A.T-2,002805,Kloan,CtyDVQLTS VSIP_FMS-02081,73963,LX05,C-GCB,92005/HMD,164,DH15QX01-1551040109,VBQZZZ1711010006,Cty Shimada,55021,206610-UVEX-STIT-3_Cty SGX,70985_B7 EN,SALE,Cty E.C.I_Xuất hàng,042-Tr-W-QA3-53902,PU Plant_PU Rotary_Rotary 2 Shift_3 Team - 19210717 - TAEKWANG MTC,0294.19MKW,Cty WERNER,Cty Ace Elite,28681,C-T1100-16455,BĐ12,Meraki-14000468_Line 8_TP 8,1-KT,0328265805,Cty Colgate _EAMP34010,LOR,IMV17222,30/09/2019,94,TA0749,CD,Cty Master Craft,H6_Stockfit Team_18191456,CM,137464,Trí - DH,KPHTA,20190989,TC,CN. DakLak,đh-b456,MK,Cty ĐẠI HÒA NAM,Đinh Văn Trung,Huy Lac - DH,Tùng - DH,VP Công ty,Tùng,cty an phú,66143,49642,8663,Cty Haksan_L1T1,20850,A031,HWC-SG - Cty Tốc Độ Xanh,SAL TG,AK,2102,IRO4,- ED,77035,Ktp-E,TKNV,160041,M6-48335,25013,170461,135896,Line 21_Shinsung Tongsang,Phân xưởng dệt,N15,L12F1,V/C IQC,Cty TNHH QUỐC TẾ TOP LEAD,MH8800,MC3064,Cty Long Thuận,VL-49090,201209266,31627RESIN,25671,031/0074,WN3 - C&amp;amp;S-64058-47602,2107408-DGoi A,MT,SAL HCM4,FVE2-11080995,431189,34167,27010,SUPPORT Part_HR &amp;amp; ER Group_Training  Team-19208535,971390,Công ty Cổ phần Đầu tư xây dựng 194,CH6E1A04_67500,12A3,140574,118275,241,D2014,IND06301,24280,CTY FTN VN-B8-129363,CTY Fujikura Fiber-PRD2_46149,22468,NGUYỄN THANH BÌNH,1654,Lan Thanh - DH,22381,18503,21935,49780,Công ty TNHH Mingsheng Viet Nam,PPT SA,DOTA2,A272,PCST,S_POS42.79_0037254,Lớp 12C3,D14-TP03,15X003,24227,42170,BTE,Stitching Comp VSM_D HF A Shift_6 Team-19207769,Cty Apparel -I - CUTT - 20913,PKS2B_B - Line 12_22190139,L22F4,PRO4-PC,15DLK07,1113862-MVT B,Cty Vinachangtai,47500,79425,2091,1-P05556,59906-9612,P. NSHC,121243,42886,84271,DN1406114,080064,DOWN  ROOM,49766-QLCT,170339,PFT-IP,(MT 2_NOSEW NEW 26_18182084),L08,GDTH K42B,Cty Greenie Scoop,D06003532,CTY tân khôi nguyên,CUT,C46,BE02,A103,Lớp ĐCN K9,11B9,FVN  Mvt 14035502,A101,DH33DC26,FVNS2 QC-T2 19085686,58900,Cty East West_00446-Fac,25,Khối năm,Lương Hòa,TN,TP.7,MFG-AC-1118529,HPNB_Cty Thạnh Long,Cty Uchiyama VN_6703,E10078,Cty FOTAI, 042-226,12T-2476-BD-1400560,14112484-CHUYềN 4,Xv1.D1.L2Th,BI0007O-006,l-06may,3194,0171-40042719,DAB-1105091,25918,CÔNG TY TNHH JSB INTERNATIONAL VINA,17608,CtySunghyun_3-M-07,234637,My Tho Stitching Department_Stitching Comp VSM_C NOSEW A Shift_1 Team_19206643,17850,CNQ-AEHC01305,ME4490,79492,20120739,10848,D9912,XA-VP,Cty Hưng Xương VN,Công ty YIN HWA,83660,5377,XB-L26,44648,42024,Cty Datafa,43021,FVN  Ấn Cao Tầng 18055692,BỆNH VIỆN PHỤC HỒI CHỨC NĂNG BÌNH DƯƠNG,CÔNG TY  THựC PHẩM YERGAT,N.V.Đông,B.,75321_B7 GL08,Cty Kim Cự Thái,Operation,Bảo trì sân bãi,32115,P6AB-15579,Xưởng SX,20814_8090,KA05,70445-A1L5G20,C.T.T.Cúc 0935034909,52577,Cty Chí Hùng CH6E3S01_58406,26531-GEA922,83190,72722,In thẻ do bị mất,BPA2292,Cty Hwa Jong Garment Accessor,cty an thành,10422,86985,Hoàng Anh,85186,63578_B1ML10,H_Col_Ear_0039532,PET,HTL,Cty Winning,Tổ A22-E41790,X03724,81246,X01744,80688,Sung Shin A_  BaZớ-M_9590,X02295,75152_BP-XV,89607,1521000781_15DKS3,102024,84345,MH8726,1004,Cty Estilo Vina,0033490,QL &amp; KDKS
+TC K9,ỦY BAN NHÂN DÂN XÃ HÒA TỊNH,E-26747-MT,X02783,CÔNG TY CỔ PHẦN MAY NHẬT THÀNH,37273-7110,5032,77329,Cty Panko Vina-6710,6000-00067943,18865,21257,KB,L.H.Vân 0399237848,Z913-Cty Hoàng Thông,Cty PMT-Kho vật tư,Phòng Khuôn mẫu,TTXCT,53634-STOCK 6,Cán Vớ,19444,41320,6000-00041300,0033000,S10792Tổ 10,Cty Tân Hiệp Phát,Nhà xưởng,Diệp Anh,36833_9142,85720,21336,Chi nhánh Nha Trang,TA1414,Esprinta-Tổ B17-27162,46689,QA-ING-1083488,DL/KVC/016740,57576,Cty thanh hùng,Cty CP Apis,Cty Xu Hướng XNK Công Nghiệp,AI_HH_Kinh A,LINE 13-LẦU 2,71875,62829,5994,M64D - 13342,Tân,P6BA-15295,Chin Li-15980_md sq,Cty Signal-217726-May zizac,TPTV,V190384,P552-15429,Vận Hành Máy,Công nhân,Xí nghiệp NLS Vĩnh Hòa,L.T.Nhàn 0977144441,78823,Công ty Yakult_01149,TT_Khóm 9,41976,M805 - 22920,8713-A1A2KH,4207,CON,22918,55716,78578,Linh,FA-45240,53028,4631,Công ty VIệT NAM SUCCESS,Ban Quản lý di tích tỉnh Vĩnh,22857-A1L2G6,X02263,20100811,VD Injection,H.Anh,12Y006,45925_B7 GL10,Cty KDK Electric wire,20113566,A10-10630,Bình,70182-A1L5M19,44601_B7 GL10,889310,Khâu sơn,44799-A.VPNS,Lan,62725,3481,33334,73882_BSQD,729_B.VPBV,62454,115841 - Main Finishing,Danh,Ban Chính Sách Pháp Luật LĐLĐ tỉnh,Công Ty Trách Nhiệm Hữu Hạn An Cường,48015_BSQD,in thẻ- 20214- Hằng,huyện Vĩnh Cửu,X03792,89262/S7-Vĩnh Long 1,59457_B1XV,37555_TV,86140,U02-BU515,Nam,Cty Long Việt,HỌC MAY,SỬA CHỮA 1,P DA,84574,CNX-AEHC02195,KHOMAU,BINH,Cty Tong Yu,CTY Fujikura Fiber-PRD1_46206,15031283,C12378PACK,50154_BR1-M2T,490847,H20199,A3 - G- 40245,PF207AS1-116050907,TN-JB,96705,V05004-137367,070/0210,5775,MH8341,LP9 62501,T MAY- 16407,K_DLT,28217MA,06389,kcs3,Cty GIA ĐỊNH,Thanh,LINE 07,HCM - Trung tâm Sươn,834750,140122,C013977,235,86,57068_B7 GL14,Cty Gỗ Hoa Nét-75112-31719,31151020810 - DH41AD004,106665,Cty Haksan_L10,Finishing/ Expedition,61727-C206,VM049937, UV,PRG11AS1-6190700280,Hoàn Thành,2A08,02 NV Thành hình 64101,ANH NN K41C,Phạm Văn Mới,Cty TPR-DENSO,2/ 5672,61110,84932,S3_Kiên Giang B1C,Ráp,chuyền may,PKC1900319,Cty Diamond VN-B6-H.thành,Chuyền 7,CTY ECS,Cty Panko Vina-1309,0949938124,3018030387-IE,BƯU ĐIỆN TỈNH KIÊN GIANG,KH-0011/0038,SEN,thêu-2135,Lê Thị Đầy,Cty Thái Bình-T6_M.3,161A070277,Hà Thanh Bình,24039 - 9614,31151020671 - DH41KIC01,Cty Ausabaco,CCQ1404B,114-58590,LINE 03,Siêu Thị,CTY NHỰA CS CHUN XIANG,line 1,14726,PB80377,0943867067,gj551,CTy  Wei Sheng,Thái_HND,P1/09-11112329,Cõn d?,CTLC8,TAAM0007,Cty Panko Vina-6518,PAM,9042,KAISER1.BM.V190084,17B-13622,HT 2- 14087,HFY1195,0175-00070824,D Plant_Nosew VSM _Nosewt 2 Shift_Nosew B4 Team_19204911,Tạm trú,Điện lực TP CM,67319,Điều Hành  (MP),PHY-D-06070576,18002398/N,D25063,19090088,WarGrB-4990C,Trần Thị Út,Ngô Hồng Tính,PRG11AS1-6190701600,Vĩnh Nghĩa,51099,Cty Supor_4425,Châu Kim Hen,Huỳnh Thiện Minh,Lâm Thị út,15431,GXD 59159,Chuyền May,110020994,Cty YAKULT VIỆT NAM-022580,Nguyễn Ngọc Nga,Cty Nutifood BD-GDW,Phạm Thu Oanh,Họ và tên chủ hộ: ĐặNG THANH H,122-40616,CN Cty Việt Danh,Phạm Thị Hai,Phạm Thanh Nhỉ,Cty Chí Hùng CH6E3C06_59113,Cty Hoàn Mỹ-PX2-TU,Trần Thị Chung,MD,5532,A30085996,Nguyễn Đình Cưu,Hà Trung Nam,Nguyễn Văn Tân,Hồ Thị Bích Vân,PRGA8ST2_6191000730,FT01,Biên Hòa,KAISER1.FN.V190046,Nguyễn Ngọc Thanh,15020043,PU Plant_Spray_Mid sole 3 Shift_3 Team - 12113166 - TAEKWANG MTC - 7830,Cty Astro, 8425-PHUN SƠN(KH),huyện Longthành,20100316,C1X3,Lê Thị Hoài Hương,MĐT-10810,TA 67565,15418,S3_Kiên Giang B3D,Cty Yuasa Glove VN,1317,Cty TBS Miền Đông-M3_EV.MẪU,S3_Kiên Giang A1A,Tăng Công Hiệp,045434,Lê Thị Thanh,PKS2AA-Line 822150427,CIP02RC1-217050047,70650,Cty NTI-CUTTING LINE,Iron,FG0937,Khu phố 6. P. Vĩnh Thông,nhân viên,Tổ Sơn,Chuyền 8,Công Ty Cổ Phần Gỗ Mdf Vrg Kiên Giang,Lê Thị Vân,Tiếp thị qua điện thoại,47754,Cty TAKAKO VN-116166PR2-1,118396,Nguyễn Thị Thúy Yến,1238,Cty Great Hill,03_FacilityChanging,78391,Cty Rochdale-P02FINSPR015074,E-26629-MĐ,XƯỞNG WASH BIO,S_PO226.91_0032464,Họ và tên chủ hộ: BùI THị THOA,VG455,131574,PF519AS1-116070760,23409,AV01342,Gb607,trung p5,Cty CP Chấn Kiệt 749-X5-LC,AA09,TA0308,Cty CN dệt Huge Bamboo-V12186-KXH,Cty TNHH Nhựa Việt Nam,Cutting-04538,kinh doanh-tiếp thị,D2702,Cty Diamond VN-B5-H.thành,Tú_HND,Trung Hòa_P7,B62,H_CRM_Tel_2_0038604,TTYT_Nam,PB12089,GT - Ngành bột - Miền Tây 6,F16692Pre_Daây keùo,Xuyên</t>
   </si>
   <si>
     <t>{0.0,nan,1.0,3.33,4.72,5.766,2.67,3.874,2.46,2.41,3.707,2.1,5.357,5.469,4.909,1.86,2.34,2.86,3.26,3.0,3.63,3.66,5.098,2.66,2.26,1.67,1.96,3.866,4.014,2.19,2.883,3.303,2.06,2.51,2.583,2.01,3.663,2.92,1.785,2.23,1.65,2.56,4.207,3.24,2.18,2.531,2.657,3.071,2.72,1.989,4.668,3.25,2.87,3.86,3.61,2.05,1.5,2.82,3.46,3.276,1.8,1.35,2.457,1.71,4.344,2.61,1.99,2.804,1.58,4.589,5.01,1.78,2.25,4.828,3.2,2.95,4.172,2.49,3.333,3.99,4.49,2.373,1.75,5.952,5.453,3.808,5.24,2.04,4.709,3.424,5.633,3.39,4.271,3.06,3.741,4.136,4.831,4.65,5.496,5.081,4.392,3.363,1.581,4.307,3.3,2.21,1.54,1.68,3.21,2.899,2.91,2.77,2.55,5.334,2.73,3.42,4.03,3.83,1.83,2.48,1.55,2.555,2.16,5.034,4.29,2.97,4.761,3.863,3.73,3.763,2.856,4.317,3.563,2.632,3.117,3.427,4.748,5.209,3.18,2.99,5.141,1.36,2.938,4.16,3.146,2.651,4.932,2.608,2.965,2.83,2.37,4.099,4.867,3.43,4.69,3.88,2.59,2.509,4.466,4.305,4.549,3.475,3.27,4.063,2.54,4.961,4.673,4.628,4.633,3.841,2.396,1.972,6.527,6.864,4.32,3.03,2.58,1.18,4.209,3.13,3.434,3.853,3.938,4.246,6.758,6.063,5.725,2.62,4.161,3.774,5.393,3.696,4.198,2.884,2.81,4.712,6.023,4.708,5.027,5.753,4.267,3.49,5.184,5.011,6.406,2.22,4.379,2.846,5.054,3.063,4.752,2.3,3.48,2.78,2.27,2.4,4.742,2.321,3.55,5.58,4.026,1.875,1.03,1.275,1.45,3.65,3.16,3.01,6.348,1.72,2.873,5.15,4.129,6.566,5.075,4.125,4.614,4.902,4.27,3.394,3.496,4.282,5.59,4.39,3.716,4.234,4.872,5.294,3.035,6.225,3.45,3.15,3.339,1.84,2.504,5.954,3.941,2.76,5.82,5.99,5.481,4.355,5.314,2.98,2.741,3.575,5.859,6.745,5.72,1.9,3.1,2.13,3.562,5.75,3.749,2.94,5.679,3.175,4.812,5.409,4.948,4.944,5.29,4.319,3.498,1.56,4.918,3.81,3.095,2.63,2.163,3.308,3.09,5.251,5.167,5.452,2.44,3.6,3.53,3.883,2.96,3.847,3.654,2.776,3.12,5.636,2.35,2.09,3.724,3.782,1.33,5.286,2.2,3.34,5.673,4.158,4.19,3.17,1.751,4.62,2.681,6.175,3.829,2.793,1.85,3.154,4.439,4.792,4.21,3.232,5.052,3.221,4.362,3.796,3.786,4.632,3.58,3.19,4.85,4.593,3.074,6.05,4.913,4.229,3.793,4.408,4.945,4.98,3.458,2.43,3.684,5.424,6.325,3.478,5.02}</t>
@@ -794,8 +794,8 @@
     <t>{0107349019,nan,0107289017-001,0101552688-002,4000479220-008,4000443432,4000790845,4000325534,4000443658,0312798017,0401706699,4000494282,4001013908,4000425698,4000386047,4000436629,0400558832,4000295664,4000479220-018,4000325566,4000312285,0304464998,4100984795,0300588569-012,4100298570,0106980045,0314137527,4100487553,0106983776-001,3700256235,4100258793,4100669747-005,4100642960,4300476809,0301678751,4300205943,4100146546,0303648590,3500411853,0309805440,4100607684,4300336216-001,4300734094,0314336787,4000442527,0312314749,4000292303,0400568686,4000737577,4000410677,4000928162,0313229101,0401139009,0311907295,4000310383,4000611912,4000310369,0106019184,3600890952,0400643083,4001032957,0400565195,4001060778,0104918404-002,0312594246,4000312158,0400426522,0104918404,4000310270,4000438136,4000387925,4000378952,0400101556-004,0301465538,4000395355,8061014389,0400546065,0301927091,4000479220-004,0400392256,4000479220,4000418771,0400560327,4000479220-003,4000312359,0400396388,4000656751,0309965814,3600580301,0309100070,0108277695,4000292328,4000325799,4000479220-007,4100289495,4100289449,0300802364,0303991416,0302427817-001,0311183243-001,0303808501,4100739909-003,0401712692,0314245843,4100269121,0400539974,4300235377,0302862880,0305452233,4100933416,4100289512,3700255993,0302587881,4101479530,4100917076,3600869037,0313951518,3600922403,1701901621,0311638525-020,0308795775,4300344993,3700232139,4300387080,0400101394-025,0304172307,0400100834,0100107772-004,4300288629,0400101820,3600487052,4300378985,0309918941,0900259904,4300475763,4300715045,4300793861,4100259405,4300378569,4100258909,4300475594,4300756080,4300486250,4300274030,3700255295,0102036100-001,0302610033,0304119688,0300584155,4100542483,3702255879,4100446469,4100317128,0303118498,3700698272,4100340060,0400101394-007,0314373203,4100302682,4101492556,0301465256,3502303892,4101464220,4100808951,4100298718,3700956519,0100828580-003,4200283095,3602545359,0301340024,4100820042,4201682180,3600224423-085,4100459027,0304317552,3700352570,0302535629,0313237430,4100427762,0400392263-008,0311282766-006,0301679522,5500262700-003,4101213273,4101443090,0107779290,4100267082,0309346405,4000658815,0400372281,4000324876,4000633017,0302543066,0306486972,4000108321,0305507348,4000424133,4000292247,4000491838,4000482745,4000463735,4001033157,4001079810,4001020101,0303552514,4000308666,4000312863,0401549220,4001066233,0304472276,4000378261,4000292310,0400387217,0400100866,0401633169,4000324837,0312151237,4000939407,0400604366,4000312260,4001087522,0303826116,4000362180,4000941734,0306397465,3700386410,0313378738,4000740636,4000837028,0100835877-004,0312087302,4000310249,3600224423,0301446221,0400915795,0314774519,0400100256,0314007895,4000348475,3702641987,0400259705,4201690495,0400585956,4000707036,4000370223,4000324900,4000898052,0307859271,3600710751,4000299468,0305636015,0304995318-004,4000379515,1702070874,4001037056,0102743068-002,0302125855,4000438263,0300816663,3603205210,4000310224,4001076471,4000311877,4000325090,0105402348-002,4000329698,0401392548,4000309317,4000479220-002,0400517882,4000481967,3700303206,0102180545,4001012333,4000315568,0305486916,4001045402,0303746485,0302158498,2500578360,0104359717,0400589358,4200283916,0108310800-002,4000756548,0314524290,4000310665,0300792451-005,4001058024,0104345961-007,3701713942-001,4000392869,4000312951,4000479220-009,0400594679,4000615508,3400360309,4001091670,4000435664,0309576215-003,4001045466,4000973013,4000482858,4300338326,4001173884,0303217354,4000309437,3600488793,4000467137,0314647863,3701408628,4200456848-008,0401878112,4000102231,4000479220-015,0311638525-009,4001032918,0302427006,4000292261,0302030219,0301881305,0401236732,4001071089,4000325527,4000895132,4000325541,4001101456,4000312165,4000495078,0400101394-005,0303549039,4000329578,0315477614,4000310263,0401274745,0302389350,4300469713,4000397218,4000324851,0401737425,4001118611,0307672788,4000797738,0400101556-019,0401808330,4000292222,4000472680,4000324932,0313055310,4001022194,4200456848-009,0601042639,0310333351,4001010015,4001063320,4000309275,4000285232,4000464760,0301339815-001,3801104101,0102065366,0301603548,4200456848-005,0401848206,4001126482,0301691689,0104547936,4000611990,0401820472-001,4001005738,0314397500,0301103908-029,4000370209,4201601110-001,0302365984,0304145409,4300297951,0300761767,4300756884,0311263996,4300708489,3700522790,0310524109,0100233583,4300804979,6100633399,4300299356,3101046581,4300367983,4300807472,0300401524,0311544027,0315507805,0305764708,4300776746,4300369451,0305497259,0300521758,3700861105-009,4300407918,0314170147,0100105052-009,3500413427,3603280627,4300481929,0303738780,4300367983-012,0301241545-054,3700492680,0304248683,4300346609,0301445281,0401695863,0301338681,3700996141,0315062426,0102766770,4000395355-002,0312753104,4300742708,4201828224,0305132089,3700370643,0314256394,0304207782,0314587540,1201459797,1401979345,4300368426,0304021964,4300360963,4300284159,0108252316,0102562840,0303216590,0300465937-024,0313654917,4300699298,0308909503,0102314245,4300317823-001,0303062904,0301460191,4400951889,0312024359,4100258994,4100726628,0301339533,0304335600-003,0312231570,0314883532,4001157191,2300235006-002,0301418383-003,0300767984,0314772007,0107467527,0312036918,2500257222-001,1700197787-108,0303286485,0300378152,0313365915,0100105052-025,4100289544,4100289417,6100300664,0310084553,0101856703,4100269072,3700150020,4100804668,4100480974,4101496832,Khối DN Ngoài quốc doanh,0106318804,4100259236,4101439432,0302035520,0106383144-003,0310295378,0301465337,0313013014-001,4300126850,0400562148,0301867702,3602345511-006,3700314864,4100888925,0305202145,4100931793-002,3700530696,0301992414,0101478321-002,4101408667,0302177966-009,2200269805,0315731772,3900395370-001,0305081349,4101412039,4101441110,4100783136,4100506132,4100538381,4100289488,0301457551,0102065366-001,0313078188,0310118308,0106181807-001,0315018466,4300361011,0400410498-003,0312583653,0302677486,0310781522,4300726431,0100106296,0101466566,4300345073,6300048638-007,0303408038,0301453003,4300474417,4300716715,0313825778,0305161788,4300504037,0307992153,0315681232,0310517140,0312529085,0101602138-003,3600635582,4300554091,3600223003,1101712862,3500696503,4300573464,0305232284,4300776400,0314123940,4300227023,0302188894,4300795925,3702244612,0309382146,4300711273,4300475770,3500761336,3500881545,0302963695,4300500191,4300223903,4300339143,4300740940,0401654063,4300651391,4300338693,0310151834,0106339402,3700861105-007,3700831252,0313753033,4300754799,0315429794,0400485408,4001142815,0314792437,0309234074,0312418716,0303591707,0313650133,0314388376,0303709194,0400100457,0315200041,4300326176,0309133615,4300472120,4300322213,0100230800,3702280120,0311760451,4300288234,0304969974,0401680793,0303614739,4300841032,0300744507,4300283525,0310883115,0302029252-001,3500365043,4300787635,3600252847-026,3601010551,4300351623,4300474230,3700330778,3700875796,0303834244,4300321918,4300472018-001,3600265469,4300474079,0400495597,1100798955,0302008774,0300828098,3501755776-001,4300274432,3502312375,5900313043,4300482866,4300338326-003,4300350468,4300814744,3701760678,4300753548,0303077611,4300769474,4300235507,0300398889-010,0309802376,4300383657,4300367983-005,4300766032,4300775051,0300602679,3600708431,0301482847,3200598463,3200547282,3200222647,3200102050,3200094610,0104618111,3200243527,3200092589,0304741634-005,3600248720,0100105052-010,0400100697,3100454154,0312332360,3200493982,3200409966,0107426087,3200386395,0400533475,3200614228,3701674556,3200098848,3200569423,3200613168,3200263192,3200269109,0309892034,0108725989-004,4601124536,3700820571-001,0300813662,3603227775,3100262452,0304075688,3100494196,2901438522,0313450007,0301451616,3700148737-005,0100101308-021,3702514474,0300100037-021,3600259810,4201676638,3100448087,3300100628-003,0106531071,0305880944,0900234674,3100420677,3500554530,0305060028,3101000675,3602387173,1000215462,0301986393,0314189596,3701442837,3100981295,3500593145,5600128057-036,3100898551,0107386444-001,3600465041,3700148737,3700713763,3100317447,0310959597,3300382362,3600606126,1100439762-013,4201693087,3200276057-006,3200369819,0400456968,0308022768,3600994849,3200276057,0300786779,3200561960,0300390921,0301218306,3200176581,3700861497,0306927088,0301448719,3600224423-037,3200228141,0301120371-024,3700619760,0108166466,0311989386,3200410834,0302521464-001,3700447381,1000838192,3200380837,0312500022,3300849167,3200276057-002,3801111042,0309576215,4201601110,3700422115,3200595286,3702255540,3200098100,3200598079,3200574409,2900740071,3200568927,0301603587,0400815624,0106715230,3200615510,3700568594,3200598223,3200598086,3200198514-004,3200650593,3200591267,3200041739,0300742228,3200610590,0301120371,3200011389,3600253061,3601051082,0304905709,3600552223,4001005054,0101303402-002,0300791225,3200543792,3200393057-003,3200097876,3600517557,3100436483,0300731233,0401184153,3200098460,1101764652,3200459357,3200282036,0400422373-008,0304436260,3700681695,3301468559,3300269409,0105402531-026,3301559929,3301586545,3300363930,3300542464,3300383045,3301285386,3300306717,3600266046,3300303628,3300301109,3301230806,6001271719,0310057334,3301151537,3300301412,0313055543,0500463609,3300985515,1701900730-003,3300100628,3300368833,3701642642,3300309651,0101976905,0104162894,0305402257,3600359364,3301590245,3300484290,0312583445,3301569028,3301567158,0300470246,3700649860,2700236999-002,3701154518,1402022929,3700711903,3301194153,3301565672,3300309637,3300851945,3603216075,3800720570,3300306594,3300101406,3300101484,0304990133,0302082954,3300882774,3700392245,3301624575,3301494894,3300400614,3300876146,3300269550,0102744865,3602863520,3301220678-002,3300326689,0313743966-002,3300306347,3300303586,0400730931,0314505650,3700590303,0304308445,1101892372,0306057363,0303191804,3301546782,3100463582,0101048047,3100366701,3500690808,3100193417,3100196030,0100106264-059,4201538388,3100447848,0303640880-003,3301562015,3100301140,3100261307,3100474094,3600852146,0309788756,3101065665,3100617176,3600965005,0301878655,3100978750,0800750227,0800304871,1101912597,3600834796,0401581746,3100994745,3300371699,3100279865,3100459233,0311764262,3100354054,3001896786,0100108624-002,0400101394-002,0309103635,3300306548,3600659583,0309471068,0302652026,0312120895,0401775004,3300101491,3300854978,1701900730,0400585547,3700667940,0301469525,3300303755,3301585083,2100274872,3300471069,3300303561,3600224423-082,4000443802,0106883443-001,0400101394-026,0314829736,0400259198,0401282418,0401292310,0401237214,0400647190,0401410074,0401280770,0401362261,0401244719,0307935853,0401827012,0401377074,0401669503,0312629241,0400101556,0401237197,4000456745,0400542303,3300382362-001,0400100143,0400513165,0401823480,4201695253,0400259247,1800805372,0303647244,0400563141,0400259550,0401846209,0313175103,0401562126,0400100432,0305405811,0400259254,0400709400,2300953399-002,0201723640,0401238521,0400476499,0401835912,0401949412,0400561176,0302249586-004,0312340315-002,0108203728,0401237239,0401785027,0401291123,0401755061,0400511094,0401378832,0400782658,0105291878,0401554213,0101601092-002,0301481931-005,0400600989,0400259536,0400511224-002,0313617136-011,0400904948,0400260027,0107286418-001,0401555520,0400260122,0400228640,0305732706,0401288716,0400476428,0401571970-002,0400259261,0400437997,0101275730-002,0309455796,0400582680,0401965580,0400689137,0401295375,0401524378,0401864159-001,0400520469,4000662730,1000214733,4000326721,4000928324,4000439281,0100107839,4000325044,4000938724,4000309282,4000294501,4000311563,4000326714,4000309194,4000331827,4000682060,4001035274,4001041038,4000389344,4001097432,3603478289,4000454353,0301387752,0313041011,0300737411,4000331506,0310642769,0312441472,0301445891,2802213077,4000308585,0305341389,4000362102,4000393527,0311908926,4000499795,4000412191,0314749583,4000855718,0311818623,4000100019,5500154060,2802724949,0401819685,0400410498,0400101235,0401798280,0400486539,0401237246,0400560888,0401388693,0302317892-002,0314851516-001,0401704010,0400517603,0314002713,0400259180,0400259494,0400413611,0105897877,0102109239,0304862886,1500235604,4000407339,0300767575,0400798129,0401226413,1300596473,0302887211,5800577571,0101547712,0400456904,0400259416,0314549390,0900198095,0401679170,0401900216,0301934733,0308791322,0401358956,0100276146-001,0400534447-001,0401494564,0401542592,0301171827,0401685336,4100258747,0303832198,0400429410,0400100591,0107881907,0200344752,0100988425,0400604084,0400259222,0400259543,0400101066,0400101683,0104264818-003,0300465937-005,0400482559,0100365621-008,3602958772-001,3600224423-051,0313096162,0400416066,3301621775,0108121031,0401819526,3700861105-002,3200628044,3800239811,0301836687,4200764190,0401698656,0301454896,3300371106,0401872505,0201108331,4601141771,0302567652-070,4000404708,0400560662,0312691465,4200433424,0304995318,0400259215,0400377258,0401237207,0400465271,0105406938,0401632510,0400259208,0401633602,2500217526-001,0401967563,0400495558,0401856849,0401813122,0401437608,0401389640,0401462097,4000100114,0401290578,0401144418,0400478898,2300239586-003,0400484316,0400127402,0400545826,4000933596,0401908913,0302314179-003,0400549066,0401304076,0401788797,0400100104,0303560988-001,0305483016,0400726156,0400512309,0400259399,0401457097,0303284985,0401839755,0400510372,0400487356,0400101531,0400260274,0401384811,0300450673,0400447748,0400267431,0309927819,0400511915,0106383049,0303476359-002,0304958281-002,0401760015,0303582244,0401943040,0400128861,0101567589-013,0400259462,0401774829,0309666860,0400519209,0301458996,3700234979,4001022081,4300824340,4400415302,0401822656,0305596612,4000462354,0302852794,0312610240-001,4000100160-016,0301479499-006,0101269511,0401487969,0302901882,3702575283,0300789402,5900190507,5900180989-002,0900289049,1201503076,0302947661,0311449990,0301444224-001,0801092034,5900438613-037,4300321643-009,5900665581,4000368048,0300831132,5900123456-789,5901013606,3603574088,4100666915,0303543502,0315426514,0315399451,5900665743,5900235490,5900631399,0310819744,0304227309,5900625959,5900741070,3602943800,5900617806,0301562115,3700667933-005,0309576215-001,3801130214,0300791225-001,0302668347-006,0310740741,5901047186,0311241512-001,5900942838,5900946889,1100589373-001,3700547869,2802175488,0400442764,5900623687,5900438613-004,0302724344,5900227348,3702573381,0401283637,0312167082,3702269430,4300205943-005,5900277437,2700225450,0500442630,5900505940,5900189678,0304494897,4600305723,3600526590,3600711988,3600961667-009,0101778163-001,5900277564,3603302207,0300447173,5900988222,0314354419,0314896764,5900825299,4200668384,5900182111,5901048479,3700441037,0310166735,3700255880,3800746748,3300483843,5900187977-003,0900277244,0309638599,0311609355,6000514616,2300330323,0313617136-001,5900386852,4200459849,4201215362,4200388813,4200678618,4201159132,4200456816,1101717388,4201043138,4200664051,4200722962,4200283024,3600999244,4201717281,4200237973,4200285494,4201620427,0301069809,0304741634-011,3700424232,1100641143,4201110169,4200541691,0302249586-011,4201631958,4200643527,4201622551,0400102045,4201583817,3700381324,4200674525,4201662392,4201721827,0301390924-001,0103085460-020,4200395835,4201676564,1400437290,4001023215,0312573831,4200668391,0102095610-002,4200714979,4200567428,0303798719,4200778193,4200339340,0302229420,4201772130,0311974661,0309576215-006,4200726413-006,4200580002,0311183243,4201129240,3100261120-010,4201221863,4200282729,4200388267,4201251579,4200282535,4200599194,4200451857,0313879004,4200598497,0302744693,0312126960,4200281563,4200281531,4200281316,3600515013,0302663035,5900751992,5900368395,5900991881,5900242392,5901090826,5901090897,5900645962,0400101394-010,5900269210,5900276828,5900189325-014,0314078744,4300205943-013,5900380628,5900989723,5900622789-003,0104349589,5900187776,3601608729,4201601110-004,0304311430,3801104574,1702099094,5900547073,4300757824,3603290142,4300205943-003,0313699019,5900421955,5900519407,5900492106,5900182337,0302632358,0302269938,5900645948,0106822419-002,0302398330,0301753448-001,0303996855,5900617940-003,5901008469,0305672831,5900371380,5900784099,0103718963,3500791394,0303321972,0102374420,5900277331,5900315308,5900321566,0302668322,0100111994-001,0313447727,0302860354,3702745633,6000645827,6000176999,6001390949,0100686174-197,0101057919,6000457541,6000645859,3700545614,3700673599,3700697984,0101046699-004,0309130075,6000952391,3600674052,0401852185,6000918520,6000773427,0303163388,6000933409,4151313213,0309387169,0310969877,0313095786,6001396122,3700339668,3800324432,6000499598,0313487705,6000919676,0105760431,6000647609,6000400432,3702346974,0309733309,3702369918,6000661931,6000180748,6000707819,6000575305,3600574185,0304935862-002,6000214404,0300782774,3502243682,6000515313,0303140574,0102736889,0304279057,6000921805,6400121049,6001091762,0100101509-024,6400137056,6000377261,0305308215,0300998075,6001542616,0300566149,0302798498,3700861105-001,6001167563,0301830195,3600462957,0315267776,0104128565-001,6001415329,0102721191-001,0314696236,0304929410,0310362754,0304258466,0305320773,0304412598,6000953211,6000639950,6000647704,6001613056,0103172804,3702562774,0304381815-001,0106011932-004,0312944437,3600659230,3800610994,6000181653,6000515401,0313642887,0100107638-003,0107074702,0312564844,5900712753,0400228344,0309602070,3603564058,0300446973-020,0302911457,3600717108,3702404351,3600655980,6000923295,1101760520,6001174761,0312059023,0303448344,3700883420,6100470930,3602226088,0305146003,6100108978,0100112042-001,2800766206,0107561311,6100317731,0101003134-002,6100109361,6100244441,6101164485,1101701035,6100390555,0312434267,6100282567,6100411526,6100103828,6100637957,6100300738,1701597562,0310139770,6101096066,6101095432,6100239434,0302320849,3801112159,6100143877,3600728075,6100417119,6100637932,6100146571,6100637876,0302629806,0301103908-043,6000467282,6000847799,6000515426,3702637941,6001135258,6400209286,0302241107,6000462453,3702105947,0309306709,0300849034,0310404027,6000454283,6000911109,6001379416,6000848023,6400003655-001,6000932067,0313079079,3502295218,0302028548,6000466835,6000648200,6000459940,0304421306-002,6400125029,0400101394-023,6000721563,6000933342,0301411331,6000706357,6001363007,6000669747,6000457333,0302622448,6000496131,6000911571,0106019184-001,6000595541,1800379621-001,6400019711,6000919404,6000920142,6000928021,0302797984,6000647052,6001424362,6000923908,3600619478,0311073787,4201531368,0301903580,4100269097,5900189269-001,4200789438,4200239466,4400535046,4400648226,4401009342,4400398336,4400599554,4400415373,0302035520-019,4200686538,5800825263,4200663379,0304785751,4201806580,0102641429-042,0302309845-046,4100146440,4100146338,3702468066,4101308912,3600677381,0200662314-001,4100903884,0309987825,1101843914,0313277810,4200646246,4100266610,3600777989,3300854978-001,0103069959,3600361211,4400471219,4400232820,4400374462,4400218294,0401497325,3700405367,4400232813,4201658540,4400232732,4400232838,1700197787-105,4400218209,4400219146,4400725304,4400725294,4400218287,4200703367,0312610240,4400358196,4400218103,0314278944,4400739554,0303062196,0301394608,0304023915,0300797153,1100103071-001,4400647744,4400232806,0314021593,0401682991,0310619248,4401015402,0302560110,4400384340,4400232796,4400232718,0311245228,4400203146,4400203139,4400209162,0314297665,3701397990,4400209067,4400413457,4400455880,4400347250,4400232700,4400254782,0301774180,0312230601,4400727781,4400476111,1201533070,4400114094,3600354528,0302718340,4400685563,3700233125,4400438860,4401026066,4400248147,4400222678,4400970666,4400384598,4401029564,1201075381,4400115122,0302913045,4400925448,4401055099,4400348529,4401061818,0306056384,0308215287,0303655728,0300737556,6100205467,0311929281,0315351932,0311878460,0309062428,3600239719,4100290130,4100931793-003,4100568731,0107885570,3300511931,4100936128,4100929868,0100686174-191,5200898982,0305379294,0302660700,3701634440,0304658721,0313306028,0313053401,1100562808,4101219067,1101823594,0309487886,0314749488,3700778249-002,0100520429-010,2802383456-001,0100108624-004,0304324655-006,1100759667,1101851915,0304295429,4100936142,0105231195,0303243883,4101500694,0314438098,0108725989-003,6001493729,3603121666,0310634327,0305093249,0313258060,4100385343,0305320861,3701173221,3600241531,4101444104,4100805365,0303742875,4101433776,4100669747,0301442202,4300263529,4101023177,4100812482,0312289651,4300338326-002,4201550314-004,4101402506,3700538871,0315265169,1101789495,4100305411,4100932719,3702303233,0309121578,4101356602,3702397739,0312629266,0301584581,6000346337-014,0304690411,0300808687,4100289537,3701091716-009,0304244791,3900913262,3600224423-105,3700880027,0302309796,3602332872,0310776071,0310553942,3700650305,4100537483,3700723994,0302114902,0313258303,0312197023,0100105052-008,0312810313,0314476689,4100258761,0300875411,4200653927-004,4100299479,3700332648,0304798359,4100668461,3700762111,2900325526,4100429992,3700795332,1101780735,0303198366,0304621513,4200963414,4200284243,4200866837,0308023320,0304240557-005,4200734647,4200663530,4201713086,4200752766,0310710930,0302286281,4200272456,4200700486,4201560993,4200639640,4200283440,4201785806,4200285649,4200324295,4200678914,3600666679,4201655123,4201784376,4200700461,4201687118,4200890879,0302776800,4201247170,3602257664,3600252847-045,0306011520,4200238568,0948781879,0305244593,3700333095,4201005358,4200241296,4200280369,4200281330,4201167165,0301812862,4200797502,4201659583,5900337044,1701971178,0304995318-005,0312803588,4200599236,4200572153,4200769720,4201441114,4201564282,0305901922,1701900730-005,4200907071,4201200905,4200240408,4200339333,0312618916-001,4200240380,4200371023,4200451896,4200288287,4201663910,4200282662,4201792352,4201624541,0107500414,0300792204,4200954498,3600729495,4201713350,0302494203,6400364605,0309470956,0312946995,3600477128,4201642981,3700426744,5800075243,4200723980,0312048663,4201718704,4201309405,4200385474,4200282743,4200282775,4201549686,4201112127,4201194948,4201764563,3601500108,4200734936,4200596933,3500612775,4200281108,4200770349,0311638525-013,0309532909-005,0108393204,4201580414,3600257517,4201602749,0105011993,4200371048-001,4200464775,4200619637,4201624478,0401794769,0302570687,0305715556,0301446006-015,3603525323,4201835398,0401698656-002,3700820571,0312241579-016,4200961294,4200338918,3702015683,0312872567,4200441577,0101883591-001,0312602391,3500781205,4201675916,4200525107,4200764923,4200497273,0101595681-001,3300854978-003,3600481734,Z000000058,4200750286,4201553964,4201557126,4201813644,4201155508,4001008760,0302309845-036,4200716736,4200339319,4201291959,4200638781,4200237638,4201309324,3603047437,0100112194-004,4400727083,0302093988,0303515978,0102362584,0310927725,3700789850,3702352255,4400998245,4400218216,0301323999,1100878449,3700812718,4400366158,4200562765,4200471476,0304938912,0302641539,0305691552,4400218086,0304252739,4401013525,4401025792,0310734321,0300425814,3603425424,3603235102,0302774539,4100652888,4201624090,3603072419,4401021156,4400979700,0315327270,5900800199,3702218098,0315393386,3600253022,4200639256,4200285254,0311755130,0100100216,0302309845-013,4400358245,0100777512-001,0304160534,0303490096,3600224423-015,0301442379,0106733254,4201604785,0300872315,4200769600,0105295960,4201713819,0309747559,4200866890,4201777900,0100774631-009,4200444916,3600244765,4201572283,3000988064,0304898593,4200663474,4201666069,3602482363,0104050125-001,4200772152,4200283472,0309829522,0105696842,3603119522,4201391142,4201783598,0311506751-002,0312087045,4200550110,3600233178-012,4400297232,4201674207,3603303539,4201087079,4201175656,4201540235,4200677371,4200571456,4200636752,0305486031,4200750705,4200677646,4201131585,4201211671,4200669275,3602379888,4201662931,3700873830,4201734216,3600492775,4200733964,0301692749,4201713544,4201094460,0312241579,0106011932-028,4200235197,4201629701,4200608096,4200482083,4201774339,4200859766,0308243703,4201581094,2500601034,0101906584,0106006795,2500263321,0305442605,0101581079,0100111994,5600203297,2500154643,2500214204,0201658007-001,2500563540,2500214412,2600965067,2500225012,6100388852,2500587887,0107262600,0900680580,2500360251,2500239696,2500511775,2300886350-001,2500280976,0103993173,2500150543,0100100417-027,0107501312,2500235074,2500230005,2500150617,2500626279,2500425276,2500509568,2500125378,0103003355,2500368074,0101905365,2500369896,2500415493,3700748131,2500598416,2500282740,2500218495,0102001517-010,0101640750,0108050101,0105772363,0105151119,0201616737,0106933743-008,2600981855,2600974946,2600704636,2600364612,0101167728,0100113945,2300776301,2600428263,3600478731,5000832871,0108022094,2500518763,2600327057,5200807022,0304767745,2300850918-001,2600701089,0101277664,2600864823,2600892644,2600896511,2600714401,2300365742,0801203925,0801032719,0800000295,0800720991,0800729426,0800288210,0100106169,0101527385-031,0101600518,0800592813,6000926264,0108076653,2500214412-001,2500598198,0800282233,3700772102,2500547877,0500591985,0800291164,0314506728,0800304173,0800722621,0800990437,0302953400,4700189911,0800303797,0313963834,0102302909-001,0800345772,0801242498,0800345691,0800720261,0800246845,2300528676,0800454443,0900273306,0800006089,0801034152,0102122656,0801149298,0800340407,2500558484,2500517382,2500518770,0106933856,2500225943,2500562000,0105755914,2500234708,2500506479,0101308175,0101869205,2500243660,0105225480,2500236913-002,2500520875,0100776445,0101867991-001,2500552524,0800274232,2500226778,2500595599,2500600471,2300325764,2500554602,2500517657,2500432530,0102637327,2500625483,2300519248,2600923691,2600380854,2600908943,2600108471,0102572831,2600941683,2600958687,2300373253,2600200251,0100105052-001,2600683168,3700303206-001,2600422159,2600674974,3600504910-001,2600270749,2300674035,2300568277,2600495894,2600331166,2600747703,1101792498,0105777650,2600978531,0313617136-006,0103085460,0106852540,0102721191,2600747414,2600251785,0107890309,2600687606,3701760653,2600209127,0108210517-001,1101801061,2600493618,2600849455,0900935359,2600959151,2600985056,2600958366,2600471043,2600453301,2600467907,2600442349,2600633456,0100109480-009,0100100417-004,2600564788,2600882117,2600213532,2600327064,2600633505,2600247210,2600226281,0900243189,0100112620-019,0103973378,2600651166,2600829723,0102312872,2600327667,2600762388,2600297405,2600413940,0104989010,2500171399,6300048638,2600360625,2600106523,2500512433,2600783532,2600109588,2600307798,2600995093,2600882212,2601028772,0107822612,3600234703,0104630609,2600919871,2500371461,0108420391,2600297395,0304158895,0310370480,0104068531,4200421073,0304790141,2300323125,0104923411,2600978813,0102241163,0101225306,2600980266,0101125340,0105196582,2500217526,0700259047,2600822245,0108246062,0600310123,2600878329,4601118691,2600946829,2600109073,2600298303,2600694515,0102421913,0313552866,5600128057-035,2600117081,2600606325,2600460926,5300299830,0100233488,0108109034,2600675047,3702591510,0310446027,2600966261,2600955421,2500259999-001,2600919102,2300852009,0106250673,0106379589,2600983570,0104943739,2600486988,2600941732,0101256216,0106561781,2600369177,0108073451,4601001735,0104255972,1000588270,0101869981,1000334004,0313733213,0102196048,0102396819,0104357607,4400135552,4800176200,1000383611,0107378387,0600368998,1000457687,0100106440,0101044677-001,0300398889,0300588569-005,1000494713,1000889609,0104960269,1000283938,0310103005,1000434263,2300846319,0201307104,0309425488,1001069782,2300766127,0101491604,1000342608,3502244164,0801153061,0101974961,0200269921,1000352109,0107751344,5700639584,1001152550,1000360205-001,3702506346,0100686174,0104287702,0100100008-050,3701669771,0101745841,0303039006,0101452549-001,0100520242-002,0102058986,0900277558,0900270351,0901006751,1000587943,1000263498,3600240707,1000574895,0900851331,0900289842,0900189171,0900682644,0900706140,0901055773,0900924519,0201044712,0900298050,1000215254,0105926285-018,0100112814,2300933508,5701589350,5700509426,0307348245,5100270760,5700100256-065,0313617136-005,0601044474,0303208818,1000214652,0201177448,1000218015,0100906133,1000331677,0100110768-028,1000228327,0301482452,2500229828,0106447743,1000584614,0107153256,0107835509,1001063886,0101621998,0106439277,0600655576,0600020255-073,0600147798,0600759399,0103202777,0600008000,Z000000061,0600650521,0303443233,0600258628,0601137640,0700298624,0600724903,0601121915,3600359036,0600016097,0600327800,0601097067,0200246219,0900643490,0101382193-063,0201297826,0100100417-003,5600101721,0302676563,0104517000,3700371090,0108379400,0600466593,0600014269,0100787888-010,0600655801,0101824243-001,0107146435,0900302927,0200438947-001,0200130239,1000413094,0107681016,2300950197,0302314179-004,0107916652,0107532543,5400480906,0102720141,1000339147,1000230421,1001103546,0104128565,1001012345,1000139275,0313931159,1000419201,4200288054-001,0900640605,3600265571,2300323252,1001042685,0200600678-001,5000208550,0201275614,0106015983,0105045167,0309454665,0303551493,1001098423,1001095969,2300980748,0107098654,0100105278,2500584780-001,1000361801,1000215656,1000589884,0302345459,0104692429,0201450471,0100774247-002,0800592789,0800971949,0102957126,0800381467,0601115083,0800289052,0800447164,0800288411,0102851320,0800285925,0900183772,0800822626,0107946664,0800380985,0800743685,0800891919,3700579772,0800450706,3602578065,0801204911,0800831564,0800857611,0800591337,0801094592,0800916338,0800511204,0101502599,0801091087,0201774638,0801250040,0100108039-020,2600496263,0801002552,0800341376,0100520429,0801169914,0102186723,0800142483,0801040692,0201816045,5701276799,0700220547,2300318693,0106019089,0105445038-001,5701502487,Z000000063,0801137038,0801079643,0106545557-001,5700100256-031,0801040766,0801031634,0800288725,0800479896,0201050635,0101658003,0801139613,0801183203,0801108319,0105820810,0107408553,0107804878,0108167318,0900889039,0900264799,0900690187,0900661933,0100283873,0106300370,2700638514-001,0100104563,0301450108-010,0900461606,0105836472,0800375978,0900462494,0101225306-002,0900293214,0900220953,0900272334,0101330967,0100106786,0101588331,0201630354,0900918071,0900291369,0100102654,0900278632,0106032227,0900307308,0106215076,0900275582,0936727000,0900307403,0900251870,0900269243,0900411757,0900698443,0105926285,0900214170,0900301151,0700639426,0900617268,5600128057,0313511242-003,0900307629,0900307594,0800723671,0800508970,0800296451,0800274137,0102746534,0800356453,0900922494,0201822112,0800245591,5700101877,0201824857,0801003179,0800822908,0101243150,0200472257,0900108038,0100102735,0900303039,0900918346,0102317662,2300532305,0900308284,0900461620-004,0101386007,0101261664,0104948198,0901023073,0900915063,0900233014,0103755637,0900287482,0305951056,5700101637,2400351817,2400111910-003,2300297891,2300786243,2400281528,2400808927,2300949402,2400534948,2400806020,2400735683,2400373024,2400754326,4601523435,2400760023,2400746572,2400479736,2400702487,2400742916,2400825432,2400508465-001,0101125340-002,3701990336,2400332765,0314578955,2300577458,2400454989-077,2400816526,2400820498,2300931980,2400850527,0200124891,2400807899,0108653300,2400515053,0900297829,2400680843,2400838093,2400748001,2300279010,2400739046,2400739790,2400843907,2400351729,2400825802,2300710300,2400843329,2300864773,2400542804,0107488044-001,0101125340-001,0106244091,2300774505,0108357502,2300956022,2400648014,2400344552,2400803703,0108210517,2500272478,2400827849,0105865434,0105186432,2500224668-001,2400648303,0106850092,0102910110-008,2300323083,0107317923,2300700849,2300105790,2300143274,2300817533,2300318069,0313149625,2300362660,2300721415,2300882483,2300323220,2300931934,2300101644,0106760755-001,2300297080,0107656891,2300882317,2300108953,2300365647,0100960807-001,2300243984,2300700976,2300158087,3700667933-003,2300498608,2300277052,2300850749,2300977689,5700804196,0106498635,2300317851,2300109153,2300889619,2300849863,2300149501,2300365615,2300102398,0800383792,0309733450,2400494371,2400299860,2400468519,2400588319,2400454989-094,2400801174,2400454989-069,2300795022,2300242959,2300890678,2400393373,2300563913,2400368560-004,2400409721,2301028066,2300784165,2400857610,5700486105,2400793163,2400347320,3700579275,2400332772,2300690887,0104961939,0106156871,2400525647,2400111910,2400562448,2400611649,2400830506,2400472811-037,0104936280,2400841787,0201655616,2400728245,2400406431,2400842861,2400289171,2400516064,2400444370-058,2300287188,0106620998-001,2400284328,2400790081,2400779352,2400850100,2400126106,2300767730,2300816956,2300999812,0106641324,0304170028-001,2400300146,2300981621,2300239586,2400488642,0101810829,0106884817-002,0107737269,0315662173,2400444370-059,0107574310,0102727210,0300446973-045,2400774749,2301035881,2300275432,2400824781,2300786620,0107624441,0104264494,2400649018,2400764807,2400609696,2400277384,2400390453,2400282458,2400560803,2400814381,2400766699,0</t>
   </si>
   <si>
-    <t>{Nhân viên bán hàng trực tiếp,nan,Nhân viên,Công nhân in lụa,Nhân viên Lắp ráp,CÔNG NHÂN CƯờNG LựC,Công nhân bảo trì máy,công nhân ủi,Lái xe,Giáo viên,Chuyên viên,Giáo viên THCS chính,Kỹ sư cơ khí,Nhân viên An ninh,Công nhân chuyền Đế,Công nhân kiểm tra chất lượng(hoặc kiểm hoá, thu hoá), (may công nghiệp),Công nhân sản xuất Metal,Công nhân may tay,Công nhân đóng gói.,Công Nhân Sản Xuất Điện tử,VM+ Nhân viên bán hàng,VM+ Nhân viên Bán hàng - Vùng 2 - Đà Nẵng,Y sỹ đa khoa,Công nhân lắp ráp,CN Trải Vải,Công nhân, KTCL Chip 2,Nhân viên KTV,Phụ trắc đặc,Công nhân gấp xếp,Nhân viên pha chế,Công nhân hàng mẫu,Lái xe vận tải loại tải trọng 37,1 tấn,Công nhân hoàn thành,Xếp da,Tư vấn tài chính,Kỹ sư nấu bia,Công nhân kiểm hàng,Cán bộ địa chính,Quản lý Nhà hàng,Công nhân,cử nhân y tế công cộng,Nhân viên KCS,Nhân viên thí nghiệm,công nhân,giám định viên bậc 1/8,Dược tá,Giáo viên Trường THCS Nghĩa Thuận,Nhân viên Thủ Kho,Giáo Viên. Trường TH Số 1 Ba Dinh,Công nhân duy tu đội quản  lý xây dựng cầu đường Đức Phổ,Bảo vệ,Công nhân duy tu sửa chữa cầu đường bộ- Hạt Sơn Tịnh, H,. Sơn Tịnh- Quảng Ngãi,Bí thư Đoàn TNCSHCM,Công nhân viên,Kỹ thuật viên y trung học,Nhân viên sản xuất,Nhân viên Cơ điện,Trưởng phòng kinh doanh,Công nhân Thu tiền điện cơ quan Chi nhánh điện Quy Nhơn,Nhân viên Kinh doanh,Nhân viên buồng phòng,Công Nhân bốc xếp  thủ công,nhân viên tiếp thị,Kỹ Thuật Viên,Kinh doanh,công nhân viên,Văn thư,Công nhân xây dựng,Công nhân lái, vận hành các loại xe chuyên dùng chở rác, phân từ 7,5 tấn đến dưới 16,5 tấn,Công nhân sơn Cabin,Công Nhân Gấp Áo Công Nghiệp,Nhân viên kế toán,công nhân sản xuất linh kiện motor,Công nhân phụ may,Chuyên viên kế toán,Thợ phụ,Công nhân gọt vẽ,Nhân viên sơ chế, Nhà ăn Nhân viên,Nhân viên phục vụ,Công nhân may,Công nhân tổ Ráp giày thành phẩm,Công Nhân Tổ Thành Phẩm,Kỹ thuật,Thợ sơn,Nhân viên bảo vệ,Công nhân trại,Giáo viên trung học,Công nhân đóng gói (may công nghiệp),Công nhân vận hành máy may công nghiệp,Công nhân lăp ráp,May công nghiệp,Nhân viên Bảo vệ,Giám đốc,kế toán,thủ kho,Thiết Kế,nhân viên,Nhân viên thông tin y khoa,Nhân viên kho thành phẩm,Nhân viên kiểm tra chất lượng sản phẩm,Công nhân cắt vi tính,Thợ Cơ khí,Nhân viên vận hành,NV Thị trường,Công nhân may công nghiệp,Nhân viên bán hàng và chăm sóc khách hàng,Nhân Viên Thu Hồi Nợ Tại Nhà,nhân viên xuất nhập khẩu,Giám sát thi công,CN Bốc Xếp,Công Nhân Gia Công,nhân viên kinh doanh,Công nhân May công nghiệp,Nhân viên thu ngân,Nhân viên tiếp thị,Nhân viên thị trường,29496-VBL, Nhân viên SP,Phó Giám đốc,Nhân viên giới thiệu sản phẩm,Kỹ sư xây dựng,Công nhân sản xuất,Công nhân tổ May mũ giày,PGĐ,Bán hàng,Công nhân VHTB may CN,Kỹ thuật viên,Nhân viên tổ cắt,Công nhân xưởng may,CN - TP.HCM-Vùng 1,Công nhân in,Công nhân Kiểm hàng may,Kỹ thuật hiện trường,Giáo Viên,Công nhân phòng máy,may,Công nhân vận hành máy giặt, nhuộm liên hợp,Công nhân vận hành máy may (May công nghiệp),Nhân viên dọn phòng,Nhân viên lái xe taxi,Chuyên viên Khách hàng cá nhân,Công nhân, Sản xuất,Chuyên viên I Quan hệ khách hàng,Nhân viên kiểm nghiệm,Khai thác bưu gửi,Nhân viên bán hàng,NV Kinh Doanh,Công nhân là sản phẩm may công nghiệp, bậc 1/6 (A,01),Nhân viên tiếp thị bia, phòng kinh doanh Bia,Tư Vấn Viên - Chi nhánh Đà Nẵng,Nhân viên kiểm hàng,Công nhân đúc,nhân viên tổng đài,CN May,Nhân viên Kho kiêm Hỗ trợ kỹ thuật,Công nhân vận hành máy may,CNKT, Phòng dự án,Bảo mẫu (Mầm non Minh Đức Tháp Mười),Công nhân chiết nạp,bảo vệ,Nhân viên Triển khai,Quay ghi đường sắt tại ga Mộ Đức,Cán bộ kỹ thuật,Chuyên viên kiểm tra chất lượng cuộc gọi,CN Điện,Tài xế,NV,Bảo vệ làm theo chế độ 3 ca,vận hành máy may,Nhân viên kinh doanh,nhân viên bán hàng,NHÂN VIÊN,Giao nhận, Hậu cần,công nhân IN LụA,Nhân viên Lái xe,Nhân viên Hành lý,Nhân Viên kỹ thuật,I,Nhân viên Quản lÝ Chất lượng,lái xe 3,5 tấn,Nhân viên kỹ thuật,điều phối công trường,Nhân viên Tổng đài,Nhân viên - Bình Định,Công nhan may,Thủ kho,Nhân viên đại diện bán hàng,Trưởng nhóm Bán hàng,Nhân viên thợ hàn,lái xe tải &lt; 7.5 tấn,Nhân viên Môi giới,CN Sản Xuất Linh Kiện Điện Tử,Công nhân Vận hành cầu trục,Công nhân ủi (may công nghiệp),Lái xe vận chuyển bê tông thương phẩm 15 tấn,Chuyên viên Công nghệ thông tin,KTV Cơ khí,cn đóng thùng,Mia,Lao động phổ thông,CN-Đóng gói,Công nhân Kiểm phẩm,Nhân Viên Sản Xuất,NHÂN VIÊN TẠP VỤ,NV. Văn phòng,công nhân may công nghiệp,Giáo viên trường THCS Nghĩa Hà - Tư Nghĩa,Nhân viên kinh doanh vàng và thẻ,Kế toán viên,Nhân viên dự án,Trưởng nhóm Kinh doanh,Công nhân vận hành thiết bị may công nghiệp, Bậc 1/4 (A.01),Công nhân vận hành thiết bị may công nghiệp,bậc 1/6,Dược sĩ  hạng IV,  Khoa Dược,Cán bộ nhân viên,nhân viên kỹ thuật,Nhân viên kỹ thuật phun thuốc,Kỹ sư quản lý chất lượng,Thợ lắp,Công nhân tổ Chuẩn bị,nhân viên bán vé,NVSX,công nhân thợ may,Công nhân Công nghệ,NV PHụ KHO,CN Vận Hành Máy Đánh Ống,Công Nhân thành hình,Công Nhân Bảo Toàn, Sửa Chữa Máy May,Giáo viên THCS,chuyên viên,Nhân viên ngành hàng,Quay ghi đường sắt ở các ga,Công nhân in da, bậc 1/6 N2A2.2,Cao đẳng tin học,Nhân viên bảo vệ làm theo chế độ 03 ca, làm việc tại Đà Nẵng,Điều dưỡng đa khoa,Kế toán,Nhân viên chạy máy định hình,Công Nhân SX Điện tử,Nhân viên caddy,Công nhân sản xuất PPC,Trưởng bộ phận phát triển cơ sở hạ tầng,CN. Chế biến thủy sản,Công nhân vận hành thiết bị máy,Nhân viên Quản lý bãi đậu xe và sân đường,Công Nhân,Công nhân Injection,Cán bộ kinh doanh,Nhân viên Đại diện thương mại,Nhân Viên Trại Gà,Nhân Viên Bán Hàng - Quảng Bình - Huyện Tuyên Hoá - Kv4,công nhân ủi hơi,Giáo  viên mầm non,Công nhân sản xuất điện tử,Công nhân kỹ thuật,CNV,Công nhân nung lốp,Công nhân dán lốp,Nhân viên - V02 - Tỉnh Thừa Thiên Huế,Công nhân nuôi tôm,Công nhân sửa chữa toa xe bậc 1/7,Công Nhân Phổ Thông,Công nhân sản xuất đồ chơi,công nhân may,Kỹ Thuật Tác Nghiệp,Công nhân Sợi Cọc,Dược sỹ Trung học,Nhân Viên,Giáo viên hợp đồng,Nhân viên Lái xe Taxi 4 chỗ,Cử nhân bậc 1,Nhân viên nghiệp vụ,Nhân viên Thư viện,NVPV trên các đoàn tàu hỏa chở khách,Công nhân kho,Debug Operator,Công Nhân Sản Xuất,Công Nhân Tẩy,CÔNG NHÂN MAY,nhân viên lái xe tải 1.25 tấn,Nhân viên sợi nhân tạo,Nhân viên lập trình,Điều Dưỡng,Nhân viên bếp,Dược sỹ TC, Khoa Dược,Nhân viên Phụ xe,Nhân viên thiết kế,Công nhân là ủi, tẩy sản phẩm, đóng gói,Nhân viên Sales tour,Phết keo đế, mũ giày,Lao động phổ thông, Tân Bình, HCM vùng 1,công nhân tổ cắt, chuẩn bị, phụ cắt may, đo, đếm, trải vải, đánh số,Giám sát bộ phận buồng phòng,undefined,Phết keo đế hoặc mũ giày,Nhân Viên Giao nhận,Vận Hành Máy Rót,Nhân viên bán hàng siêu thị,Công nhân Vệ sinh máy IP,Nhân viên cấp dưỡng,Công nhân kiểm hàng công nghiệp,Nhân viên Ngành hàng,Nhân viên bộ phận Body,Công nhân Sản xuất,Điều dưỡng gây mê hồi sức,TC Hành chính văn thư, Phòng Hành chính quản trị,Nhân viên Kế toán,Công nhân Khám, chữa toa xe bậc 1/7 A1.6 N3,Công nhân phụ việc chuyền may công nghiệp,Công nhân vận hành máy Dệt kim tròn,Công nhân pha trộn mực in và sửa chữa máy may công nghiệp,Lái xe 7 chổ,Công chức tư pháp - hộ tịch,Thư viện viên hợp đồng,Dược sỹ trung học,Nhân viên Phục vụ NH Quảng Việt,Bác sĩ,Công nhân trải vải,nhân viên Kỹ thuật thử việc,NVVăn Phòng,Nhân viên lái xe,Nhân viên an ninh,Công Nhân _May máy,công nhân cơ khí sửa chữa 3/7,Nhân Viên Văn phòng,CÔNG NHÂN MAY CÔNG NGHIỆP,Hộ sinh TC,Nhân viên Quét Sàn Vùng 1,Chụp Hình,thợ điện,Cán bộ hợp đồng,Cán bộ,Operator,NV bán hàng,cán sự,Công Nhân May Công Nghiệp,Nhân viên Buồng phòng,Nhân viên Kho,Nhân viên bảo vệ, Bộ phận Bảo vệ,Nhân viên hướng dẫn khách,Công nhân May trụ 1 kim,Nhân viên Chi nhánh Đà Nẵng,công nhân phụ việc,77022Nhân viên bán hàng VBL/Vùng 2/Hai Chau 3,Nhân viên Phục vụ,Công nhân đánh số bậc 1/6,nhân viên chỉnh sửa ảnh,Công nhân là may công nghiệp, bậc 1/6,Công nhân lắp ráp điện tử,Hộ lý bậc 1/12,Nhân viên xử lý hình ảnh,Nhân viên nhà hàng,Công nhân đo đếm vải may công nghiệp, b?c 1/6,Công nhân ủi - may công nghiệp,Công nhân là sản phẩm may công nghiệp bậc 1/7,Công nhân Bộ phận Tiền lắp ráp guồng,Công nhân chế biến thực phẩm,CÔNG NHÂN MAY CÔNG NGHIệP,Công nhân sản xuất đồ dùng bằng da bậc 1/6 N2A22,nhân viên giao hàng bằng xe tải,công nhân chế biến thủy sản đông lạnh, bậc 2/6,Nhân viên nhập dữ liệu,CN MAY Tổ 1,Chủ tịch hội đồng thành viên,Nhân viên an ninh kiểm soát,Công nhân vận hành thiết bị may công nghiệp, bậc 1/6,Nhân viên Kỹ thuật sản phẩm cần,Nhân viên tạp vụ làm việc tại Đà Nẵng,Cán bộ cấp 2,Nhân viên bậc 1/12,Công nhân lắp ráp motor,Công nhân vận hành thiết bị may công nghiệp,Diễn viên nhạc cụ. diễn viên hạng  V.100414, bậc 1/9, 85%,Nhân viên hướng dẫn game,Công nhân Sơn,Tổ trưởng bán hàng,NV kỹ thuật xây dựng,Nhân viên kéo sợi,Kho,Chủ tịch Hội LHPN,Công nhân hầm lò,Nhân viên hành chính,Nhân Viên Bán Hàng,nhân viên bếp,Công nhân VH thiết bị may công nghiệp,Công nhân vận hành máy PP Channel,Nhân viên phiên dịch tiếng Hàn,cán sự bậc 3/12 đội phó,Công nhân bắt ống bê tông,Công nhân ép đế,CÔNG NHÂN,Nhân viên bán hàng - Chi nhánh Đà Nẵng,Nhân viên Kỹ thuật,Công nhân vận hành máy may công nghiệp. Bậc 1/6 N2A2.2,Nhân viên phục vụ sân gôn,Tổ trưởng Bếp Canteen,Cán sự,Nhân viên giặt là,Nhân viên Hành Lý,22568,- Nhân viên thu phí, soát vé trạm thu phí Km943+975 Công ty TNHH MTV Ceco 545 BOT thuộc Nhóm V.1 - B,Nhân viên Tư vấn Tín dụng,công nhân sản xuất 2 - kiểm tra o3,cn. kiểm tra chất lượng,Nhân viên văn phòng,Nhân viên, KTDA,Nhân Viên Thống Kê,Nhân viên Bếp,Điều dưỡng trung cấp bậc 1/12,Công nhân Phòng máy,Nhân viên giao hàng,Nhân viên LĐTL,NV Bảo vệ,Nhân viên may mẫu,Nhân viên lái xe  bằng C,Nhân viên giới thiệu sản phẩm tại điểm bán,Nhân viên bán hàng - Phòng Marketing và bán hàng,UNT,CN may-XN 3,Nhân viên Quản lý,phó trưởng phòng kế toán,CN vệ sinh chuồng heo,Giáo viên mầm non,Công nhân sửa máy,CÔNG NHÂN SẢN XUẤT,Công nhân sản xuất (gia công cơ khí),Nhân viên chế tác,nhân viên phòng kỹ thuật,cán sự 5/12,Nhân viên triẻn khai,Phó Ban Bảo vệ,Công nhân kiểm tra chất lượng ( May công nghiệp ),Đứng máy Sợi -531,Kiểm soát viên thị trường bậc 1/9 (tập sự),Công nhân chế biến thủy sản,Thư ký,công nhân  Lắp ráp,Nhân viên kế toán kho, Kế toán,Chỉ huy phó quân sự,Nhân Viên kinh Doanh,Dược sỹ trung cấp bậc 2 MN16.135, phó phòng y tế,Nhân viên chăm sóc khách hàng,Phục vụ đoàn, đội xe,Kế Toán,Nhân viên bảo hành,CN vận hành máy may,Giám sát bếp,Công nhân tổ Cắt lót đế,Giáo viên mầm non tập sự bậc 1/12,Nhân viên bán vé xe buýt,nhân viên nghiệp vụ. 1.55, bậc 1/15,Công nhân xếp,Giám sát giặt là,Nhân viên Tiền sảnh,Công nhân bộ phận Kho nhập,Điện thoại viên,Quay phim,Lập trình viên,Quản lý,Nhân viên giặt ủi,Công nhân vận hành thiết bị may Công nghiệp,Nhân viên phòng cân,Kiến Trúc Sư,Nhân viên Thu ngân,Giáo viên  TH Lê Lợi,CN trải vải (may công nghiệp),Nhân viên thu hồi nợ,GIAO DịCH VIÊN,QC KSQT Xưởng Nhựa, EVA,PU Liền quai,Nhân viên - V01 - TP. Hồ Chí Minh,Nhân viên kỹ Thuật,kỹ sư bậc 1,Kế toán kho,nhân viên văn phòng,Nhân viên thư viện Trường THCS Lý Thường Kiệt,Nhân viên chiêu thị,Nhân viên F&amp;B,Công nhân-Gấp biên,Công Nhân sản xuất,Công Nhân Kiểm Hàng (Qcs),Công nhân vận hành máy may (may công nghiệp),Nhân viên phòng điều hành,Giáo viên trường MN Ia khươl,Công nhân may công nghiệp, Chi nhánh may Việt Thái,Công Nhân Đứng Máy Ép,Thú y chăn nuôi,Công nhân lao động phổ thông,Công nhân Đế 15,Công nhân vận hành máy dệt công nghiệp,Công nhân sản xuất có tay nghề,Công nhân may máy may công nghiệp,Nhân viên thống kê,Nhân viên Trang Trí kiêm Thu ngân - Sim Số,Công Nhân ép Máy Cao Tần,Nhân viên tư vấn bán hàng,Nhân viên ngành hàng VinMart_Khánh Hòa_Vùng 2,Công nhân chế biến thủy hải sản đông lạnh,Nhân viên cờ đỏ,Nhân viên Giao tiếp Khách hàng,Nhân viên giao nhận suất ăn,Nhân viên phục vụ hành lý,Nhân viên thị trường SRF,Nhân viên đón tiếp,Nhân viên lễ tân,Nhân viên TKCT và lập ĐNSX,Nhân viên tư vấn,Công nhân sơn,Công nhân đóng gói,CN VẬN HÀNH MÁY MAY,CN may,Công nhân Sơn B,Bí thư đoàn,Nhân viên kế toán trường Nguyễn Văn Trỗi,CB Lao động TBXH,nhân viên quản lý vận hành trạm biến áp 110kv,Công nhân tổ máy,KTV Quản lý triển khai, ứng cứu &amp; XLSC ngoại vi,Bác sỹ,Nhân viên se sợi,Giám sát,Công nhân T6.Thanh Hinh B,Hộ lý,Huấn luyện viên,Nhõn viờn - CN Gia Lai,Trình dược viên,Nhân viên trực tổng đài,cử nhân kế toán,Nhân viên Phụ bếp,Nhân viên Giao nhận,Giáo viên trường TH H'ra số 1,Thu mua,kỹ sư điện tử viễn thông,Cán bộ kế toán,cửa hàng trưởng cửa hàng xăng dầu số 21,đội viên cảnh vệ,cn may,giao hàng,Nhân viên văn phòng đội ea khăl,Nhân viên thu phí,BTĐTN Xã Ea Hu,Công nhân vận hành máy may CN,Nhân viên thiết bị,Nhân viên Xây Dựng - Bảo Trì - V03 - Tỉnh Đắk Lắk,Quản lÝ giáo dục đối tượng,Vận hành máy in hoa trên trục,Phục vụ,Hộ sinh TYT Ea Hu,Nhân viên Kỹ Thuật Điện,CN. VẬN HÀNH MÁY MAY,Thường trực đảng uỷ,Nhân Viên Bán Hàng Trực Tiếp,Kế toán cửa hàng,nv thủ kho cncc,Nhân viên văn thư,Công nhân chăm sóc cà phê,Thợ tiện,Nhân viên điểm giới thiệu dịch vụ (Điện máy),Trực buồng,Lái xe tại Đăk Nông,Công Nhân May Khoa Mẫu,Trainee Preparation Cook,VẬN HÀNH MÁY PHÒNG CO VẢI (SANFOR) TRONG DÂY CHUYỀN NHUỘM,Nhân Viên Bán Hàng Qua Điện Thoại - X-sell,CN,Lập trình viên, Lập trình viên,Lưu Hóa Các Sản Phẩm Cao Su,Công nhân vệ sinh,Kỹ sư,Công nhân đóng thùng,Văn thư - Trường Mầm non Tân Thành,Công nhân may - Công Ty Cổ Phần Đầu Tư Minh Bảo Tín,Công nhân Trang Trí,OPERATOR,Nhân Viên Tư Vấn Tín Dụng - CD,Nhân viên giám sát,Thợ điện,Nhân viên bán hàng - SMC PG Gionee,Nhân Viên Bán Hàng - Đắklắk - Kv4,thợ may,Nhân Viên Kiểm Toán bậc 1,Nhân viên KH - CƯ,Đại diện bán hàng,Nhân Viên Bán Hàng Qua Điện Thoại - NTB,Giáo viên.Trường Tiểu học Đăk Trăm,Công nhân Phụ kho,Giáo viên.Trường Mầm Non Vành Khuyên,Nhân viên - Phòng Kinh doanh,văn thư đánh máy,Nhân Viên Bán hàng,Nhân viên tiếp nhận,Tuyên truyền viên,Giáo viên- Trường Mầm Non Hoà Phú,Sales,ép cao tần,Chuyên viên - Phòng Kế Hoạch,Kế toán trưởng,Giáo viên- Trường Mầm Non Thành Công,Điều dưỡng,CÔNG NHÂN LựA THÂN,Tổ khối phó, giáo viên,Phó bí thư huyện đoàn,Kiểm soát viên,Công nhân thủ công,giao dịch viên,Công Nhân Bộ Phận Thành Phẩm,giáo viên,Hiệu Trưởng,Kỹ thuật nhà máy,Công nhân May,Công nhân sản xuất vải không dệt,Công nhân vận hành thiết bị may công nghiệp, bậc 1/4 (A.01),Nhân viên đứng máy ghép,Nhân viên quầy Thức ăn nhanh,Nhân viên ban QLDA Thủy điện,NV soi vải phòng KHNV,cấp dưỡng,nhân viên  lái xe taxi,Nhân viên Trình dược,Biên tập, biên kịch,Công nhân doanh thác,Trưởng nhóm gia dụng,công nhân bọc hoa,Công nhân may 1 kim,Công nhân Phân loại,Văn thư lưu trữ,Nhân viên Giao nhận - V03 - Đông Hòa - Phú Yên,Nhân viên, Bình Dương,PHỤ XE,NHÂN VIÊN KD; 5L đường số 01, phường 03, quận bình thạnh, tp.hcm,Nhân viên cửa hàng, làm việc tại TP. Quy Nhơn,Nhân viên hỗ trợ bán hàng,Nhân viên quản lý kho,Staff,Nhân viên lái xe 04 chỗ,Kế toán vật tư,Nhân Viên Thu Hồi Nợ Qua Điện Thoại,công nhân ủi công nghiệp,Cụng nhõn,Nhân viên An Ninh,Bảo trì,Công nhân sản xuất hộp giấy,Trợ Lý,Công nhân soi chai,Nhân viên kinh doanh, 2T20A Đường Võ Nguyên Giáp, Xã An Hòa, Tp.Biên Hòa, Tỉnh Đồng Nai,Thợ bánh,tạp vụ,Nhân viên kho,Giao dịch viên,Nhân viên vẽ,Công nhân mài chà quần bò,Công nhân, In - chia cuộn trong GMP,KTV Setup,CN Sản Xuất,nấu ăn trong các nhà hàng, ks, các bếp ăn tập thể có từ 100 suất ăn trở lên.,Quay ghi đường sắt tại ga Khánh Phước,CNTN-ĐH,Nhân Viên Bán Hàng Qua Điện Thoại,Nhân viên vệ sinh công cộng,Nhân viên phòng sản xuất,Quay ghi đường sắt ở các ga lập tàu,VM+ Cửa hàng trưởng,Công nhân vận hành máy ép đế giày cao su,Nhân viên lái xe điện,Kỹ thuật viên sản xuất,Giám sát cấp thoát nước,Quản lý quán-Cấp bậc 1,Văn hóa - Xã hội,Nhân viên Giặt ủi,Tổ trưởng Nhà hàng, Khối Dịch vụ ẩm thực,Trung cấp điều dưỡng khoa Hồi sức tích cực và chống độc,Nhân Viên Kinh Doanh,NV Marketing,Công nhân vận hành dây chuyền sợi (Máy sợi con),cnv,Giám sát bán hàng,Tư vấn bán hàng xe DL KIA,Công nhân May công nghiệp ( Vận hành máy may),Lao Động Phụ,NVTT,Kỹ sư phòng Vỏ chế tạo,NV Bán hàng,Y tế Cộng đồng,Nhân viên Trường Giáo dục đào tạo và Giải quyết việc làm số 1, thôn 2 xã ĐắkR Tíh huyện Tuy Đức tỉnh Đắk Nông,60824/Spiral-CocaCola/Vùng 1,Y sĩ,Kế toán bộ phận,NV Lái xe,công nhân bán lẻ xăng dầu  Cửa hàng bán lẻ xăng dầu thuộc,trung cấp xét nghiệm, xét nghiệm vi sinh vật, sinh hóa- phòng quản lý khoa học &amp; đào tạo,Tổ hóa lý - Kỹ thuật chất lượng,Nhân Viên Tạp Vụ,KINH DOANH,Công nhân chiết nạp gas,Chuyên viên kiểm tra thị trường,Quản lý khu lưu trú,Công nhân làm tại TP Buôn Ma Thuột,NV Giao nhận-290 Phạm Văn Đồng - Phường Cam Lợi - TP Cam Ranh - Khánh Hòa,Công nhân kéo khô,Nhân viên Phòng Dịch vụ địa chính,Nhân viên - Kỹ thuật,Thợ phụ chuyền cắt,cn phụ cắt,Công nhân địa chất quan trắc địa hình,Công nhân nhận hàng,Nhân viên vận hành trang thiết bị nhà ga,Công nhân in bao bì 2,Nhân viên mua hàng trong nướcChi nhánh Hồ Chí Minh,CÔNG NHÂN XI Mạ,29157- NV Sales DSMs - Vùng II - Nha Trang,Nhân viên Phục vụ trên xe,Giáo viên Tiểu học( tập sự),Nhân viên kiểm soát hàng vải,Kế toán công trình,Công nhân chế biến thủy sản đông lạnh,Nhân viên Tư Vấn,Kế toán kiểm soát chi phí,Nhân viên Lễ tân,Tạp vụ,NV Hành chính,Phết Keo Đế Và Mũ Giầy,Phụ bếp,Công nhân tổ BHLĐ,Công nhân SX,Lái Xe Vùng 1,Nhân viên GH,Nhân Viên Vận Hành Bán Hàng Kỹ Thuật Số Thẻ Tín Dụng Inbound,Phó tổng Giám đốc,Công Nhân Ép Đế,Thu ngân,NV kinh doanh dự án sam sung,CN Kế Hoạch,Công nhân bóc tôm,Công nhân cốp pha,Công nhân Phụ may,Lễ tân,Công nhân Đi Ca,Nhân viên xử lý dữ liệu điện tử,kiểm ngân,Nhân Viên Tiếp Thị,giáo viên dạy cấp 2,cử nhân quản trị, phòng Hành chính quản trị,Công Nhân hàn,nhân viên lái xe,Công nhân in chữ,Chuyên viên Spa,Kỹ sư Thiết kế,Phụ trách Phòng Thị trường,công nhân chế biến hải sản,Bí thư đoàn thanh niên,kỹ thuật viên xét nghiệm,Công Nhân May,cong nhan,Nhân viên lái xe Taxi,Cử nhân kế toán,công nhân chế biến đông lạnh,Nhân viên phụ bếp,Bếp phó,Nữ Hộ sinh Trạm Y tế Vạn Lương,công nhân phòng An toàn,Công nhân phụ,Nhân viên Giám Sát,Công nhân Chà Nhám C,Nhân viên Bán vé và phục vụ trên xe Buýt, Đội xe Buýt,Nhân viên tạp vụ Bếp,Kỹ sư chế biến,Tổ trưởng bếp,nv kinh doanh,Nhân Viên Cứu Hộ,Công nhân vận hành dây chuyền sợi,Nhõn viờn,Tổ phó tổ đế,Cồng nhân vận hành máy may,Tổ trưởng chuyền may công nghiệp,Công nhân Decal,Nhân viên kho cung cấp phụ tùng cho sản xuất,Nhân viên BP ép,Công nhân BP lắp ráp,Nhân viên Phòng Sơn - Nhựa,Công nhân bộ phận sản xuât,NV Giám Sát Công Trình,Công nhân láp ráp mạch điện tử,Nhân viên Chăm Sóc Khách Hàng,Nhân viên xưởng hàn dập,CÔNG NHÂN GấP,Công nhân chế biến - Nhà máy sữa,Công nhân so, sửa bán thành phẩm,Công nhân xưởng KCS,Công nhân KCS,Công nhân Test HC,Công nhân Xưởng lắp ráp,Nhân viên Kho nguyên liệu,Công nhân đóng gói hàng hóa,Nhân viên Chăm sóc khách hàng,Nhân viên Phòng Lắp ráp,Công nhân làm trong công ty bảng mạch FBCB dùng cho camera điện thoại di động,Công nhân là hơi,kỹ thuật,nv bảo vệ,Trưởng ca bảo vệ,Công nhân máy dập,Công nhân cắt phá, cắt gọt,Nhân viên kiểm tra chất lượng,Công nhân lắp ráp mạch điện tử,Công nhân đứng máy mài,Công nhân sản xuất motor,Dược sĩ đại học,Công nhân cắt,CN sản xuất,Điều dưỡng cao đẳng tại khoa Ngoại,Công nhân SX Camera điện thoại,Nhân viên Sản xuất,Công nhân sản xuất Camera,Công nhân sản xuất linh kiện điện tử,Công nhân bộ phận sản xuất,Chuyên viên tuyển sinh,Bậc 2 công nhân Nạp liệu lò cao trong công nghệ sản xuất phân lân nung chảy.,Công nhân hàn điện,Phiên dịch xưởng,Phó trưởng công an xã,Tổ trưởng bộ phận sơn,Công nhân thí nghiệm, phân tích hóa chất thuốc nhuộm,Nhân viên tạp vụ,hợp đồng giáo viên mầm non,Công nhân đánh bóng sản phẩm,Công nhân vận hành máy sợi,Tập sự chuyên viên,Giáo viên Mầm Non,NV Giao nhận-219A - Phạm Văn Thuận- Phường Tân Tiến- Tp Biên Hòa - Đồng Nai,Công nhân sửa chữa điện,Hợp đồng giáo viên mầm non,Công nhân lao động phổ thông, bậc 1/7,Nhân viên bộ phận dập,Chuyên viên phòng Nông nghiệp &amp; phát triển nông thôn,Công nhân đứng máy CNC,Công nhân cơ điện,Thợ sắt,Hợp đồng giáo viên tiểu học,Công nhân vận hành tổ điện phân, nén sấy khô Clo, lò HCl, javen,lái xe,Công nhân tạo hình,Công nhân là,Công nhân đội Thực Phẩm,Công nhân kiểm gấp trong dây chuyền may,Công nhân Kiểm hàng,Công nhân đóng kiện trong dây chuyền may,Công nhân Test 1,Giám sát trung tâm,Công nhân đóng gói sản phẩm may công nghiệp,Nhân viên thị trường CN Hà Nội, CN Hà Nội,Nhân viên S1,56500- NV Wiko - Vùng 02,Công nhân bộ phận High Pressure Casting,Công nhân vận hành,CN LáP RáP,Tư vấn tuyển sinh,Bảo Vệ,Công nhân tráng phủ,Công nhân sửa chữa máy sợi,Công nhân đóng gói sản phẩm,Giảng viên hợp đồng,Chương Xá - Cẩm Khê - Phú Thọ,Công nhân cắt chỉ hàng thêu 03ca,Công nhân sản xuất gạch men,Công Nhân Lao Động Phổ Thông, CN Sông Đà 6.01, Khoen On, Than Uyên, Lai Châu,Nhân viên khai thác 2,Đội trưởng Lái xe,công nhân xây dựng,Nhân Viên bán hàng,Nhân viên Hành chính Khu vực Hà Nội,NVVP,nhân viên kế toán,Công nhân may công nghiệp bậc 2/15,Phó Chánh văn phòng,công nhân xưởng in,Công nhân xưởng cơ khí,công nhân phòng Lắp ráp - Lắp ráp,Công nhân máy lọc nước,Công nhân đường thuê bao,Công nhân lái xe tải từ 7,5 tấn đến dưới 16,5 tấn,Công nhân cơ khí,Chuyên Viên,Nhân viên giám định,Nhân viên  Văn phòng,Dược sỹ,Nhân viên Bảo hiểm,Tổ trưởng Sản xuất,Cán bộ lao động tiền lương,Điều dưỡng viên,Công nhân bộ phận kiểm tra cao su,Công nhân Sản xuất bao bì giấy,Thủ quỹ điện lực,Thợ bảo hành máy kéo sợi OE,Cán sự hành chính,Giáo viên Trường mầm non Xuân Phú,Nhân Viên Kỹ Thuật Nhà Máy,Công nhân phòng sản xuất Mae,Công nhân học việc sản xuất loa,Công nhân  giặt quần bò (PG),y tá,Tổ Trưởng bàn,Công nhân phụ may công nghiệp,Công nhân gấp gói, bỏ túi,Công nhân Mành rèm,Công nhân là, gấp, đóng gói,Thợ Phụ,CN đứng máy sợi,Công nhân vận hành MMCN,CN vận hành may may CN,Công nhân trải vải, đánh số,Thủy thủ AB,Công nhân sản xuất máy móc dành cho may mặc và phụ kiện, thiết bị hao mòn và các bộ phận liên quan đến các loại máy này - BP Sản xuất,Công nhân lắp ráp linh kiện điện,Công nhân kiểm hóa,Công nhân là, gấp, đóng gói  ( may công nghiệp ),Nhân viên lái xe dưới 7 tấn,Công nhân GIặt,Công nhân đánh số,Nhân viên TYT Phúc Thành,Nhân Viên Bán Hàng - Hà Nội - Kv1,Công nhân bốc thành phẩm,Công nhân nhặt chỉ,Công nhân sản xuất linh kiện điện thoại,Tổ trưởng thử BP hoàn thiện,Công nhân gia công linh kiện cao su,công nhân sản xuất,Công nhân lắp ráp linh kiện điện tử,Nhân viên Siêu thị,Công nhân giặt,Công nhân sản xuất giầy,Công nhân bộ phận kho,Nhân viên ( Thợ hàn 3/7 ),trưởng kiểm soát,Công nhân tổ may,Công nhân kiểm tra chất lượng,Công nhân Tổ Đúc,Công nhân Màng Chụp,Nhân viên SIP,Nhân viên Kho thành phẩm,công nhân phân xưởng cắt,Nhân viên xuất,Công nhân bộ phận lắp ráp,Công nhân tổ phun Sơn,Thao Tác Viên,Kỹ thuật viên sản xuất nền đĩa thủy tinh,Công nhân may Công nghiệp  bậc 1/6,Công nhân địa chất tập sự,Công nhân may Công nghiệp,Công nhân vân hành bậc 27,Vận hành máy cuốn điếu, đóng bao thuốc lá,Nhân viên Trang Trí kiêm Thu ngân - Sim Số - V03 - Khoái Châu - Hưng Yên,Công nhân thu hóa,Công nhân vận hành máy đột dập kim loại,Công nhân Khai thác than trong hầm lò,Công nhân đóng gói lắp ráp,Công nhân kỹ thuật bộ phận PCBA,Nhân viên DVKH &amp; Thu ngân,Công nhân khâu móc,công nhân vận hành cần trục chân đế,Lưu trữ viên,Công nhân kiểm tra,Nhân viên mạng,Nhân viên phòng tổng hợp,Tổ phó đóng gói lắp ráp,Tổ Phó,Công Nhân May Công nghiệp,Trợ lý hành chính,Công nhân phát triển,Công nhân bộ phận Chất lượng,Công nhân chế tạo,Nhân viên S3,Công nhân cát may công nghiệp,Nhân viên bộ phận Sfact,Nhân viên - Công Ty Tnhh Jin-heung Metal Vina,Công nhân lắp ráp tai nghe,VM+ Nhân viên Bán hàng,Công nhân thay nguyên liệu,thay khuôn, gia công dập, gia công tap,xử lÝ scrap, vận chuyển linh kiện,Công nhân vận hành máy,Công nhân đóng thùng; Cong Ty TNHH DAUM &amp;amp;amp; QQ VIETNAM,Công nhân KTCL,Công nhân trải Vải - xnmay1,Công nhân may trực tiếp công nghiệp,Cử nhân sinh học, Viện vệ sinh dịch tễ Trung ương,Tài xế tải HN,Trợ lý hành chính bậc 1,Tổ trưởng,Nhân viên công vu,nhân viên hành chính,Lái xe con,Nhân viên kiểm tra hàng,Cán bộ y tế học đường,NV hỗ trợ kỹ thuật - Lv1,Công nhân hoàn thiện, gấp gói,Công nhân lắp zíc,Công nhân vận hành máy may- Xí nghiệp may Lạng Giang,Công nhân tổ In,Công nhân là ủi,Hợp đồng lao động,Công nhân thao tác,Công nhân Production Management,Công nhân tổ gia công,Trưởng dây chuyền lắp ráp thành phẩm  ,Lao động PT,Thủ Quỹ,NV Quan hệ khách hàng TDTT, làm việc tại Bắc Giang, Vùng 3,công nhân may trực tiếp cn,Huấn luyện viên Cá nhân,Trợ lý kho kiêm đóng gói,Công nhân Là,Công nhân vận hành máy may - Khu Vực Bắc Giang,Công nhân sản xuất vỏ điện thoại,Nhân viên bảo vệ tại Khu CN VISIP, Từ Sơn, Bắc Ninh,Nhân viên Marketing Hà Nội,Thợ hàn,công nhân may trực tiếp công nghiệp,Công nhân đổi bán thành phẩm,Công nhân may công nghiệp -Xí Nghiệp may Lục Nam,Công nhân lắp rắp thành phẩm,Kỹ thuật viên,Kỹ sư phòng Coating,Công nhân Hoàn Thiện,Thợ sửa máy,công nhân lao động phổ thông,Công nhân đồng bộ bán thành phẩm,Công nhân R&amp;amp;amp;D,Công nhân đứng máy,Công nhân phòng sản xuất,lao động phổ thông,kỹ sư,Công Nhân Sản xuất,Công nhân kiểm tra chất lượng sản phẩm,Trực ban chạy tàu,Trưởng phòng kế toán,Công nhân sản xuất thiết bị điện tử,Công nhân giao nhận,Công nhân lắp ráp, vận chuyển linh kiện, kiểm tra và đóng gói sản phẩm,Hiệu phó,Kế toán nhập liệu,nhân viên phát triển thị trường,Công nhân là trong chuyền,Học viên nhóm dạy lớp,Công nhân Đùn,Công Nhân in,Công nhân sản xuất lắp ráp,Lái xe tải 2.4 tấn,Công nhân lắp ráp thành phẩm,y sỹ,Hợp đồng Giáo viên mầm non,Hợp đồng Giáo viên,Nhân viên vận hành máy Cắt,Cán bộ Kỹ thuật,Công nhân sx gạch,Cán bộ tập sự văn phòng thống kê,Nhân viên phòng Kỹ thuật,Nhân viên kinh doanh- dự án SS,Công nhân - Gia công trục giảm sóc sau,Hợp đồng quay phim,Công Nhân Sửa bán thành phẩm,Công nhân sửa chữa máy may công nghiệp,Hợp đồng giáo viên dạy môn tin học,Thẩm phán,Kỹ sư công trình thủy điện, Chi nhánh Sông Đà 6.04, Đạo Đức, Vị Xuyên, Hà Giang,Công nhân vận hành lò hơi,Nhân Viên Kế Toán công nợ,Công nhân kiểm tra chất lượng sản phẩm may công nghiệp,Giáo viên tiểu học,Kỹ sư cơ khí, bậc 1/8,tập sự giáo viên,Công nhân đứng máy tráng phủ,Giám sát vệ sinh,Công nhân xưởng gia công,Công nhân nghiền,Công nhân bộ phận kiểm tra,Công nhân Coverlay,Thợ phụ máy uốn,Công nhân sản xuất linh kiện trong loa,Nhân viên phục vụ Sự kiện,Lái xe taxi,Lái xe Container,Công nhân Kiểm tra chất lượng,Kiểm soát viên đê điều,Tài xế tải,Uỷ viên HĐQT Kế toán trưởng,Bếp chính,Công Nhân_x000D_
- Sản Xuất,công nhân bộ phận xưởng đúc,Cán bộ kỹ thuât,Công nhân khai thác mỏ hầm lò,Nhân viên - V01 - TP. Hà Nội,Công nhân sản xuât,Công nhân- Công ty cổ phần tôn mạ màu Fujiton- KCN Tiên Sơn, Bắc Ninh,Công nhân bộ phận Pha chế,Nhân viên kĩ thuật,Công nhân sửa máy may công nghiệp,Tổ trưởng Chất lượng,Công nhân phân xưởng chặt,Nhân viên Dealer,Kế toán bán hàng,công nhân trực tiếp sản xuất,Công nhân chăn nuôi,Công nhân cung cấp nguyên liệu cho quá trình sản xuất,Công nhân kho trứng,Nhân Viên Hỗ Trợ Kinh Doanh,Nhân viên HCNS,Cán bộ công tác sinh viên,Nhân viên đối ngoại,Công nhân bộ phận nguyên liệu,Công nhân Development,Nhân Viên Bán Hàng - Tp. Hà Nội - Kv1,Công nhân KT,Công nhân  sản xuất,Phụ kho,Nhânviên,Thủ quỹ giao dịch,Công nhân mộc,Địa chính xây dựng,Trưởng phòng Kinh doanh,Tổ Trưởng Sản Xuất,CN VậN HàNH CẩU,Thợ máy tàu biển,Nhân viên trưởng kho,Kỹ thuật viên RHM,PLĐG HC,Công nhân bán lẻ xăng dầu &amp; các SP hóa dầu,  Cửa hàng xăng dầu Kỳ Tân,Công nhân lái xe Huyndai tải trọng 15 tấn,Y sĩ đa khoa,Nhân viên lấy mẫu thành phẩm , bán thành phẩm và kiểm tra thành phần hóa - P. Quản lý chất lượng,Tổ trưởng tổ hành chính,Y Sỹ,Phát hành báo,Bảo vệ kho Vật liệu nổ công nghiệp, áp tải xe chở Vật liệu nổ công nghiệp,Công nhân  rót tương,Nhân viên Tư Vấn - V03 - Tx. Kỳ Anh - Hà Tĩnh,Công nhân kinh doanh điện - Điện lực Diễn Châu,Chà nhám,Nhân viên đóng hàng,Phó CT MTTQ,Công nhân quản lý vận hành đường dây 220kv-500kv,Giáo viên+tổ phó,KTV Quản lý triển khai, ứng cứu &amp; XLSC ngoại vi,Công nhân bộ phận Engineering Group 1,ĐDTM,Giám sát nhà hàng,Nhân viên thị trường - Trung tâm lữ hành quốc tế và nội địa,CN thủy nông XNTL Yên Thành,Công nhân làm đường,Đại diện kinh doanh,Nhân  viên kế toán,Công nhân Phun Hoa Phun Sơn Đoạn Sau B,Công nhân Cắt,Nhân viên Cấp trung Huấn luyện Đại lý &amp;amp; Kênh Phân phối,CN.Cơ khí,Đầu bếp Bánh,Giao nhận,Văn thư, thủ quỹ,Công nhân mài phá,Vận động viên,điều phối viên,Nhân viên y tế,Nhân  viên,Cnhân VHTB Thành hình lốp,Công nhân bán lẻ xăng dầu và các Sp hóa dầu, Cửa hàng xăng dầu Khe Giao,K? s?,Y sỹ,Cán bộ mua sắm,Công nhân công nghệ ô tô 3/7,Coõng nhaõn boọ phaọn May Long Thaứnh,Y sỹ hạng IV- khoa y tế công cộng,Công Nhân Vận Hành Máy May Công Nghiệp,Giáo viên mầm non hạng II - Tổ phó,Công nhân sửa chửa thiết bị luyện kim,Công nhân tổ Rút sợi, Rút sợi,Thông dịch tiếng Hàn,nhân viên kỹ thật,Phó bí thư Đoàn,Trưởng Phòng Văn hóa - Thông tin,Công nhân lắp đặt,công nhân Sản Xuất,Nhân viên SINH QUảN,Giáo viên - Tổ trưởng,cán bộ kế toán viên,CN quản lý, Vận hành điện CSCC,Nhân viên - V04 - Tỉnh Hà Tĩnh,Giáo viên mầm non hạng IV - Tổ trưởng chuyên môn,Nhân viên đúc,Kỹ sư xây dựng cầu đường,Kinh tế viên (Hương Khê),Điều dưỡng trung cấp,Thủy Thủ,Nhân viên Tạp vụ Bếp,Công Nhân Lưu Hóa Các Sản Phẩm Cao Su,Công Nhân Đứng Máy Thêu,Công nhân phụ BP hoàn thành,Điều dưỡng trung học làm việc tại khoa Phẫu thuật GMHS,Công Nhân Hợp Đồng - Bộ Phận Gia Vị Lỏng,CN trồng và thu hoạch chè,Nhân viên máy cắt dây,Cán sự (Can Lộc),LÁI XE,Công nhân vận hành máy dệt kim tròn,Công nhân sản xuất linh kiện Camera,TÀI XẾ,CN-EDT0Y,Nhân viên vận chuyển,Nhân viên Khảo nghiệm miền Bắc,đội trưởng đội xe,CN Xưởng chặt,Công nhân sản xuất nền đĩa thủy tinh,Công nhân chăm sóc thu hái cam,Nhân viên  Xưởng vải mành 2,Công Nhân Dệt,Lao động phổ thông,Công nhân xưởng may Kimono,Địa chính - Xây dựng,Giám sát nhân sự nhà máy,Trưởng Nhóm Tiếp Nhận Yêu Cầu Khách Hàng,Công nhân cắt hàng,Nhân viên Khoa sư phạm,Công nhân điện nước,N.V,Nhân viên đồ họa,Chuyên viên kỹ thuật thí nghiệm, phân tích hóa chất thuốc nhuộm,CN vệ sinh chuồng,Công nhân Đóng thùng,cán bộ,công nhân chế biến mũ cao su,Phục Vụ,Nhân viên lễ tân - Lễ tân,Giảng viên trợ giảng,Công Nhân đại tu cầu đường,công nhân đứng máy sợi,Giáo viên, tổ trưởng,Nhân viên bàn,Nhân viên thư ký,Kỹ sư ứng cứu thông tin, Trung Tâm bảo dưỡng, Cty Viễn Thông,Phóng viên,80198/Nhân viên dự án SRF/Huế/Vùng 3,Nhân Viên It,Nhân viên kho quỹ,Phũng Đào tạo,Chuyên viên Nhà hàng,Nhân viên bảo trì tổng hợp,Nhân Viên Thao Tác,Công nhân đóng kiện trong dây chuyền dệt may,NV nghiệp vụ,Thieu chuc danh tu du lieu 3s,Cán bộ Thẩm  Định,Công nhân ép nhựa,Cán bộ kỹ thuật viên,PQTD,Nhân Viên Dập,Công nhân Hàn dải,Kỹ thuật Đội cầu 405,Nhân viên lái xe &amp;amp; vận hành trang thiết bị,Công nhân kho SYO,Công nhân Nguội - Khuôn mẫu,Nhân Viên Kỹ Thuật Điện,Công nhân sản xuất tủ lạnh,Nhân viên hiện trường,Công Nhân Sản Xuất Phốt,Nhân viên Tư vấn,Y tá,Công nhân sản xuất bánh kẹo,Trợ lý KTV,Thợ cơ khí,Công nhân bộ phận Mạ,Công nhân tuyển rửa đá, đóng bao sản phẩm bột đá  siêu mịn,Kỹ sư BĐH,Phó chỉ huy trưởng quân sự,Công nhân thủ công kỹ thuật,Công nhân Lao động phổ thông,Nhân viên tư vấn khách hàng,NV.Kỹ thuật,Nhân viên - V03 - Nghệ An,Nhân Viên Bán Hàng - Nghệ An - Huyện Nghĩa Đàn - Kv4,Kỹ sư Cơ,Điện thoại viên VNP,Nhân viên cơ điện,Thủ kho dược,Công nhân bộ phận phun sơn,Công nhân CD-Công ty CP may Kinh Bắc,Công nhân test hàng,Công nhân sản xuất ống dẫn nhiên liệu,Nhân viên Xuất nhập khẩu,Công nhân cắt và bao ép,Nhân viên Phòng Chế tạo khung,Tổ trưởng văn phòng,Công nhân Máy ép NM2,Nhân viên quầy bánh mỳ,Công nhân Hoàn chỉnh,Công nhân pha cắt,Nhân viên Làm việc tại Bắc Giang  Vùng 3,Công nhân sản xuất giày và các công việc liên quan,Công nhân in xoa,CNSX Bộ Phận Đóng Gói,Công nhân thêu vi tính,Công Nhân Pha Cắt,Công nhân sản quét keo,Nhân viên đổ sợi sợi con,ủi,Khuôn,Kho quỹ,Lái cẩu,Công nhân May Tổ 93,Nhân viên HỗTrợ bán Hàng,Thợ hàn điện hầm tàu,Kỹ thuật viên vệ sinh an toàn thực phẩm-xét nghiệm,Công nhân may CN,Kỹ thuật viên xét nghiệm,Kinh tế viên tín dụng- Ngân hàng NN huyện Thiệu Hoá,giáo viên tiếng anh,VHTT,Giáo viên trung học cơ sở,Nhân viên Bán hàng,giáo viên THCS chính,Giáo viên, Tổ phó,Công nhân kiểm nghiệm mía đường bậc 4/6,Giáo viên (lao động hợp đồng),Kỹ thuật viên trung cấp,công nhân  Hoàn Chỉnh,Nhân viên triển khai phần mềm,Kỹ sư thuỷ lợi,Trung cấp điều dưỡng,Kỹ Sư,NVVP post,Nhân viên kiểm tra trên chuyền - Line 20,Nhân viên phòng mẫu,Công nhân Phối liệu cao su,công nhân vận hành máy may công nghiệp,Công nhân sản xuất nền đĩa thủy tinh Công ty TNHH Hoya Glass Disk Việt Nam,Kỹ sư, cán bộ kỹ thuật,Công nhân vận hành máy nhuộm sợi,Công nhân vận hành máy in hoa trên trục,Kỹ sư kỹ thuật công trình XD,Công nhân vận hành máy dệt nước,Công nhân nước thải,Công  nhân,Nhân viên Giao hàng,Công Nhân BP Giũa,Kỹ sư địa chất,Nhân viên phòng bản,Cán bộ Văn phòng Sở,Nhân viên đốc chuyến,Công nhân thu gom rác,kỹ thuật viên,Nhân viên chia bài tập sự,Công nhân Dây chuyền PBA3,Công nhân vận chuyển,Công nhân SX giầy,Lao động phổ thông - Học viên VHNM,Công nhân tổ hoàn chỉnh,Công nhân bơm điện,Nhân viên thể thao,Công nhân Pha Cắt,Công nhân bảo trì,Điều dưỡng trung họ</t>
+    <t>{Nhân viên bán hàng trực tiếp,nan,Nhân viên,Công nhân in lụa,Nhân viên Lắp ráp,CÔNG NHÂN CƯờNG LựC,Công nhân bảo trì máy,công nhân ủi,Lái xe,Giáo viên,Chuyên viên,Giáo viên THCS chính,Kỹ sư cơ khí,Nhân viên An ninh,Công nhân chuyền Đế,Công nhân kiểm tra chất lượng(hoặc kiểm hoá, thu hoá), (may công nghiệp),Công nhân sản xuất Metal,Công nhân may tay,Công nhân đóng gói.,Công Nhân Sản Xuất Điện tử,VM+ Nhân viên bán hàng,VM+ Nhân viên Bán hàng - Vùng 2 - Đà Nẵng,Y sỹ đa khoa,Công nhân lắp ráp,CN Trải Vải,Công nhân, KTCL Chip 2,Nhân viên KTV,Phụ trắc đặc,Công nhân gấp xếp,Nhân viên pha chế,Công nhân hàng mẫu,Lái xe vận tải loại tải trọng 37,1 tấn,Công nhân hoàn thành,Xếp da,Tư vấn tài chính,Kỹ sư nấu bia,Công nhân kiểm hàng,Cán bộ địa chính,Quản lý Nhà hàng,Công nhân,cử nhân y tế công cộng,Nhân viên KCS,Nhân viên thí nghiệm,công nhân,giám định viên bậc 1/8,Dược tá,Giáo viên Trường THCS Nghĩa Thuận,Nhân viên Thủ Kho,Giáo Viên. Trường TH Số 1 Ba Dinh,Công nhân duy tu đội quản  lý xây dựng cầu đường Đức Phổ,Bảo vệ,Công nhân duy tu sửa chữa cầu đường bộ- Hạt Sơn Tịnh, H,. Sơn Tịnh- Quảng Ngãi,Bí thư Đoàn TNCSHCM,Công nhân viên,Kỹ thuật viên y trung học,Nhân viên sản xuất,Nhân viên Cơ điện,Trưởng phòng kinh doanh,Công nhân Thu tiền điện cơ quan Chi nhánh điện Quy Nhơn,Nhân viên Kinh doanh,Nhân viên buồng phòng,Công Nhân bốc xếp  thủ công,nhân viên tiếp thị,Kỹ Thuật Viên,Kinh doanh,công nhân viên,Văn thư,Công nhân xây dựng,Công nhân lái, vận hành các loại xe chuyên dùng chở rác, phân từ 7,5 tấn đến dưới 16,5 tấn,Công nhân sơn Cabin,Công Nhân Gấp Áo Công Nghiệp,Nhân viên kế toán,công nhân sản xuất linh kiện motor,Công nhân phụ may,Chuyên viên kế toán,Thợ phụ,Công nhân gọt vẽ,Nhân viên sơ chế, Nhà ăn Nhân viên,Nhân viên phục vụ,Công nhân may,Công nhân tổ Ráp giày thành phẩm,Công Nhân Tổ Thành Phẩm,Kỹ thuật,Thợ sơn,Nhân viên bảo vệ,Công nhân trại,Giáo viên trung học,Công nhân đóng gói (may công nghiệp),Công nhân vận hành máy may công nghiệp,Công nhân lăp ráp,May công nghiệp,Nhân viên Bảo vệ,Giám đốc,kế toán,thủ kho,Thiết Kế,nhân viên,Nhân viên thông tin y khoa,Nhân viên kho thành phẩm,Nhân viên kiểm tra chất lượng sản phẩm,Công nhân cắt vi tính,Thợ Cơ khí,Nhân viên vận hành,NV Thị trường,Công nhân may công nghiệp,Nhân viên bán hàng và chăm sóc khách hàng,Nhân Viên Thu Hồi Nợ Tại Nhà,nhân viên xuất nhập khẩu,Giám sát thi công,CN Bốc Xếp,Công Nhân Gia Công,nhân viên kinh doanh,Công nhân May công nghiệp,Nhân viên thu ngân,Nhân viên tiếp thị,Nhân viên thị trường,29496-VBL, Nhân viên SP,Phó Giám đốc,Nhân viên giới thiệu sản phẩm,Kỹ sư xây dựng,Công nhân sản xuất,Công nhân tổ May mũ giày,PGĐ,Bán hàng,Công nhân VHTB may CN,Kỹ thuật viên,Nhân viên tổ cắt,Công nhân xưởng may,CN - TP.HCM-Vùng 1,Công nhân in,Công nhân Kiểm hàng may,Kỹ thuật hiện trường,Giáo Viên,Công nhân phòng máy,may,Công nhân vận hành máy giặt, nhuộm liên hợp,Công nhân vận hành máy may (May công nghiệp),Nhân viên dọn phòng,Nhân viên lái xe taxi,Chuyên viên Khách hàng cá nhân,Công nhân, Sản xuất,Chuyên viên I Quan hệ khách hàng,Nhân viên kiểm nghiệm,Khai thác bưu gửi,Nhân viên bán hàng,NV Kinh Doanh,Công nhân là sản phẩm may công nghiệp, bậc 1/6 (A,01),Nhân viên tiếp thị bia, phòng kinh doanh Bia,Tư Vấn Viên - Chi nhánh Đà Nẵng,Nhân viên kiểm hàng,Công nhân đúc,nhân viên tổng đài,CN May,Nhân viên Kho kiêm Hỗ trợ kỹ thuật,Công nhân vận hành máy may,CNKT, Phòng dự án,Bảo mẫu (Mầm non Minh Đức Tháp Mười),Công nhân chiết nạp,bảo vệ,Nhân viên Triển khai,Quay ghi đường sắt tại ga Mộ Đức,Cán bộ kỹ thuật,Chuyên viên kiểm tra chất lượng cuộc gọi,CN Điện,Tài xế,NV,Bảo vệ làm theo chế độ 3 ca,vận hành máy may,Nhân viên kinh doanh,nhân viên bán hàng,NHÂN VIÊN,Giao nhận, Hậu cần,công nhân IN LụA,Nhân viên Lái xe,Nhân viên Hành lý,Nhân Viên kỹ thuật,I,Nhân viên Quản lÝ Chất lượng,lái xe 3,5 tấn,Nhân viên kỹ thuật,điều phối công trường,Nhân viên Tổng đài,Nhân viên - Bình Định,Công nhan may,Thủ kho,Nhân viên đại diện bán hàng,Trưởng nhóm Bán hàng,Nhân viên thợ hàn,lái xe tải &lt; 7.5 tấn,Nhân viên Môi giới,CN Sản Xuất Linh Kiện Điện Tử,Công nhân Vận hành cầu trục,Công nhân ủi (may công nghiệp),Lái xe vận chuyển bê tông thương phẩm 15 tấn,Chuyên viên Công nghệ thông tin,KTV Cơ khí,cn đóng thùng,Mia,Lao động phổ thông,CN-Đóng gói,Công nhân Kiểm phẩm,Nhân Viên Sản Xuất,NHÂN VIÊN TẠP VỤ,NV. Văn phòng,công nhân may công nghiệp,Giáo viên trường THCS Nghĩa Hà - Tư Nghĩa,Nhân viên kinh doanh vàng và thẻ,Kế toán viên,Nhân viên dự án,Trưởng nhóm Kinh doanh,Công nhân vận hành thiết bị may công nghiệp, Bậc 1/4 (A.01),Công nhân vận hành thiết bị may công nghiệp,bậc 1/6,Dược sĩ  hạng IV,  Khoa Dược,Cán bộ nhân viên,nhân viên kỹ thuật,Nhân viên kỹ thuật phun thuốc,Kỹ sư quản lý chất lượng,Thợ lắp,Công nhân tổ Chuẩn bị,nhân viên bán vé,NVSX,công nhân thợ may,Công nhân Công nghệ,NV PHụ KHO,CN Vận Hành Máy Đánh Ống,Công Nhân thành hình,Công Nhân Bảo Toàn, Sửa Chữa Máy May,Giáo viên THCS,chuyên viên,Nhân viên ngành hàng,Quay ghi đường sắt ở các ga,Công nhân in da, bậc 1/6 N2A2.2,Cao đẳng tin học,Nhân viên bảo vệ làm theo chế độ 03 ca, làm việc tại Đà Nẵng,Điều dưỡng đa khoa,Kế toán,Nhân viên chạy máy định hình,Công Nhân SX Điện tử,Nhân viên caddy,Công nhân sản xuất PPC,Trưởng bộ phận phát triển cơ sở hạ tầng,CN. Chế biến thủy sản,Công nhân vận hành thiết bị máy,Nhân viên Quản lý bãi đậu xe và sân đường,Công Nhân,Công nhân Injection,Cán bộ kinh doanh,Nhân viên Đại diện thương mại,Nhân Viên Trại Gà,Nhân Viên Bán Hàng - Quảng Bình - Huyện Tuyên Hoá - Kv4,công nhân ủi hơi,Giáo  viên mầm non,Công nhân sản xuất điện tử,Công nhân kỹ thuật,CNV,Công nhân nung lốp,Công nhân dán lốp,Nhân viên - V02 - Tỉnh Thừa Thiên Huế,Công nhân nuôi tôm,Công nhân sửa chữa toa xe bậc 1/7,Công Nhân Phổ Thông,Công nhân sản xuất đồ chơi,công nhân may,Kỹ Thuật Tác Nghiệp,Công nhân Sợi Cọc,Dược sỹ Trung học,Nhân Viên,Giáo viên hợp đồng,Nhân viên Lái xe Taxi 4 chỗ,Cử nhân bậc 1,Nhân viên nghiệp vụ,Nhân viên Thư viện,NVPV trên các đoàn tàu hỏa chở khách,Công nhân kho,Debug Operator,Công Nhân Sản Xuất,Công Nhân Tẩy,CÔNG NHÂN MAY,nhân viên lái xe tải 1.25 tấn,Nhân viên sợi nhân tạo,Nhân viên lập trình,Điều Dưỡng,Nhân viên bếp,Dược sỹ TC, Khoa Dược,Nhân viên Phụ xe,Nhân viên thiết kế,Công nhân là ủi, tẩy sản phẩm, đóng gói,Nhân viên Sales tour,Phết keo đế, mũ giày,Lao động phổ thông, Tân Bình, HCM vùng 1,công nhân tổ cắt, chuẩn bị, phụ cắt may, đo, đếm, trải vải, đánh số,Giám sát bộ phận buồng phòng,undefined,Phết keo đế hoặc mũ giày,Nhân Viên Giao nhận,Vận Hành Máy Rót,Nhân viên bán hàng siêu thị,Công nhân Vệ sinh máy IP,Nhân viên cấp dưỡng,Công nhân kiểm hàng công nghiệp,Nhân viên Ngành hàng,Nhân viên bộ phận Body,Công nhân Sản xuất,Điều dưỡng gây mê hồi sức,TC Hành chính văn thư, Phòng Hành chính quản trị,Nhân viên Kế toán,Công nhân Khám, chữa toa xe bậc 1/7 A1.6 N3,Công nhân phụ việc chuyền may công nghiệp,Công nhân vận hành máy Dệt kim tròn,Công nhân pha trộn mực in và sửa chữa máy may công nghiệp,Lái xe 7 chổ,Công chức tư pháp - hộ tịch,Thư viện viên hợp đồng,Dược sỹ trung học,Nhân viên Phục vụ NH Quảng Việt,Bác sĩ,Công nhân trải vải,nhân viên Kỹ thuật thử việc,NVVăn Phòng,Nhân viên lái xe,Nhân viên an ninh,Công Nhân _May máy,công nhân cơ khí sửa chữa 3/7,Nhân Viên Văn phòng,CÔNG NHÂN MAY CÔNG NGHIỆP,Hộ sinh TC,Nhân viên Quét Sàn Vùng 1,Chụp Hình,thợ điện,Cán bộ hợp đồng,Cán bộ,Operator,NV bán hàng,cán sự,Công Nhân May Công Nghiệp,Nhân viên Buồng phòng,Nhân viên Kho,Nhân viên bảo vệ, Bộ phận Bảo vệ,Nhân viên hướng dẫn khách,Công nhân May trụ 1 kim,Nhân viên Chi nhánh Đà Nẵng,công nhân phụ việc,77022Nhân viên bán hàng VBL/Vùng 2/Hai Chau 3,Nhân viên Phục vụ,Công nhân đánh số bậc 1/6,nhân viên chỉnh sửa ảnh,Công nhân là may công nghiệp, bậc 1/6,Công nhân lắp ráp điện tử,Hộ lý bậc 1/12,Nhân viên xử lý hình ảnh,Nhân viên nhà hàng,Công nhân đo đếm vải may công nghiệp, b?c 1/6,Công nhân ủi - may công nghiệp,Công nhân là sản phẩm may công nghiệp bậc 1/7,Công nhân Bộ phận Tiền lắp ráp guồng,Công nhân chế biến thực phẩm,CÔNG NHÂN MAY CÔNG NGHIệP,Công nhân sản xuất đồ dùng bằng da bậc 1/6 N2A22,nhân viên giao hàng bằng xe tải,công nhân chế biến thủy sản đông lạnh, bậc 2/6,Nhân viên nhập dữ liệu,CN MAY Tổ 1,Chủ tịch hội đồng thành viên,Nhân viên an ninh kiểm soát,Công nhân vận hành thiết bị may công nghiệp, bậc 1/6,Nhân viên Kỹ thuật sản phẩm cần,Nhân viên tạp vụ làm việc tại Đà Nẵng,Cán bộ cấp 2,Nhân viên bậc 1/12,Công nhân lắp ráp motor,Công nhân vận hành thiết bị may công nghiệp,Diễn viên nhạc cụ. diễn viên hạng  V.100414, bậc 1/9, 85%,Nhân viên hướng dẫn game,Công nhân Sơn,Tổ trưởng bán hàng,NV kỹ thuật xây dựng,Nhân viên kéo sợi,Kho,Chủ tịch Hội LHPN,Công nhân hầm lò,Nhân viên hành chính,Nhân Viên Bán Hàng,nhân viên bếp,Công nhân VH thiết bị may công nghiệp,Công nhân vận hành máy PP Channel,Nhân viên phiên dịch tiếng Hàn,cán sự bậc 3/12 đội phó,Công nhân bắt ống bê tông,Công nhân ép đế,CÔNG NHÂN,Nhân viên bán hàng - Chi nhánh Đà Nẵng,Nhân viên Kỹ thuật,Công nhân vận hành máy may công nghiệp. Bậc 1/6 N2A2.2,Nhân viên phục vụ sân gôn,Tổ trưởng Bếp Canteen,Cán sự,Nhân viên giặt là,Nhân viên Hành Lý,22568,- Nhân viên thu phí, soát vé trạm thu phí Km943+975 Công ty TNHH MTV Ceco 545 BOT thuộc Nhóm V.1 - B,Nhân viên Tư vấn Tín dụng,công nhân sản xuất 2 - kiểm tra o3,cn. kiểm tra chất lượng,Nhân viên văn phòng,Nhân viên, KTDA,Nhân Viên Thống Kê,Nhân viên Bếp,Điều dưỡng trung cấp bậc 1/12,Công nhân Phòng máy,Nhân viên giao hàng,Nhân viên LĐTL,NV Bảo vệ,Nhân viên may mẫu,Nhân viên lái xe  bằng C,Nhân viên giới thiệu sản phẩm tại điểm bán,Nhân viên bán hàng - Phòng Marketing và bán hàng,UNT,CN may-XN 3,Nhân viên Quản lý,phó trưởng phòng kế toán,CN vệ sinh chuồng heo,Giáo viên mầm non,Công nhân sửa máy,CÔNG NHÂN SẢN XUẤT,Công nhân sản xuất (gia công cơ khí),Nhân viên chế tác,nhân viên phòng kỹ thuật,cán sự 5/12,Nhân viên triẻn khai,Phó Ban Bảo vệ,Công nhân kiểm tra chất lượng ( May công nghiệp ),Đứng máy Sợi -531,Kiểm soát viên thị trường bậc 1/9 (tập sự),Công nhân chế biến thủy sản,Thư ký,công nhân  Lắp ráp,Nhân viên kế toán kho, Kế toán,Chỉ huy phó quân sự,Nhân Viên kinh Doanh,Dược sỹ trung cấp bậc 2 MN16.135, phó phòng y tế,Nhân viên chăm sóc khách hàng,Phục vụ đoàn, đội xe,Kế Toán,Nhân viên bảo hành,CN vận hành máy may,Giám sát bếp,Công nhân tổ Cắt lót đế,Giáo viên mầm non tập sự bậc 1/12,Nhân viên bán vé xe buýt,nhân viên nghiệp vụ. 1.55, bậc 1/15,Công nhân xếp,Giám sát giặt là,Nhân viên Tiền sảnh,Công nhân bộ phận Kho nhập,Điện thoại viên,Quay phim,Lập trình viên,Quản lý,Nhân viên giặt ủi,Công nhân vận hành thiết bị may Công nghiệp,Nhân viên phòng cân,Kiến Trúc Sư,Nhân viên Thu ngân,Giáo viên  TH Lê Lợi,CN trải vải (may công nghiệp),Nhân viên thu hồi nợ,GIAO DịCH VIÊN,QC KSQT Xưởng Nhựa, EVA,PU Liền quai,Nhân viên - V01 - TP. Hồ Chí Minh,Nhân viên kỹ Thuật,kỹ sư bậc 1,Kế toán kho,nhân viên văn phòng,Nhân viên thư viện Trường THCS Lý Thường Kiệt,Nhân viên chiêu thị,Nhân viên F&amp;B,Công nhân-Gấp biên,Công Nhân sản xuất,Công Nhân Kiểm Hàng (Qcs),Công nhân vận hành máy may (may công nghiệp),Nhân viên phòng điều hành,Giáo viên trường MN Ia khươl,Công nhân may công nghiệp, Chi nhánh may Việt Thái,Công Nhân Đứng Máy Ép,Thú y chăn nuôi,Công nhân lao động phổ thông,Công nhân Đế 15,Công nhân vận hành máy dệt công nghiệp,Công nhân sản xuất có tay nghề,Công nhân may máy may công nghiệp,Nhân viên thống kê,Nhân viên Trang Trí kiêm Thu ngân - Sim Số,Công Nhân ép Máy Cao Tần,Nhân viên tư vấn bán hàng,Nhân viên ngành hàng VinMart_Khánh Hòa_Vùng 2,Công nhân chế biến thủy hải sản đông lạnh,Nhân viên cờ đỏ,Nhân viên Giao tiếp Khách hàng,Nhân viên giao nhận suất ăn,Nhân viên phục vụ hành lý,Nhân viên thị trường SRF,Nhân viên đón tiếp,Nhân viên lễ tân,Nhân viên TKCT và lập ĐNSX,Nhân viên tư vấn,Công nhân sơn,Công nhân đóng gói,CN VẬN HÀNH MÁY MAY,CN may,Công nhân Sơn B,Bí thư đoàn,Nhân viên kế toán trường Nguyễn Văn Trỗi,CB Lao động TBXH,nhân viên quản lý vận hành trạm biến áp 110kv,Công nhân tổ máy,KTV Quản lý triển khai, ứng cứu &amp; XLSC ngoại vi,Bác sỹ,Nhân viên se sợi,Giám sát,Công nhân T6.Thanh Hinh B,Hộ lý,Huấn luyện viên,Nhõn viờn - CN Gia Lai,Trình dược viên,Nhân viên trực tổng đài,cử nhân kế toán,Nhân viên Phụ bếp,Nhân viên Giao nhận,Giáo viên trường TH H'ra số 1,Thu mua,kỹ sư điện tử viễn thông,Cán bộ kế toán,cửa hàng trưởng cửa hàng xăng dầu số 21,đội viên cảnh vệ,cn may,giao hàng,Nhân viên văn phòng đội ea khăl,Nhân viên thu phí,BTĐTN Xã Ea Hu,Công nhân vận hành máy may CN,Nhân viên thiết bị,Nhân viên Xây Dựng - Bảo Trì - V03 - Tỉnh Đắk Lắk,Quản lÝ giáo dục đối tượng,Vận hành máy in hoa trên trục,Phục vụ,Hộ sinh TYT Ea Hu,Nhân viên Kỹ Thuật Điện,CN. VẬN HÀNH MÁY MAY,Thường trực đảng uỷ,Nhân Viên Bán Hàng Trực Tiếp,Kế toán cửa hàng,nv thủ kho cncc,Nhân viên văn thư,Công nhân chăm sóc cà phê,Thợ tiện,Nhân viên điểm giới thiệu dịch vụ (Điện máy),Trực buồng,Lái xe tại Đăk Nông,Công Nhân May Khoa Mẫu,Trainee Preparation Cook,VẬN HÀNH MÁY PHÒNG CO VẢI (SANFOR) TRONG DÂY CHUYỀN NHUỘM,Nhân Viên Bán Hàng Qua Điện Thoại - X-sell,CN,Lập trình viên, Lập trình viên,Lưu Hóa Các Sản Phẩm Cao Su,Công nhân vệ sinh,Kỹ sư,Công nhân đóng thùng,Văn thư - Trường Mầm non Tân Thành,Công nhân may - Công Ty Cổ Phần Đầu Tư Minh Bảo Tín,Công nhân Trang Trí,OPERATOR,Nhân Viên Tư Vấn Tín Dụng - CD,Nhân viên giám sát,Thợ điện,Nhân viên bán hàng - SMC PG Gionee,Nhân Viên Bán Hàng - Đắklắk - Kv4,thợ may,Nhân Viên Kiểm Toán bậc 1,Nhân viên KH - CƯ,Đại diện bán hàng,Nhân Viên Bán Hàng Qua Điện Thoại - NTB,Giáo viên.Trường Tiểu học Đăk Trăm,Công nhân Phụ kho,Giáo viên.Trường Mầm Non Vành Khuyên,Nhân viên - Phòng Kinh doanh,văn thư đánh máy,Nhân Viên Bán hàng,Nhân viên tiếp nhận,Tuyên truyền viên,Giáo viên- Trường Mầm Non Hoà Phú,Sales,ép cao tần,Chuyên viên - Phòng Kế Hoạch,Kế toán trưởng,Giáo viên- Trường Mầm Non Thành Công,Điều dưỡng,CÔNG NHÂN LựA THÂN,Tổ khối phó, giáo viên,Phó bí thư huyện đoàn,Kiểm soát viên,Công nhân thủ công,giao dịch viên,Công Nhân Bộ Phận Thành Phẩm,giáo viên,Hiệu Trưởng,Kỹ thuật nhà máy,Công nhân May,Công nhân sản xuất vải không dệt,Công nhân vận hành thiết bị may công nghiệp, bậc 1/4 (A.01),Nhân viên đứng máy ghép,Nhân viên quầy Thức ăn nhanh,Nhân viên ban QLDA Thủy điện,NV soi vải phòng KHNV,cấp dưỡng,nhân viên  lái xe taxi,Nhân viên Trình dược,Biên tập, biên kịch,Công nhân doanh thác,Trưởng nhóm gia dụng,công nhân bọc hoa,Công nhân may 1 kim,Công nhân Phân loại,Văn thư lưu trữ,Nhân viên Giao nhận - V03 - Đông Hòa - Phú Yên,Nhân viên, Bình Dương,PHỤ XE,NHÂN VIÊN KD; 5L đường số 01, phường 03, quận bình thạnh, tp.hcm,Nhân viên cửa hàng, làm việc tại TP. Quy Nhơn,Nhân viên hỗ trợ bán hàng,Nhân viên quản lý kho,Staff,Nhân viên lái xe 04 chỗ,Kế toán vật tư,Nhân Viên Thu Hồi Nợ Qua Điện Thoại,công nhân ủi công nghiệp,Cụng nhõn,Nhân viên An Ninh,Bảo trì,Công nhân sản xuất hộp giấy,Trợ Lý,Công nhân soi chai,Nhân viên kinh doanh, 2T20A Đường Võ Nguyên Giáp, Xã An Hòa, Tp.Biên Hòa, Tỉnh Đồng Nai,Thợ bánh,tạp vụ,Nhân viên kho,Giao dịch viên,Nhân viên vẽ,Công nhân mài chà quần bò,Công nhân, In - chia cuộn trong GMP,KTV Setup,CN Sản Xuất,nấu ăn trong các nhà hàng, ks, các bếp ăn tập thể có từ 100 suất ăn trở lên.,Quay ghi đường sắt tại ga Khánh Phước,CNTN-ĐH,Nhân Viên Bán Hàng Qua Điện Thoại,Nhân viên vệ sinh công cộng,Nhân viên phòng sản xuất,Quay ghi đường sắt ở các ga lập tàu,VM+ Cửa hàng trưởng,Công nhân vận hành máy ép đế giày cao su,Nhân viên lái xe điện,Kỹ thuật viên sản xuất,Giám sát cấp thoát nước,Quản lý quán-Cấp bậc 1,Văn hóa - Xã hội,Nhân viên Giặt ủi,Tổ trưởng Nhà hàng, Khối Dịch vụ ẩm thực,Trung cấp điều dưỡng khoa Hồi sức tích cực và chống độc,Nhân Viên Kinh Doanh,NV Marketing,Công nhân vận hành dây chuyền sợi (Máy sợi con),cnv,Giám sát bán hàng,Tư vấn bán hàng xe DL KIA,Công nhân May công nghiệp ( Vận hành máy may),Lao Động Phụ,NVTT,Kỹ sư phòng Vỏ chế tạo,NV Bán hàng,Y tế Cộng đồng,Nhân viên Trường Giáo dục đào tạo và Giải quyết việc làm số 1, thôn 2 xã ĐắkR Tíh huyện Tuy Đức tỉnh Đắk Nông,60824/Spiral-CocaCola/Vùng 1,Y sĩ,Kế toán bộ phận,NV Lái xe,công nhân bán lẻ xăng dầu  Cửa hàng bán lẻ xăng dầu thuộc,trung cấp xét nghiệm, xét nghiệm vi sinh vật, sinh hóa- phòng quản lý khoa học &amp; đào tạo,Tổ hóa lý - Kỹ thuật chất lượng,Nhân Viên Tạp Vụ,KINH DOANH,Công nhân chiết nạp gas,Chuyên viên kiểm tra thị trường,Quản lý khu lưu trú,Công nhân làm tại TP Buôn Ma Thuột,NV Giao nhận-290 Phạm Văn Đồng - Phường Cam Lợi - TP Cam Ranh - Khánh Hòa,Công nhân kéo khô,Nhân viên Phòng Dịch vụ địa chính,Nhân viên - Kỹ thuật,Thợ phụ chuyền cắt,cn phụ cắt,Công nhân địa chất quan trắc địa hình,Công nhân nhận hàng,Nhân viên vận hành trang thiết bị nhà ga,Công nhân in bao bì 2,Nhân viên mua hàng trong nướcChi nhánh Hồ Chí Minh,CÔNG NHÂN XI Mạ,29157- NV Sales DSMs - Vùng II - Nha Trang,Nhân viên Phục vụ trên xe,Giáo viên Tiểu học( tập sự),Nhân viên kiểm soát hàng vải,Kế toán công trình,Công nhân chế biến thủy sản đông lạnh,Nhân viên Tư Vấn,Kế toán kiểm soát chi phí,Nhân viên Lễ tân,Tạp vụ,NV Hành chính,Phết Keo Đế Và Mũ Giầy,Phụ bếp,Công nhân tổ BHLĐ,Công nhân SX,Lái Xe Vùng 1,Nhân viên GH,Nhân Viên Vận Hành Bán Hàng Kỹ Thuật Số Thẻ Tín Dụng Inbound,Phó tổng Giám đốc,Công Nhân Ép Đế,Thu ngân,NV kinh doanh dự án sam sung,CN Kế Hoạch,Công nhân bóc tôm,Công nhân cốp pha,Công nhân Phụ may,Lễ tân,Công nhân Đi Ca,Nhân viên xử lý dữ liệu điện tử,kiểm ngân,Nhân Viên Tiếp Thị,giáo viên dạy cấp 2,cử nhân quản trị, phòng Hành chính quản trị,Công Nhân hàn,nhân viên lái xe,Công nhân in chữ,Chuyên viên Spa,Kỹ sư Thiết kế,Phụ trách Phòng Thị trường,công nhân chế biến hải sản,Bí thư đoàn thanh niên,kỹ thuật viên xét nghiệm,Công Nhân May,cong nhan,Nhân viên lái xe Taxi,Cử nhân kế toán,công nhân chế biến đông lạnh,Nhân viên phụ bếp,Bếp phó,Nữ Hộ sinh Trạm Y tế Vạn Lương,công nhân phòng An toàn,Công nhân phụ,Nhân viên Giám Sát,Công nhân Chà Nhám C,Nhân viên Bán vé và phục vụ trên xe Buýt, Đội xe Buýt,Nhân viên tạp vụ Bếp,Kỹ sư chế biến,Tổ trưởng bếp,nv kinh doanh,Nhân Viên Cứu Hộ,Công nhân vận hành dây chuyền sợi,Nhõn viờn,Tổ phó tổ đế,Cồng nhân vận hành máy may,Tổ trưởng chuyền may công nghiệp,Công nhân Decal,Nhân viên kho cung cấp phụ tùng cho sản xuất,Nhân viên BP ép,Công nhân BP lắp ráp,Nhân viên Phòng Sơn - Nhựa,Công nhân bộ phận sản xuât,NV Giám Sát Công Trình,Công nhân láp ráp mạch điện tử,Nhân viên Chăm Sóc Khách Hàng,Nhân viên xưởng hàn dập,CÔNG NHÂN GấP,Công nhân chế biến - Nhà máy sữa,Công nhân so, sửa bán thành phẩm,Công nhân xưởng KCS,Công nhân KCS,Công nhân Test HC,Công nhân Xưởng lắp ráp,Nhân viên Kho nguyên liệu,Công nhân đóng gói hàng hóa,Nhân viên Chăm sóc khách hàng,Nhân viên Phòng Lắp ráp,Công nhân làm trong công ty bảng mạch FBCB dùng cho camera điện thoại di động,Công nhân là hơi,kỹ thuật,nv bảo vệ,Trưởng ca bảo vệ,Công nhân máy dập,Công nhân cắt phá, cắt gọt,Nhân viên kiểm tra chất lượng,Công nhân lắp ráp mạch điện tử,Công nhân đứng máy mài,Công nhân sản xuất motor,Dược sĩ đại học,Công nhân cắt,CN sản xuất,Điều dưỡng cao đẳng tại khoa Ngoại,Công nhân SX Camera điện thoại,Nhân viên Sản xuất,Công nhân sản xuất Camera,Công nhân sản xuất linh kiện điện tử,Công nhân bộ phận sản xuất,Chuyên viên tuyển sinh,Bậc 2 công nhân Nạp liệu lò cao trong công nghệ sản xuất phân lân nung chảy.,Công nhân hàn điện,Phiên dịch xưởng,Phó trưởng công an xã,Tổ trưởng bộ phận sơn,Công nhân thí nghiệm, phân tích hóa chất thuốc nhuộm,Nhân viên tạp vụ,hợp đồng giáo viên mầm non,Công nhân đánh bóng sản phẩm,Công nhân vận hành máy sợi,Tập sự chuyên viên,Giáo viên Mầm Non,NV Giao nhận-219A - Phạm Văn Thuận- Phường Tân Tiến- Tp Biên Hòa - Đồng Nai,Công nhân sửa chữa điện,Hợp đồng giáo viên mầm non,Công nhân lao động phổ thông, bậc 1/7,Nhân viên bộ phận dập,Chuyên viên phòng Nông nghiệp &amp; phát triển nông thôn,Công nhân đứng máy CNC,Công nhân cơ điện,Thợ sắt,Hợp đồng giáo viên tiểu học,Công nhân vận hành tổ điện phân, nén sấy khô Clo, lò HCl, javen,lái xe,Công nhân tạo hình,Công nhân là,Công nhân đội Thực Phẩm,Công nhân kiểm gấp trong dây chuyền may,Công nhân Kiểm hàng,Công nhân đóng kiện trong dây chuyền may,Công nhân Test 1,Giám sát trung tâm,Công nhân đóng gói sản phẩm may công nghiệp,Nhân viên thị trường CN Hà Nội, CN Hà Nội,Nhân viên S1,56500- NV Wiko - Vùng 02,Công nhân bộ phận High Pressure Casting,Công nhân vận hành,CN LáP RáP,Tư vấn tuyển sinh,Bảo Vệ,Công nhân tráng phủ,Công nhân sửa chữa máy sợi,Công nhân đóng gói sản phẩm,Giảng viên hợp đồng,Chương Xá - Cẩm Khê - Phú Thọ,Công nhân cắt chỉ hàng thêu 03ca,Công nhân sản xuất gạch men,Công Nhân Lao Động Phổ Thông, CN Sông Đà 6.01, Khoen On, Than Uyên, Lai Châu,Nhân viên khai thác 2,Đội trưởng Lái xe,công nhân xây dựng,Nhân Viên bán hàng,Nhân viên Hành chính Khu vực Hà Nội,NVVP,nhân viên kế toán,Công nhân may công nghiệp bậc 2/15,Phó Chánh văn phòng,công nhân xưởng in,Công nhân xưởng cơ khí,công nhân phòng Lắp ráp - Lắp ráp,Công nhân máy lọc nước,Công nhân đường thuê bao,Công nhân lái xe tải từ 7,5 tấn đến dưới 16,5 tấn,Công nhân cơ khí,Chuyên Viên,Nhân viên giám định,Nhân viên  Văn phòng,Dược sỹ,Nhân viên Bảo hiểm,Tổ trưởng Sản xuất,Cán bộ lao động tiền lương,Điều dưỡng viên,Công nhân bộ phận kiểm tra cao su,Công nhân Sản xuất bao bì giấy,Thủ quỹ điện lực,Thợ bảo hành máy kéo sợi OE,Cán sự hành chính,Giáo viên Trường mầm non Xuân Phú,Nhân Viên Kỹ Thuật Nhà Máy,Công nhân phòng sản xuất Mae,Công nhân học việc sản xuất loa,Công nhân  giặt quần bò (PG),y tá,Tổ Trưởng bàn,Công nhân phụ may công nghiệp,Công nhân gấp gói, bỏ túi,Công nhân Mành rèm,Công nhân là, gấp, đóng gói,Thợ Phụ,CN đứng máy sợi,Công nhân vận hành MMCN,CN vận hành may may CN,Công nhân trải vải, đánh số,Thủy thủ AB,Công nhân sản xuất máy móc dành cho may mặc và phụ kiện, thiết bị hao mòn và các bộ phận liên quan đến các loại máy này - BP Sản xuất,Công nhân lắp ráp linh kiện điện,Công nhân kiểm hóa,Công nhân là, gấp, đóng gói  ( may công nghiệp ),Nhân viên lái xe dưới 7 tấn,Công nhân GIặt,Công nhân đánh số,Nhân viên TYT Phúc Thành,Nhân Viên Bán Hàng - Hà Nội - Kv1,Công nhân bốc thành phẩm,Công nhân nhặt chỉ,Công nhân sản xuất linh kiện điện thoại,Tổ trưởng thử BP hoàn thiện,Công nhân gia công linh kiện cao su,công nhân sản xuất,Công nhân lắp ráp linh kiện điện tử,Nhân viên Siêu thị,Công nhân giặt,Công nhân sản xuất giầy,Công nhân bộ phận kho,Nhân viên ( Thợ hàn 3/7 ),trưởng kiểm soát,Công nhân tổ may,Công nhân kiểm tra chất lượng,Công nhân Tổ Đúc,Công nhân Màng Chụp,Nhân viên SIP,Nhân viên Kho thành phẩm,công nhân phân xưởng cắt,Nhân viên xuất,Công nhân bộ phận lắp ráp,Công nhân tổ phun Sơn,Thao Tác Viên,Kỹ thuật viên sản xuất nền đĩa thủy tinh,Công nhân may Công nghiệp  bậc 1/6,Công nhân địa chất tập sự,Công nhân may Công nghiệp,Công nhân vân hành bậc 27,Vận hành máy cuốn điếu, đóng bao thuốc lá,Nhân viên Trang Trí kiêm Thu ngân - Sim Số - V03 - Khoái Châu - Hưng Yên,Công nhân thu hóa,Công nhân vận hành máy đột dập kim loại,Công nhân Khai thác than trong hầm lò,Công nhân đóng gói lắp ráp,Công nhân kỹ thuật bộ phận PCBA,Nhân viên DVKH &amp; Thu ngân,Công nhân khâu móc,công nhân vận hành cần trục chân đế,Lưu trữ viên,Công nhân kiểm tra,Nhân viên mạng,Nhân viên phòng tổng hợp,Tổ phó đóng gói lắp ráp,Tổ Phó,Công Nhân May Công nghiệp,Trợ lý hành chính,Công nhân phát triển,Công nhân bộ phận Chất lượng,Công nhân chế tạo,Nhân viên S3,Công nhân cát may công nghiệp,Nhân viên bộ phận Sfact,Nhân viên - Công Ty Tnhh Jin-heung Metal Vina,Công nhân lắp ráp tai nghe,VM+ Nhân viên Bán hàng,Công nhân thay nguyên liệu,thay khuôn, gia công dập, gia công tap,xử lÝ scrap, vận chuyển linh kiện,Công nhân vận hành máy,Công nhân đóng thùng; Cong Ty TNHH DAUM &amp;amp;amp; QQ VIETNAM,Công nhân KTCL,Công nhân trải Vải - xnmay1,Công nhân may trực tiếp công nghiệp,Cử nhân sinh học, Viện vệ sinh dịch tễ Trung ương,Tài xế tải HN,Trợ lý hành chính bậc 1,Tổ trưởng,Nhân viên công vu,nhân viên hành chính,Lái xe con,Nhân viên kiểm tra hàng,Cán bộ y tế học đường,NV hỗ trợ kỹ thuật - Lv1,Công nhân hoàn thiện, gấp gói,Công nhân lắp zíc,Công nhân vận hành máy may- Xí nghiệp may Lạng Giang,Công nhân tổ In,Công nhân là ủi,Hợp đồng lao động,Công nhân thao tác,Công nhân Production Management,Công nhân tổ gia công,Trưởng dây chuyền lắp ráp thành phẩm  ,Lao động PT,Thủ Quỹ,NV Quan hệ khách hàng TDTT, làm việc tại Bắc Giang, Vùng 3,công nhân may trực tiếp cn,Huấn luyện viên Cá nhân,Trợ lý kho kiêm đóng gói,Công nhân Là,Công nhân vận hành máy may - Khu Vực Bắc Giang,Công nhân sản xuất vỏ điện thoại,Nhân viên bảo vệ tại Khu CN VISIP, Từ Sơn, Bắc Ninh,Nhân viên Marketing Hà Nội,Thợ hàn,công nhân may trực tiếp công nghiệp,Công nhân đổi bán thành phẩm,Công nhân may công nghiệp -Xí Nghiệp may Lục Nam,Công nhân lắp rắp thành phẩm,Kỹ thuật viên,Kỹ sư phòng Coating,Công nhân Hoàn Thiện,Thợ sửa máy,công nhân lao động phổ thông,Công nhân đồng bộ bán thành phẩm,Công nhân R&amp;amp;amp;D,Công nhân đứng máy,Công nhân phòng sản xuất,lao động phổ thông,kỹ sư,Công Nhân Sản xuất,Công nhân kiểm tra chất lượng sản phẩm,Trực ban chạy tàu,Trưởng phòng kế toán,Công nhân sản xuất thiết bị điện tử,Công nhân giao nhận,Công nhân lắp ráp, vận chuyển linh kiện, kiểm tra và đóng gói sản phẩm,Hiệu phó,Kế toán nhập liệu,nhân viên phát triển thị trường,Công nhân là trong chuyền,Học viên nhóm dạy lớp,Công nhân Đùn,Công Nhân in,Công nhân sản xuất lắp ráp,Lái xe tải 2.4 tấn,Công nhân lắp ráp thành phẩm,y sỹ,Hợp đồng Giáo viên mầm non,Hợp đồng Giáo viên,Nhân viên vận hành máy Cắt,Cán bộ Kỹ thuật,Công nhân sx gạch,Cán bộ tập sự văn phòng thống kê,Nhân viên phòng Kỹ thuật,Nhân viên kinh doanh- dự án SS,Công nhân - Gia công trục giảm sóc sau,Hợp đồng quay phim,Công Nhân Sửa bán thành phẩm,Công nhân sửa chữa máy may công nghiệp,Hợp đồng giáo viên dạy môn tin học,Thẩm phán,Kỹ sư công trình thủy điện, Chi nhánh Sông Đà 6.04, Đạo Đức, Vị Xuyên, Hà Giang,Công nhân vận hành lò hơi,Nhân Viên Kế Toán công nợ,Công nhân kiểm tra chất lượng sản phẩm may công nghiệp,Giáo viên tiểu học,Kỹ sư cơ khí, bậc 1/8,tập sự giáo viên,Công nhân đứng máy tráng phủ,Giám sát vệ sinh,Công nhân xưởng gia công,Công nhân nghiền,Công nhân bộ phận kiểm tra,Công nhân Coverlay,Thợ phụ máy uốn,Công nhân sản xuất linh kiện trong loa,Nhân viên phục vụ Sự kiện,Lái xe taxi,Lái xe Container,Công nhân Kiểm tra chất lượng,Kiểm soát viên đê điều,Tài xế tải,Uỷ viên HĐQT Kế toán trưởng,Bếp chính,Công Nhân
+ Sản Xuất,công nhân bộ phận xưởng đúc,Cán bộ kỹ thuât,Công nhân khai thác mỏ hầm lò,Nhân viên - V01 - TP. Hà Nội,Công nhân sản xuât,Công nhân- Công ty cổ phần tôn mạ màu Fujiton- KCN Tiên Sơn, Bắc Ninh,Công nhân bộ phận Pha chế,Nhân viên kĩ thuật,Công nhân sửa máy may công nghiệp,Tổ trưởng Chất lượng,Công nhân phân xưởng chặt,Nhân viên Dealer,Kế toán bán hàng,công nhân trực tiếp sản xuất,Công nhân chăn nuôi,Công nhân cung cấp nguyên liệu cho quá trình sản xuất,Công nhân kho trứng,Nhân Viên Hỗ Trợ Kinh Doanh,Nhân viên HCNS,Cán bộ công tác sinh viên,Nhân viên đối ngoại,Công nhân bộ phận nguyên liệu,Công nhân Development,Nhân Viên Bán Hàng - Tp. Hà Nội - Kv1,Công nhân KT,Công nhân  sản xuất,Phụ kho,Nhânviên,Thủ quỹ giao dịch,Công nhân mộc,Địa chính xây dựng,Trưởng phòng Kinh doanh,Tổ Trưởng Sản Xuất,CN VậN HàNH CẩU,Thợ máy tàu biển,Nhân viên trưởng kho,Kỹ thuật viên RHM,PLĐG HC,Công nhân bán lẻ xăng dầu &amp; các SP hóa dầu,  Cửa hàng xăng dầu Kỳ Tân,Công nhân lái xe Huyndai tải trọng 15 tấn,Y sĩ đa khoa,Nhân viên lấy mẫu thành phẩm , bán thành phẩm và kiểm tra thành phần hóa - P. Quản lý chất lượng,Tổ trưởng tổ hành chính,Y Sỹ,Phát hành báo,Bảo vệ kho Vật liệu nổ công nghiệp, áp tải xe chở Vật liệu nổ công nghiệp,Công nhân  rót tương,Nhân viên Tư Vấn - V03 - Tx. Kỳ Anh - Hà Tĩnh,Công nhân kinh doanh điện - Điện lực Diễn Châu,Chà nhám,Nhân viên đóng hàng,Phó CT MTTQ,Công nhân quản lý vận hành đường dây 220kv-500kv,Giáo viên+tổ phó,KTV Quản lý triển khai, ứng cứu &amp; XLSC ngoại vi,Công nhân bộ phận Engineering Group 1,ĐDTM,Giám sát nhà hàng,Nhân viên thị trường - Trung tâm lữ hành quốc tế và nội địa,CN thủy nông XNTL Yên Thành,Công nhân làm đường,Đại diện kinh doanh,Nhân  viên kế toán,Công nhân Phun Hoa Phun Sơn Đoạn Sau B,Công nhân Cắt,Nhân viên Cấp trung Huấn luyện Đại lý &amp;amp; Kênh Phân phối,CN.Cơ khí,Đầu bếp Bánh,Giao nhận,Văn thư, thủ quỹ,Công nhân mài phá,Vận động viên,điều phối viên,Nhân viên y tế,Nhân  viên,Cnhân VHTB Thành hình lốp,Công nhân bán lẻ xăng dầu và các Sp hóa dầu, Cửa hàng xăng dầu Khe Giao,K? s?,Y sỹ,Cán bộ mua sắm,Công nhân công nghệ ô tô 3/7,Coõng nhaõn boọ phaọn May Long Thaứnh,Y sỹ hạng IV- khoa y tế công cộng,Công Nhân Vận Hành Máy May Công Nghiệp,Giáo viên mầm non hạng II - Tổ phó,Công nhân sửa chửa thiết bị luyện kim,Công nhân tổ Rút sợi, Rút sợi,Thông dịch tiếng Hàn,nhân viên kỹ thật,Phó bí thư Đoàn,Trưởng Phòng Văn hóa - Thông tin,Công nhân lắp đặt,công nhân Sản Xuất,Nhân viên SINH QUảN,Giáo viên - Tổ trưởng,cán bộ kế toán viên,CN quản lý, Vận hành điện CSCC,Nhân viên - V04 - Tỉnh Hà Tĩnh,Giáo viên mầm non hạng IV - Tổ trưởng chuyên môn,Nhân viên đúc,Kỹ sư xây dựng cầu đường,Kinh tế viên (Hương Khê),Điều dưỡng trung cấp,Thủy Thủ,Nhân viên Tạp vụ Bếp,Công Nhân Lưu Hóa Các Sản Phẩm Cao Su,Công Nhân Đứng Máy Thêu,Công nhân phụ BP hoàn thành,Điều dưỡng trung học làm việc tại khoa Phẫu thuật GMHS,Công Nhân Hợp Đồng - Bộ Phận Gia Vị Lỏng,CN trồng và thu hoạch chè,Nhân viên máy cắt dây,Cán sự (Can Lộc),LÁI XE,Công nhân vận hành máy dệt kim tròn,Công nhân sản xuất linh kiện Camera,TÀI XẾ,CN-EDT0Y,Nhân viên vận chuyển,Nhân viên Khảo nghiệm miền Bắc,đội trưởng đội xe,CN Xưởng chặt,Công nhân sản xuất nền đĩa thủy tinh,Công nhân chăm sóc thu hái cam,Nhân viên  Xưởng vải mành 2,Công Nhân Dệt,Lao động phổ thông,Công nhân xưởng may Kimono,Địa chính - Xây dựng,Giám sát nhân sự nhà máy,Trưởng Nhóm Tiếp Nhận Yêu Cầu Khách Hàng,Công nhân cắt hàng,Nhân viên Khoa sư phạm,Công nhân điện nước,N.V,Nhân viên đồ họa,Chuyên viên kỹ thuật thí nghiệm, phân tích hóa chất thuốc nhuộm,CN vệ sinh chuồng,Công nhân Đóng thùng,cán bộ,công nhân chế biến mũ cao su,Phục Vụ,Nhân viên lễ tân - Lễ tân,Giảng viên trợ giảng,Công Nhân đại tu cầu đường,công nhân đứng máy sợi,Giáo viên, tổ trưởng,Nhân viên bàn,Nhân viên thư ký,Kỹ sư ứng cứu thông tin, Trung Tâm bảo dưỡng, Cty Viễn Thông,Phóng viên,80198/Nhân viên dự án SRF/Huế/Vùng 3,Nhân Viên It,Nhân viên kho quỹ,Phũng Đào tạo,Chuyên viên Nhà hàng,Nhân viên bảo trì tổng hợp,Nhân Viên Thao Tác,Công nhân đóng kiện trong dây chuyền dệt may,NV nghiệp vụ,Thieu chuc danh tu du lieu 3s,Cán bộ Thẩm  Định,Công nhân ép nhựa,Cán bộ kỹ thuật viên,PQTD,Nhân Viên Dập,Công nhân Hàn dải,Kỹ thuật Đội cầu 405,Nhân viên lái xe &amp;amp; vận hành trang thiết bị,Công nhân kho SYO,Công nhân Nguội - Khuôn mẫu,Nhân Viên Kỹ Thuật Điện,Công nhân sản xuất tủ lạnh,Nhân viên hiện trường,Công Nhân Sản Xuất Phốt,Nhân viên Tư vấn,Y tá,Công nhân sản xuất bánh kẹo,Trợ lý KTV,Thợ cơ khí,Công nhân bộ phận Mạ,Công nhân tuyển rửa đá, đóng bao sản phẩm bột đá  siêu mịn,Kỹ sư BĐH,Phó chỉ huy trưởng quân sự,Công nhân thủ công kỹ thuật,Công nhân Lao động phổ thông,Nhân viên tư vấn khách hàng,NV.Kỹ thuật,Nhân viên - V03 - Nghệ An,Nhân Viên Bán Hàng - Nghệ An - Huyện Nghĩa Đàn - Kv4,Kỹ sư Cơ,Điện thoại viên VNP,Nhân viên cơ điện,Thủ kho dược,Công nhân bộ phận phun sơn,Công nhân CD-Công ty CP may Kinh Bắc,Công nhân test hàng,Công nhân sản xuất ống dẫn nhiên liệu,Nhân viên Xuất nhập khẩu,Công nhân cắt và bao ép,Nhân viên Phòng Chế tạo khung,Tổ trưởng văn phòng,Công nhân Máy ép NM2,Nhân viên quầy bánh mỳ,Công nhân Hoàn chỉnh,Công nhân pha cắt,Nhân viên Làm việc tại Bắc Giang  Vùng 3,Công nhân sản xuất giày và các công việc liên quan,Công nhân in xoa,CNSX Bộ Phận Đóng Gói,Công nhân thêu vi tính,Công Nhân Pha Cắt,Công nhân sản quét keo,Nhân viên đổ sợi sợi con,ủi,Khuôn,Kho quỹ,Lái cẩu,Công nhân May Tổ 93,Nhân viên HỗTrợ bán Hàng,Thợ hàn điện hầm tàu,Kỹ thuật viên vệ sinh an toàn thực phẩm-xét nghiệm,Công nhân may CN,Kỹ thuật viên xét nghiệm,Kinh tế viên tín dụng- Ngân hàng NN huyện Thiệu Hoá,giáo viên tiếng anh,VHTT,Giáo viên trung học cơ sở,Nhân viên Bán hàng,giáo viên THCS chính,Giáo viên, Tổ phó,Công nhân kiểm nghiệm mía đường bậc 4/6,Giáo viên (lao động hợp đồng),Kỹ thuật viên trung cấp,công nhân  Hoàn Chỉnh,Nhân viên triển khai phần mềm,Kỹ sư thuỷ lợi,Trung cấp điều dưỡng,Kỹ Sư,NVVP post,Nhân viên kiểm tra trên chuyền - Line 20,Nhân viên phòng mẫu,Công nhân Phối liệu cao su,công nhân vận hành máy may công nghiệp,Công nhân sản xuất nền đĩa thủy tinh Công ty TNHH Hoya Glass Disk Việt Nam,Kỹ sư, cán bộ kỹ thuật,Công nhân vận hành máy nhuộm sợi,Công nhân vận hành máy in hoa trên trục,Kỹ sư kỹ thuật công trình XD,Công nhân vận hành máy dệt nước,Công nhân nước thải,Công  nhân,Nhân viên Giao hàng,Công Nhân BP Giũa,Kỹ sư địa chất,Nhân viên phòng bản,Cán bộ Văn phòng Sở,Nhân viên đốc chuyến,Công nhân thu gom rác,kỹ thuật viên,Nhân viên chia bài tập sự,Công nhân Dây chuyền PBA3,Công nhân vận chuyển,Công nhân SX giầy,Lao động phổ thông - Học viên VHNM,Công nhân tổ hoàn chỉnh,Công nhân bơm điện,Nhân viên thể thao,Công nhân Pha Cắt,Công nhân bảo trì,Điều dưỡng trung học</t>
   </si>
   <si>
     <t>{0.0,nan,0.58,0.67,0.36,0.7,0.08,0.88,0.04,0.42,0.4,0.24,0.21,0.14,0.25,0.26,0.44,0.01,0.47,0.93,0.1,0.28,0.52,1.0,0.97,0.54,0.17,0.27,0.65,0.3,0.99,0.45,0.95,0.98,0.94,0.84,0.76,0.49,0.68,0.72,0.39,0.11,0.15,0.48,0.07,0.23,0.16,0.66,0.79,0.46,0.69,0.02,0.29,0.83,0.31,0.05,0.64,0.09,0.03,0.34,0.77,0.75,0.43,0.59,0.33,0.55,0.63,0.22,0.82,0.91,0.87,0.13,0.51,0.57,0.35,0.38,0.56,0.53,0.18,0.74,0.9,0.5,0.2,0.96,0.6,0.71,0.92,0.12,0.37,0.06,0.61,0.86,0.62,0.81,0.19,0.41,0.78,0.32,0.73,0.8,0.85,0.89}</t>
